--- a/startlists.xlsx
+++ b/startlists.xlsx
@@ -43,58 +43,574 @@
     <t>StartGrp</t>
   </si>
   <si>
+    <t>Wannes</t>
+  </si>
+  <si>
+    <t>Hendrickx</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Borjeskog</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Bjarne</t>
+  </si>
+  <si>
+    <t>Friedrichs</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Dimitar</t>
+  </si>
+  <si>
+    <t>Zhelyazkov</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>Gernot</t>
+  </si>
+  <si>
+    <t>Kerschbaumer</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Hadorn</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>Frederic</t>
+  </si>
+  <si>
+    <t>Tranchand</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Gheorghe</t>
+  </si>
+  <si>
+    <t>Fala</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Hodkinson</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Hakon</t>
+  </si>
+  <si>
+    <t>Jarvis Westergard</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>Andris</t>
+  </si>
+  <si>
+    <t>Kivlenieks</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Saetalu</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Laukkarinen</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Arturs</t>
+  </si>
+  <si>
+    <t>Paulins</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Rueedlinger</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Doellgast</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Inderst</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Itay</t>
+  </si>
+  <si>
+    <t>Manor</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Rauturier</t>
+  </si>
+  <si>
+    <t>Vojtech</t>
+  </si>
+  <si>
+    <t>Sykora</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Max Peter</t>
+  </si>
+  <si>
+    <t>Bejmer</t>
+  </si>
+  <si>
+    <t>Joao Mega</t>
+  </si>
+  <si>
+    <t>Figueiredo</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Dmitrii</t>
+  </si>
+  <si>
+    <t>Poliakov</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Martinez Perez</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Yordanov</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>Tsvetkov</t>
+  </si>
+  <si>
+    <t>Mattia</t>
+  </si>
+  <si>
+    <t>Debertolis</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Ciobanu</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Bloemen</t>
+  </si>
+  <si>
+    <t>Giacomo</t>
+  </si>
+  <si>
+    <t>Barbone</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Kral</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Dewett</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Jonas Vytautas</t>
+  </si>
+  <si>
+    <t>Gvildys</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Aleksi</t>
+  </si>
+  <si>
+    <t>Niemi</t>
+  </si>
+  <si>
+    <t>Kasper</t>
+  </si>
+  <si>
+    <t>Fosser</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Kivikas</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Scalet</t>
+  </si>
+  <si>
+    <t>Andreas Hougaard</t>
+  </si>
+  <si>
+    <t>Boesen</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Delenne</t>
+  </si>
+  <si>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>Hirvikallio</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Popov</t>
+  </si>
+  <si>
+    <t>Mantas</t>
+  </si>
+  <si>
+    <t>Martinkus</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Regborn</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>McLeod</t>
+  </si>
+  <si>
+    <t>Endijs</t>
+  </si>
+  <si>
+    <t>Titomers</t>
+  </si>
+  <si>
+    <t>Teodor</t>
+  </si>
+  <si>
+    <t>Hubmann</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Salmenkyla</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Kubelka</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Rjabyshkin</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Jonsson</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Merl</t>
+  </si>
+  <si>
+    <t>Bogya</t>
+  </si>
+  <si>
+    <t>Tamas</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Kacmaz</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>Khramov</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Chepelin</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Leandersson</t>
+  </si>
+  <si>
+    <t>Warre</t>
+  </si>
+  <si>
+    <t>De Cuyper</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Dallavalle</t>
+  </si>
+  <si>
+    <t>Howald</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Goericke</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Nykodym</t>
+  </si>
+  <si>
+    <t>Topi</t>
+  </si>
+  <si>
+    <t>Raitanen</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Gil Marcos</t>
+  </si>
+  <si>
+    <t>Yannick</t>
+  </si>
+  <si>
+    <t>Michiels</t>
+  </si>
+  <si>
+    <t>Ivaylo</t>
+  </si>
+  <si>
+    <t>Kamenarov</t>
+  </si>
+  <si>
+    <t>Trond Einar</t>
+  </si>
+  <si>
+    <t>Moen Pedersli</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>McNulty</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Jubelis</t>
+  </si>
+  <si>
+    <t>Asaf</t>
+  </si>
+  <si>
+    <t>Avner</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Basset</t>
+  </si>
+  <si>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>Olejnik</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>George Emilian</t>
+  </si>
+  <si>
+    <t>Minoiu</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Minar</t>
+  </si>
+  <si>
+    <t>Artem</t>
+  </si>
+  <si>
+    <t>Alessio</t>
+  </si>
+  <si>
+    <t>Tenani</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Parfianowicz</t>
+  </si>
+  <si>
     <t>Morten</t>
   </si>
   <si>
     <t>Jorgensen</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Bjarne</t>
-  </si>
-  <si>
-    <t>Friedrichs</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>Alasdair</t>
-  </si>
-  <si>
-    <t>McLeod</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>Endijs</t>
-  </si>
-  <si>
-    <t>Titomers</t>
-  </si>
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>Dimitar</t>
-  </si>
-  <si>
-    <t>Zhelyazkov</t>
-  </si>
-  <si>
-    <t>BUL</t>
-  </si>
-  <si>
-    <t>Gheorghe</t>
-  </si>
-  <si>
-    <t>Fala</t>
-  </si>
-  <si>
-    <t>MDA</t>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Simosas</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Hajek</t>
   </si>
   <si>
     <t>Wouter</t>
@@ -103,16 +619,10 @@
     <t>Hus</t>
   </si>
   <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>Adrien</t>
-  </si>
-  <si>
-    <t>Delenne</t>
-  </si>
-  <si>
-    <t>FRA</t>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Nogueira</t>
   </si>
   <si>
     <t>Oystein</t>
@@ -121,52 +631,73 @@
     <t>Kvaal Osterbo</t>
   </si>
   <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Hajek</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>Florian</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>SUI</t>
-  </si>
-  <si>
-    <t>Alessio</t>
-  </si>
-  <si>
-    <t>Tenani</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Saetalu</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Chepelin</t>
-  </si>
-  <si>
-    <t>Hubmann</t>
+    <t>Sebastian Ken</t>
+  </si>
+  <si>
+    <t>Baumann</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Nitsan</t>
+  </si>
+  <si>
+    <t>Yasur</t>
+  </si>
+  <si>
+    <t>Miika</t>
+  </si>
+  <si>
+    <t>Kirmula</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Coupat</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Prunsche</t>
+  </si>
+  <si>
+    <t>Algirdas</t>
+  </si>
+  <si>
+    <t>Bartkevicius</t>
+  </si>
+  <si>
+    <t>Uldis</t>
+  </si>
+  <si>
+    <t>Upitis</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Smithard</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Jon Aukrust</t>
+  </si>
+  <si>
+    <t>Osmoen</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Sirakov</t>
   </si>
   <si>
     <t>Jakob</t>
@@ -175,91 +706,58 @@
     <t>Edsen</t>
   </si>
   <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>Algirdas</t>
-  </si>
-  <si>
-    <t>Bartkevicius</t>
-  </si>
-  <si>
-    <t>LTU</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>Tomas</t>
-  </si>
-  <si>
-    <t>Kubelka</t>
-  </si>
-  <si>
-    <t>Itay</t>
-  </si>
-  <si>
-    <t>Manor</t>
-  </si>
-  <si>
-    <t>ISR</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Merl</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>Khramov</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Dallavalle</t>
-  </si>
-  <si>
-    <t>Moritz</t>
-  </si>
-  <si>
-    <t>Doellgast</t>
-  </si>
-  <si>
-    <t>Bogya</t>
-  </si>
-  <si>
-    <t>Tamas</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>Ivaylo</t>
-  </si>
-  <si>
-    <t>Kamenarov</t>
-  </si>
-  <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Bloemen</t>
+    <t>Loic</t>
+  </si>
+  <si>
+    <t>Capbern</t>
+  </si>
+  <si>
+    <t>Alexandru</t>
+  </si>
+  <si>
+    <t>Blejdea</t>
+  </si>
+  <si>
+    <t>Kristo</t>
+  </si>
+  <si>
+    <t>Heinmann</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Bergman</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Reiner</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Apostol</t>
+  </si>
+  <si>
+    <t>Atanasov</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Spaeth</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Svensk</t>
   </si>
   <si>
     <t>Davis</t>
@@ -268,22 +766,10 @@
     <t>Dislers</t>
   </si>
   <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>McNulty</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>Olejnik</t>
-  </si>
-  <si>
-    <t>POL</t>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Caraglio</t>
   </si>
   <si>
     <t>Andreu</t>
@@ -292,493 +778,7 @@
     <t>Blanes</t>
   </si>
   <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>Topi</t>
-  </si>
-  <si>
-    <t>Raitanen</t>
-  </si>
-  <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
     <t>Kyburz</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Basset</t>
-  </si>
-  <si>
-    <t>Gustav</t>
-  </si>
-  <si>
-    <t>Bergman</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>Reiner</t>
-  </si>
-  <si>
-    <t>Aleksi</t>
-  </si>
-  <si>
-    <t>Niemi</t>
-  </si>
-  <si>
-    <t>Trond Einar</t>
-  </si>
-  <si>
-    <t>Moen Pedersli</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>Svensk</t>
-  </si>
-  <si>
-    <t>Andreas Hougaard</t>
-  </si>
-  <si>
-    <t>Boesen</t>
-  </si>
-  <si>
-    <t>Marek</t>
-  </si>
-  <si>
-    <t>Minar</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Hodkinson</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
-    <t>Simosas</t>
-  </si>
-  <si>
-    <t>Frederic</t>
-  </si>
-  <si>
-    <t>Tranchand</t>
-  </si>
-  <si>
-    <t>Andris</t>
-  </si>
-  <si>
-    <t>Kivlenieks</t>
-  </si>
-  <si>
-    <t>Sebastian Ken</t>
-  </si>
-  <si>
-    <t>Baumann</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>Joni</t>
-  </si>
-  <si>
-    <t>Hirvikallio</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Borjeskog</t>
-  </si>
-  <si>
-    <t>Piotr</t>
-  </si>
-  <si>
-    <t>Parfianowicz</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Nogueira</t>
-  </si>
-  <si>
-    <t>Wannes</t>
-  </si>
-  <si>
-    <t>Hendrickx</t>
-  </si>
-  <si>
-    <t>Artem</t>
-  </si>
-  <si>
-    <t>Popov</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>Rueedlinger</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Sirakov</t>
-  </si>
-  <si>
-    <t>Warre</t>
-  </si>
-  <si>
-    <t>De Cuyper</t>
-  </si>
-  <si>
-    <t>Uldis</t>
-  </si>
-  <si>
-    <t>Upitis</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Coupat</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Salmenkyla</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Leandersson</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Smithard</t>
-  </si>
-  <si>
-    <t>Christoph</t>
-  </si>
-  <si>
-    <t>Prunsche</t>
-  </si>
-  <si>
-    <t>Joao Mega</t>
-  </si>
-  <si>
-    <t>Figueiredo</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Martinez Perez</t>
-  </si>
-  <si>
-    <t>Jon Aukrust</t>
-  </si>
-  <si>
-    <t>Osmoen</t>
-  </si>
-  <si>
-    <t>Dmitrii</t>
-  </si>
-  <si>
-    <t>Poliakov</t>
-  </si>
-  <si>
-    <t>Asaf</t>
-  </si>
-  <si>
-    <t>Avner</t>
-  </si>
-  <si>
-    <t>Michele</t>
-  </si>
-  <si>
-    <t>Caraglio</t>
-  </si>
-  <si>
-    <t>Mathias</t>
-  </si>
-  <si>
-    <t>Apostol</t>
-  </si>
-  <si>
-    <t>Atanasov</t>
-  </si>
-  <si>
-    <t>Howald</t>
-  </si>
-  <si>
-    <t>Mattia</t>
-  </si>
-  <si>
-    <t>Debertolis</t>
-  </si>
-  <si>
-    <t>Kristo</t>
-  </si>
-  <si>
-    <t>Heinmann</t>
-  </si>
-  <si>
-    <t>Vojtech</t>
-  </si>
-  <si>
-    <t>Kral</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Spaeth</t>
-  </si>
-  <si>
-    <t>Jonas Vytautas</t>
-  </si>
-  <si>
-    <t>Gvildys</t>
-  </si>
-  <si>
-    <t>Kasper</t>
-  </si>
-  <si>
-    <t>Fosser</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Ciobanu</t>
-  </si>
-  <si>
-    <t>Philipp</t>
-  </si>
-  <si>
-    <t>Mueller</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Regborn</t>
-  </si>
-  <si>
-    <t>Mantas</t>
-  </si>
-  <si>
-    <t>Martinkus</t>
-  </si>
-  <si>
-    <t>Gernot</t>
-  </si>
-  <si>
-    <t>Kerschbaumer</t>
-  </si>
-  <si>
-    <t>Hakon</t>
-  </si>
-  <si>
-    <t>Jarvis Westergard</t>
-  </si>
-  <si>
-    <t>Teodor</t>
-  </si>
-  <si>
-    <t>Yordanov</t>
-  </si>
-  <si>
-    <t>George Emilian</t>
-  </si>
-  <si>
-    <t>Minoiu</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>Hadorn</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Riccardo</t>
-  </si>
-  <si>
-    <t>Scalet</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Nitsan</t>
-  </si>
-  <si>
-    <t>Yasur</t>
-  </si>
-  <si>
-    <t>Sykora</t>
-  </si>
-  <si>
-    <t>Max Peter</t>
-  </si>
-  <si>
-    <t>Bejmer</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>Rauturier</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Sergei</t>
-  </si>
-  <si>
-    <t>Rjabyshkin</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Inderst</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Jonsson</t>
-  </si>
-  <si>
-    <t>Miika</t>
-  </si>
-  <si>
-    <t>Kirmula</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>Laukkarinen</t>
-  </si>
-  <si>
-    <t>Arturs</t>
-  </si>
-  <si>
-    <t>Paulins</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Kacmaz</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>Milos</t>
-  </si>
-  <si>
-    <t>Nykodym</t>
-  </si>
-  <si>
-    <t>Jubelis</t>
-  </si>
-  <si>
-    <t>Yannick</t>
-  </si>
-  <si>
-    <t>Michiels</t>
-  </si>
-  <si>
-    <t>Dmitry</t>
-  </si>
-  <si>
-    <t>Tsvetkov</t>
-  </si>
-  <si>
-    <t>Alexandru</t>
-  </si>
-  <si>
-    <t>Blejdea</t>
-  </si>
-  <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Kivikas</t>
-  </si>
-  <si>
-    <t>Magnus</t>
-  </si>
-  <si>
-    <t>Dewett</t>
-  </si>
-  <si>
-    <t>Loic</t>
-  </si>
-  <si>
-    <t>Capbern</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Gil Marcos</t>
-  </si>
-  <si>
-    <t>Kristian</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Giacomo</t>
-  </si>
-  <si>
-    <t>Barbone</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Goericke</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Street</t>
   </si>
 </sst>
 </file>
@@ -1162,13 +1162,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G2">
-        <v>3727</v>
+        <v>1000</v>
       </c>
       <c r="H2">
-        <v>22494</v>
+        <v>10588</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1191,13 +1191,13 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>96</v>
+        <v>37</v>
       </c>
       <c r="G3">
-        <v>3952</v>
+        <v>4992</v>
       </c>
       <c r="H3">
-        <v>9624</v>
+        <v>8136</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1220,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="G4">
-        <v>4736</v>
+        <v>3952</v>
       </c>
       <c r="H4">
-        <v>13474</v>
+        <v>9624</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="G5">
-        <v>4322</v>
+        <v>4066</v>
       </c>
       <c r="H5">
-        <v>19137</v>
+        <v>24809</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="G6">
-        <v>4066</v>
+        <v>5131</v>
       </c>
       <c r="H6">
-        <v>24809</v>
+        <v>11671</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1307,13 +1307,13 @@
         <v>26</v>
       </c>
       <c r="F7">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="G7">
-        <v>1654</v>
+        <v>4736</v>
       </c>
       <c r="H7">
-        <v>9342</v>
+        <v>23033</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1336,13 +1336,13 @@
         <v>29</v>
       </c>
       <c r="F8">
-        <v>113</v>
+        <v>3</v>
       </c>
       <c r="G8">
-        <v>1000</v>
+        <v>5673</v>
       </c>
       <c r="H8">
-        <v>20876</v>
+        <v>17348</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1365,13 +1365,13 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="G9">
-        <v>4956</v>
+        <v>1654</v>
       </c>
       <c r="H9">
-        <v>19918</v>
+        <v>9342</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1394,13 +1394,13 @@
         <v>35</v>
       </c>
       <c r="F10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>5249</v>
+        <v>5272</v>
       </c>
       <c r="H10">
-        <v>18660</v>
+        <v>10688</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1423,13 +1423,13 @@
         <v>38</v>
       </c>
       <c r="F11">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>4353</v>
+        <v>5473</v>
       </c>
       <c r="H11">
-        <v>10320</v>
+        <v>11163</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1452,13 +1452,13 @@
         <v>41</v>
       </c>
       <c r="F12">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="G12">
-        <v>5020</v>
+        <v>5464</v>
       </c>
       <c r="H12">
-        <v>15991</v>
+        <v>15525</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1481,13 +1481,13 @@
         <v>44</v>
       </c>
       <c r="F13">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G13">
-        <v>4422</v>
+        <v>4690</v>
       </c>
       <c r="H13">
-        <v>17146</v>
+        <v>11786</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1536,16 +1536,16 @@
         <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="G15">
-        <v>4599</v>
+        <v>5208</v>
       </c>
       <c r="H15">
-        <v>8351</v>
+        <v>12511</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1559,22 +1559,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G16">
-        <v>5641</v>
+        <v>4952</v>
       </c>
       <c r="H16">
-        <v>10849</v>
+        <v>14704</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1588,22 +1588,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G17">
-        <v>5149</v>
+        <v>4913</v>
       </c>
       <c r="H17">
-        <v>22688</v>
+        <v>15729</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1617,22 +1617,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="F18">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="G18">
-        <v>4812</v>
+        <v>4233</v>
       </c>
       <c r="H18">
-        <v>18826</v>
+        <v>9068</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1655,13 +1655,13 @@
         <v>59</v>
       </c>
       <c r="F19">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="G19">
-        <v>4482</v>
+        <v>4202</v>
       </c>
       <c r="H19">
-        <v>22452</v>
+        <v>11008</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1681,16 +1681,16 @@
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="F20">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="G20">
-        <v>4680</v>
+        <v>3664</v>
       </c>
       <c r="H20">
-        <v>19046</v>
+        <v>21437</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1704,22 +1704,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
         <v>64</v>
       </c>
-      <c r="F21">
-        <v>103</v>
-      </c>
       <c r="G21">
-        <v>3664</v>
+        <v>4586</v>
       </c>
       <c r="H21">
-        <v>21437</v>
+        <v>20655</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1742,13 +1742,13 @@
         <v>67</v>
       </c>
       <c r="F22">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="G22">
-        <v>5166</v>
+        <v>4534</v>
       </c>
       <c r="H22">
-        <v>13549</v>
+        <v>25347</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1768,16 +1768,16 @@
         <v>69</v>
       </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F23">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="G23">
-        <v>5196</v>
+        <v>4840</v>
       </c>
       <c r="H23">
-        <v>11718</v>
+        <v>7466</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1791,22 +1791,22 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
       <c r="F24">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="G24">
-        <v>4265</v>
+        <v>4399</v>
       </c>
       <c r="H24">
-        <v>8680</v>
+        <v>9450</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1826,16 +1826,16 @@
         <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="F25">
-        <v>86</v>
+        <v>51</v>
       </c>
       <c r="G25">
-        <v>4233</v>
+        <v>4738</v>
       </c>
       <c r="H25">
-        <v>9068</v>
+        <v>15056</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1849,22 +1849,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="G26">
-        <v>3808</v>
+        <v>5379</v>
       </c>
       <c r="H26">
-        <v>7771</v>
+        <v>13326</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1878,25 +1878,25 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F27">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="G27">
-        <v>4208</v>
+        <v>3898</v>
       </c>
       <c r="H27">
-        <v>11467</v>
+        <v>25423</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1907,22 +1907,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="F28">
-        <v>115</v>
+        <v>60</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4667</v>
       </c>
       <c r="H28">
-        <v>7724</v>
+        <v>17414</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -1936,22 +1936,22 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F29">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G29">
-        <v>4538</v>
+        <v>4353</v>
       </c>
       <c r="H29">
-        <v>18766</v>
+        <v>19153</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -1965,22 +1965,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F30">
-        <v>44</v>
+        <v>81</v>
       </c>
       <c r="G30">
-        <v>4905</v>
+        <v>4304</v>
       </c>
       <c r="H30">
-        <v>13483</v>
+        <v>8458</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1994,22 +1994,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
       <c r="F31">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G31">
-        <v>4540</v>
+        <v>4295</v>
       </c>
       <c r="H31">
-        <v>14406</v>
+        <v>14853</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2023,22 +2023,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" t="s">
         <v>90</v>
       </c>
-      <c r="D32" t="s">
-        <v>91</v>
-      </c>
       <c r="E32" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F32">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="G32">
-        <v>5356</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>15397</v>
+        <v>7724</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2052,22 +2052,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" t="s">
+        <v>92</v>
+      </c>
+      <c r="E33" t="s">
         <v>93</v>
       </c>
-      <c r="D33" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
       <c r="F33">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="G33">
-        <v>4848</v>
+        <v>3687</v>
       </c>
       <c r="H33">
-        <v>15299</v>
+        <v>7345</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -2081,22 +2081,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F34">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G34">
-        <v>5820</v>
+        <v>4993</v>
       </c>
       <c r="H34">
-        <v>12305</v>
+        <v>16782</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -2110,22 +2110,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F35">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G35">
-        <v>5319</v>
+        <v>5661</v>
       </c>
       <c r="H35">
-        <v>7403</v>
+        <v>12187</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -2139,22 +2139,22 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F36">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="G36">
-        <v>5544</v>
+        <v>4653</v>
       </c>
       <c r="H36">
-        <v>7562</v>
+        <v>8831</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -2168,22 +2168,22 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E37" t="s">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="F37">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="G37">
-        <v>4975</v>
+        <v>5175</v>
       </c>
       <c r="H37">
-        <v>15405</v>
+        <v>10248</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -2197,13 +2197,13 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
         <v>104</v>
       </c>
-      <c r="D38" t="s">
-        <v>105</v>
-      </c>
       <c r="E38" t="s">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="F38">
         <v>33</v>
@@ -2226,22 +2226,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
       <c r="E39" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F39">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="G39">
-        <v>4710</v>
+        <v>4488</v>
       </c>
       <c r="H39">
-        <v>14760</v>
+        <v>23855</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2255,22 +2255,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
         <v>108</v>
       </c>
-      <c r="D40" t="s">
-        <v>109</v>
-      </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="F40">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G40">
-        <v>5473</v>
+        <v>5329</v>
       </c>
       <c r="H40">
-        <v>16905</v>
+        <v>11784</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
         <v>110</v>
       </c>
-      <c r="D41" t="s">
-        <v>111</v>
-      </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="F41">
-        <v>28</v>
+        <v>105</v>
       </c>
       <c r="G41">
-        <v>5154</v>
+        <v>3524</v>
       </c>
       <c r="H41">
-        <v>7760</v>
+        <v>13978</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2313,22 +2313,22 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
         <v>112</v>
       </c>
-      <c r="D42" t="s">
-        <v>113</v>
-      </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="F42">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="G42">
-        <v>4623</v>
+        <v>5092</v>
       </c>
       <c r="H42">
-        <v>20166</v>
+        <v>18966</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2342,22 +2342,22 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
         <v>114</v>
       </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
       <c r="E43" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F43">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G43">
-        <v>5272</v>
+        <v>5154</v>
       </c>
       <c r="H43">
-        <v>10688</v>
+        <v>7760</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2371,22 +2371,22 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
         <v>116</v>
       </c>
-      <c r="D44" t="s">
-        <v>117</v>
-      </c>
       <c r="E44" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="F44">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="G44">
-        <v>5077</v>
+        <v>4956</v>
       </c>
       <c r="H44">
-        <v>16342</v>
+        <v>19918</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -2400,22 +2400,22 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
+        <v>117</v>
+      </c>
+      <c r="D45" t="s">
         <v>118</v>
       </c>
-      <c r="D45" t="s">
-        <v>119</v>
-      </c>
       <c r="E45" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="G45">
-        <v>5673</v>
+        <v>4532</v>
       </c>
       <c r="H45">
-        <v>17348</v>
+        <v>10663</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2429,22 +2429,22 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
+        <v>119</v>
+      </c>
+      <c r="D46" t="s">
         <v>120</v>
       </c>
-      <c r="D46" t="s">
-        <v>121</v>
-      </c>
       <c r="E46" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="F46">
-        <v>56</v>
+        <v>85</v>
       </c>
       <c r="G46">
-        <v>4690</v>
+        <v>4265</v>
       </c>
       <c r="H46">
-        <v>11786</v>
+        <v>22153</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2458,22 +2458,22 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
+        <v>121</v>
+      </c>
+      <c r="D47" t="s">
         <v>122</v>
       </c>
-      <c r="D47" t="s">
-        <v>123</v>
-      </c>
       <c r="E47" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="F47">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G47">
-        <v>4216</v>
+        <v>1000</v>
       </c>
       <c r="H47">
-        <v>25943</v>
+        <v>24197</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2487,22 +2487,22 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="F48">
-        <v>69</v>
+        <v>35</v>
       </c>
       <c r="G48">
-        <v>4532</v>
+        <v>5020</v>
       </c>
       <c r="H48">
-        <v>10663</v>
+        <v>15991</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2516,22 +2516,22 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="F49">
-        <v>37</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>4992</v>
+        <v>5680</v>
       </c>
       <c r="H49">
-        <v>8136</v>
+        <v>15387</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2545,22 +2545,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="F50">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G50">
-        <v>5177</v>
+        <v>4736</v>
       </c>
       <c r="H50">
-        <v>14642</v>
+        <v>13474</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2574,22 +2574,22 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E51" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="F51">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="G51">
-        <v>3980</v>
+        <v>4322</v>
       </c>
       <c r="H51">
-        <v>13880</v>
+        <v>19137</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2603,22 +2603,22 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="E52" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F52">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="G52">
-        <v>1000</v>
+        <v>4030</v>
       </c>
       <c r="H52">
-        <v>10588</v>
+        <v>18286</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2632,22 +2632,22 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E53" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F53">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="G53">
-        <v>5069</v>
+        <v>5400</v>
       </c>
       <c r="H53">
-        <v>15086</v>
+        <v>10851</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2661,22 +2661,22 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="F54">
-        <v>43</v>
+        <v>110</v>
       </c>
       <c r="G54">
-        <v>4913</v>
+        <v>1968</v>
       </c>
       <c r="H54">
-        <v>15729</v>
+        <v>25115</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -2690,22 +2690,22 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="F55">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="G55">
-        <v>4733</v>
+        <v>4680</v>
       </c>
       <c r="H55">
-        <v>16365</v>
+        <v>19046</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -2719,22 +2719,22 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E56" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F56">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="G56">
-        <v>3780</v>
+        <v>4324</v>
       </c>
       <c r="H56">
-        <v>28066</v>
+        <v>15512</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -2748,22 +2748,22 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F57">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="G57">
-        <v>4124</v>
+        <v>4526</v>
       </c>
       <c r="H57">
-        <v>22993</v>
+        <v>23864</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -2777,22 +2777,22 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E58" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F58">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="G58">
-        <v>4673</v>
+        <v>5166</v>
       </c>
       <c r="H58">
-        <v>8581</v>
+        <v>13549</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -2806,22 +2806,22 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F59">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G59">
-        <v>1968</v>
+        <v>3808</v>
       </c>
       <c r="H59">
-        <v>25115</v>
+        <v>7771</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -2835,22 +2835,22 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E60" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="F60">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="G60">
-        <v>5433</v>
+        <v>4167</v>
       </c>
       <c r="H60">
-        <v>12555</v>
+        <v>11402</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -2864,22 +2864,22 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F61">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G61">
-        <v>5325</v>
+        <v>5196</v>
       </c>
       <c r="H61">
-        <v>16491</v>
+        <v>11718</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -2893,22 +2893,22 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E62" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F62">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="G62">
-        <v>4213</v>
+        <v>4599</v>
       </c>
       <c r="H62">
-        <v>15207</v>
+        <v>8351</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -2922,22 +2922,22 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E63" t="s">
-        <v>157</v>
+        <v>14</v>
       </c>
       <c r="F63">
-        <v>75</v>
+        <v>12</v>
       </c>
       <c r="G63">
-        <v>4399</v>
+        <v>5433</v>
       </c>
       <c r="H63">
-        <v>9450</v>
+        <v>12555</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -2951,22 +2951,22 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D64" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E64" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F64">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="G64">
-        <v>5379</v>
+        <v>3780</v>
       </c>
       <c r="H64">
-        <v>13326</v>
+        <v>28066</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -2980,22 +2980,22 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E65" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="F65">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="G65">
-        <v>4975</v>
+        <v>4265</v>
       </c>
       <c r="H65">
-        <v>14509</v>
+        <v>8680</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -3009,25 +3009,25 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>123</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="F66">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="G66">
-        <v>4738</v>
+        <v>5531</v>
       </c>
       <c r="H66">
-        <v>15056</v>
+        <v>10810</v>
       </c>
       <c r="I66">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3038,22 +3038,22 @@
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E67" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F67">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="G67">
-        <v>3358</v>
+        <v>4434</v>
       </c>
       <c r="H67">
-        <v>7199</v>
+        <v>9942</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -3067,22 +3067,22 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F68">
-        <v>97</v>
+        <v>21</v>
       </c>
       <c r="G68">
-        <v>3912</v>
+        <v>5222</v>
       </c>
       <c r="H68">
-        <v>8196</v>
+        <v>14322</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -3096,22 +3096,22 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
       <c r="E69" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="F69">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="G69">
-        <v>4295</v>
+        <v>4848</v>
       </c>
       <c r="H69">
-        <v>14853</v>
+        <v>15299</v>
       </c>
       <c r="I69">
         <v>3</v>
@@ -3125,22 +3125,22 @@
         <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="F70">
-        <v>104</v>
+        <v>38</v>
       </c>
       <c r="G70">
-        <v>3600</v>
+        <v>4988</v>
       </c>
       <c r="H70">
-        <v>7164</v>
+        <v>13255</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -3154,22 +3154,22 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F71">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G71">
-        <v>5531</v>
+        <v>5620</v>
       </c>
       <c r="H71">
-        <v>10810</v>
+        <v>13592</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -3183,22 +3183,22 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="F72">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G72">
-        <v>4353</v>
+        <v>4208</v>
       </c>
       <c r="H72">
-        <v>19153</v>
+        <v>11467</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -3212,22 +3212,22 @@
         <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E73" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F73">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="G73">
-        <v>4812</v>
+        <v>4710</v>
       </c>
       <c r="H73">
-        <v>10551</v>
+        <v>14760</v>
       </c>
       <c r="I73">
         <v>3</v>
@@ -3241,22 +3241,22 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>175</v>
       </c>
       <c r="F74">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G74">
-        <v>5661</v>
+        <v>4905</v>
       </c>
       <c r="H74">
-        <v>12187</v>
+        <v>13483</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -3270,22 +3270,22 @@
         <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="F75">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G75">
-        <v>4560</v>
+        <v>4756</v>
       </c>
       <c r="H75">
-        <v>16618</v>
+        <v>11329</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -3299,22 +3299,22 @@
         <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E76" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F76">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="G76">
-        <v>5175</v>
+        <v>3358</v>
       </c>
       <c r="H76">
-        <v>10248</v>
+        <v>7199</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3328,22 +3328,22 @@
         <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F77">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="G77">
-        <v>4488</v>
+        <v>5319</v>
       </c>
       <c r="H77">
-        <v>23855</v>
+        <v>7403</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -3357,22 +3357,22 @@
         <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>183</v>
       </c>
       <c r="F78">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G78">
-        <v>4304</v>
+        <v>4540</v>
       </c>
       <c r="H78">
-        <v>8458</v>
+        <v>14406</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E79" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F79">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G79">
-        <v>3524</v>
+        <v>3227</v>
       </c>
       <c r="H79">
-        <v>13978</v>
+        <v>27308</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -3415,22 +3415,22 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E80" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="G80">
-        <v>5680</v>
+        <v>4623</v>
       </c>
       <c r="H80">
-        <v>15387</v>
+        <v>20166</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -3444,22 +3444,22 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>120</v>
       </c>
       <c r="E81" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="F81">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="G81">
-        <v>1000</v>
+        <v>5069</v>
       </c>
       <c r="H81">
-        <v>24197</v>
+        <v>15086</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3473,22 +3473,22 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E82" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="F82">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G82">
-        <v>5131</v>
+        <v>4422</v>
       </c>
       <c r="H82">
-        <v>11671</v>
+        <v>17146</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3502,22 +3502,22 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E83" t="s">
-        <v>35</v>
+        <v>183</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="G83">
-        <v>5473</v>
+        <v>5177</v>
       </c>
       <c r="H83">
-        <v>11163</v>
+        <v>14642</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -3531,22 +3531,22 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E84" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="F84">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="G84">
-        <v>4030</v>
+        <v>3727</v>
       </c>
       <c r="H84">
-        <v>18286</v>
+        <v>22494</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -3560,22 +3560,22 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
+        <v>196</v>
+      </c>
+      <c r="E85" t="s">
         <v>50</v>
       </c>
-      <c r="E85" t="s">
-        <v>41</v>
-      </c>
       <c r="F85">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="G85">
-        <v>5400</v>
+        <v>5077</v>
       </c>
       <c r="H85">
-        <v>10851</v>
+        <v>16342</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3589,22 +3589,22 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
+        <v>197</v>
+      </c>
+      <c r="D86" t="s">
         <v>198</v>
       </c>
-      <c r="D86" t="s">
-        <v>199</v>
-      </c>
       <c r="E86" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="F86">
-        <v>109</v>
+        <v>76</v>
       </c>
       <c r="G86">
-        <v>3227</v>
+        <v>4353</v>
       </c>
       <c r="H86">
-        <v>27308</v>
+        <v>10320</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3618,22 +3618,22 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
+        <v>199</v>
+      </c>
+      <c r="D87" t="s">
         <v>200</v>
       </c>
-      <c r="D87" t="s">
-        <v>201</v>
-      </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="F87">
-        <v>53</v>
+        <v>113</v>
       </c>
       <c r="G87">
-        <v>4736</v>
+        <v>1000</v>
       </c>
       <c r="H87">
-        <v>23033</v>
+        <v>20876</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3647,22 +3647,22 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" t="s">
         <v>202</v>
       </c>
-      <c r="D88" t="s">
-        <v>136</v>
-      </c>
       <c r="E88" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F88">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="G88">
-        <v>4265</v>
+        <v>3980</v>
       </c>
       <c r="H88">
-        <v>22153</v>
+        <v>13880</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3682,16 +3682,16 @@
         <v>204</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F89">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <v>5092</v>
+        <v>5249</v>
       </c>
       <c r="H89">
-        <v>18966</v>
+        <v>18660</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3711,16 +3711,16 @@
         <v>206</v>
       </c>
       <c r="E90" t="s">
-        <v>59</v>
+        <v>207</v>
       </c>
       <c r="F90">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="G90">
-        <v>5464</v>
+        <v>4216</v>
       </c>
       <c r="H90">
-        <v>15525</v>
+        <v>25943</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3734,13 +3734,13 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E91" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F91">
         <v>83</v>
@@ -3763,22 +3763,22 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>132</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F92">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="G92">
-        <v>4534</v>
+        <v>5641</v>
       </c>
       <c r="H92">
-        <v>25347</v>
+        <v>10849</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -3798,16 +3798,16 @@
         <v>211</v>
       </c>
       <c r="E93" t="s">
-        <v>102</v>
+        <v>50</v>
       </c>
       <c r="F93">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G93">
-        <v>4840</v>
+        <v>4686</v>
       </c>
       <c r="H93">
-        <v>7466</v>
+        <v>11767</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -3821,22 +3821,22 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>135</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="F94">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="G94">
-        <v>4586</v>
+        <v>4308</v>
       </c>
       <c r="H94">
-        <v>20655</v>
+        <v>10587</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -3850,22 +3850,22 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="E95" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F95">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="G95">
-        <v>3898</v>
+        <v>4673</v>
       </c>
       <c r="H95">
-        <v>25423</v>
+        <v>8581</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -3879,22 +3879,22 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
+        <v>214</v>
+      </c>
+      <c r="D96" t="s">
         <v>215</v>
       </c>
-      <c r="D96" t="s">
-        <v>216</v>
-      </c>
       <c r="E96" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="F96">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G96">
-        <v>4324</v>
+        <v>4213</v>
       </c>
       <c r="H96">
-        <v>15512</v>
+        <v>15207</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -3908,22 +3908,22 @@
         <v>18</v>
       </c>
       <c r="C97" t="s">
+        <v>216</v>
+      </c>
+      <c r="D97" t="s">
         <v>217</v>
       </c>
-      <c r="D97" t="s">
-        <v>218</v>
-      </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="F97">
-        <v>90</v>
+        <v>49</v>
       </c>
       <c r="G97">
-        <v>4202</v>
+        <v>4812</v>
       </c>
       <c r="H97">
-        <v>11008</v>
+        <v>18826</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -3937,22 +3937,22 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" t="s">
         <v>219</v>
       </c>
-      <c r="D98" t="s">
-        <v>220</v>
-      </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F98">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="G98">
-        <v>4526</v>
+        <v>4124</v>
       </c>
       <c r="H98">
-        <v>23864</v>
+        <v>22993</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -3966,22 +3966,22 @@
         <v>20</v>
       </c>
       <c r="C99" t="s">
+        <v>220</v>
+      </c>
+      <c r="D99" t="s">
         <v>221</v>
       </c>
-      <c r="D99" t="s">
-        <v>222</v>
-      </c>
       <c r="E99" t="s">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="F99">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G99">
-        <v>4686</v>
+        <v>5325</v>
       </c>
       <c r="H99">
-        <v>11767</v>
+        <v>16491</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -3995,22 +3995,22 @@
         <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>60</v>
+        <v>222</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>223</v>
       </c>
       <c r="E100" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F100">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="G100">
-        <v>4308</v>
+        <v>4482</v>
       </c>
       <c r="H100">
-        <v>10587</v>
+        <v>22452</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -4024,22 +4024,22 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E101" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="F101">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G101">
-        <v>5208</v>
+        <v>4975</v>
       </c>
       <c r="H101">
-        <v>12511</v>
+        <v>14509</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -4053,22 +4053,22 @@
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E102" t="s">
         <v>20</v>
       </c>
       <c r="F102">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G102">
-        <v>4952</v>
+        <v>4733</v>
       </c>
       <c r="H102">
-        <v>14704</v>
+        <v>16365</v>
       </c>
       <c r="I102">
         <v>2</v>
@@ -4082,22 +4082,22 @@
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E103" t="s">
-        <v>229</v>
+        <v>99</v>
       </c>
       <c r="F103">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="G103">
-        <v>4167</v>
+        <v>5149</v>
       </c>
       <c r="H103">
-        <v>11402</v>
+        <v>22688</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -4117,16 +4117,16 @@
         <v>231</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="F104">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="G104">
-        <v>5222</v>
+        <v>4849</v>
       </c>
       <c r="H104">
-        <v>14322</v>
+        <v>8188</v>
       </c>
       <c r="I104">
         <v>3</v>
@@ -4140,22 +4140,22 @@
         <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
       <c r="D105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E105" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="F105">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="G105">
-        <v>4756</v>
+        <v>3246</v>
       </c>
       <c r="H105">
-        <v>11329</v>
+        <v>7719</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -4169,22 +4169,22 @@
         <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E106" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="F106">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="G106">
-        <v>5620</v>
+        <v>4812</v>
       </c>
       <c r="H106">
-        <v>13592</v>
+        <v>10551</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -4198,22 +4198,22 @@
         <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E107" t="s">
-        <v>70</v>
+        <v>14</v>
       </c>
       <c r="F107">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="G107">
-        <v>4667</v>
+        <v>5544</v>
       </c>
       <c r="H107">
-        <v>17414</v>
+        <v>7562</v>
       </c>
       <c r="I107">
         <v>3</v>
@@ -4227,22 +4227,22 @@
         <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="F108">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="G108">
-        <v>3246</v>
+        <v>4975</v>
       </c>
       <c r="H108">
-        <v>7719</v>
+        <v>15405</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -4256,22 +4256,22 @@
         <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E109" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F109">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="G109">
-        <v>5329</v>
+        <v>5170</v>
       </c>
       <c r="H109">
-        <v>11784</v>
+        <v>11299</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -4285,22 +4285,22 @@
         <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E110" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F110">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="G110">
-        <v>4653</v>
+        <v>3600</v>
       </c>
       <c r="H110">
-        <v>8831</v>
+        <v>7164</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -4314,22 +4314,22 @@
         <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E111" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F111">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="G111">
-        <v>4849</v>
+        <v>4560</v>
       </c>
       <c r="H111">
-        <v>8188</v>
+        <v>16618</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -4343,22 +4343,22 @@
         <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E112" t="s">
-        <v>92</v>
+        <v>14</v>
       </c>
       <c r="F112">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="G112">
-        <v>4988</v>
+        <v>5473</v>
       </c>
       <c r="H112">
-        <v>13255</v>
+        <v>16905</v>
       </c>
       <c r="I112">
         <v>3</v>
@@ -4372,22 +4372,22 @@
         <v>34</v>
       </c>
       <c r="C113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E113" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F113">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="G113">
-        <v>5170</v>
+        <v>4538</v>
       </c>
       <c r="H113">
-        <v>11299</v>
+        <v>18766</v>
       </c>
       <c r="I113">
         <v>3</v>
@@ -4401,22 +4401,22 @@
         <v>35</v>
       </c>
       <c r="C114" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D114" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F114">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G114">
-        <v>3687</v>
+        <v>3912</v>
       </c>
       <c r="H114">
-        <v>7345</v>
+        <v>8196</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -4430,22 +4430,22 @@
         <v>36</v>
       </c>
       <c r="C115" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E115" t="s">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F115">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="G115">
-        <v>4434</v>
+        <v>5356</v>
       </c>
       <c r="H115">
-        <v>9942</v>
+        <v>15397</v>
       </c>
       <c r="I115">
         <v>3</v>
@@ -4459,22 +4459,22 @@
         <v>37</v>
       </c>
       <c r="C116" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="D116" t="s">
         <v>254</v>
       </c>
       <c r="E116" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="F116">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>4993</v>
+        <v>5820</v>
       </c>
       <c r="H116">
-        <v>16782</v>
+        <v>12305</v>
       </c>
       <c r="I116">
         <v>3</v>

--- a/startlists.xlsx
+++ b/startlists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="253">
   <si>
     <t>Heat</t>
   </si>
@@ -43,6 +43,75 @@
     <t>StartGrp</t>
   </si>
   <si>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>Hirvikallio</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Frederic</t>
+  </si>
+  <si>
+    <t>Tranchand</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Hajek</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Sebastian Ken</t>
+  </si>
+  <si>
+    <t>Baumann</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Nitsan</t>
+  </si>
+  <si>
+    <t>Yasur</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Bjarne</t>
+  </si>
+  <si>
+    <t>Friedrichs</t>
+  </si>
+  <si>
+    <t>Dimitar</t>
+  </si>
+  <si>
+    <t>Zhelyazkov</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
     <t>Wannes</t>
   </si>
   <si>
@@ -52,58 +121,478 @@
     <t>BEL</t>
   </si>
   <si>
+    <t>Artem</t>
+  </si>
+  <si>
+    <t>Popov</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>McLeod</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Alessio</t>
+  </si>
+  <si>
+    <t>Tenani</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Saetalu</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Chepelin</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Yordanov</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Jonsson</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Martinez Perez</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Hubmann</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>Khramov</t>
+  </si>
+  <si>
+    <t>Arturs</t>
+  </si>
+  <si>
+    <t>Paulins</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Coupat</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Leandersson</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Edsen</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Inderst</t>
+  </si>
+  <si>
+    <t>Max Peter</t>
+  </si>
+  <si>
+    <t>Bejmer</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>McNulty</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Bloemen</t>
+  </si>
+  <si>
+    <t>Aleksi</t>
+  </si>
+  <si>
+    <t>Niemi</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Kivikas</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Reiner</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Nykodym</t>
+  </si>
+  <si>
+    <t>Jonas Vytautas</t>
+  </si>
+  <si>
+    <t>Gvildys</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Ciobanu</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Giacomo</t>
+  </si>
+  <si>
+    <t>Barbone</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>Olejnik</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Howald</t>
+  </si>
+  <si>
+    <t>Andris</t>
+  </si>
+  <si>
+    <t>Jubelis</t>
+  </si>
+  <si>
+    <t>Trond Einar</t>
+  </si>
+  <si>
+    <t>Moen Pedersli</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Hadorn</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Parfianowicz</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Scalet</t>
+  </si>
+  <si>
+    <t>Hakon</t>
+  </si>
+  <si>
+    <t>Jarvis Westergard</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Regborn</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>George Emilian</t>
+  </si>
+  <si>
+    <t>Minoiu</t>
+  </si>
+  <si>
+    <t>Oystein</t>
+  </si>
+  <si>
+    <t>Kvaal Osterbo</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Delenne</t>
+  </si>
+  <si>
+    <t>Gernot</t>
+  </si>
+  <si>
+    <t>Kerschbaumer</t>
+  </si>
+  <si>
+    <t>Endijs</t>
+  </si>
+  <si>
+    <t>Titomers</t>
+  </si>
+  <si>
+    <t>Teodor</t>
+  </si>
+  <si>
+    <t>Wouter</t>
+  </si>
+  <si>
+    <t>Hus</t>
+  </si>
+  <si>
+    <t>Joao Mega</t>
+  </si>
+  <si>
+    <t>Figueiredo</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Algirdas</t>
+  </si>
+  <si>
+    <t>Bartkevicius</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Salmenkyla</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Rueedlinger</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Prunsche</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Rjabyshkin</t>
+  </si>
+  <si>
+    <t>Itay</t>
+  </si>
+  <si>
+    <t>Manor</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Kubelka</t>
+  </si>
+  <si>
+    <t>Uldis</t>
+  </si>
+  <si>
+    <t>Upitis</t>
+  </si>
+  <si>
+    <t>Miika</t>
+  </si>
+  <si>
+    <t>Kirmula</t>
+  </si>
+  <si>
+    <t>Vojtech</t>
+  </si>
+  <si>
+    <t>Sykora</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Caraglio</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Basset</t>
+  </si>
+  <si>
+    <t>Yannick</t>
+  </si>
+  <si>
+    <t>Michiels</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Spaeth</t>
+  </si>
+  <si>
+    <t>Andreu</t>
+  </si>
+  <si>
+    <t>Blanes</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Apostol</t>
+  </si>
+  <si>
+    <t>Atanasov</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Dewett</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Gil Marcos</t>
+  </si>
+  <si>
+    <t>Topi</t>
+  </si>
+  <si>
+    <t>Raitanen</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Svensk</t>
+  </si>
+  <si>
+    <t>Andreas Hougaard</t>
+  </si>
+  <si>
+    <t>Boesen</t>
+  </si>
+  <si>
     <t>Eric</t>
   </si>
   <si>
     <t>Borjeskog</t>
   </si>
   <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>Bjarne</t>
-  </si>
-  <si>
-    <t>Friedrichs</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>Dimitar</t>
-  </si>
-  <si>
-    <t>Zhelyazkov</t>
-  </si>
-  <si>
-    <t>BUL</t>
-  </si>
-  <si>
-    <t>Gernot</t>
-  </si>
-  <si>
-    <t>Kerschbaumer</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>Hadorn</t>
-  </si>
-  <si>
-    <t>SUI</t>
-  </si>
-  <si>
-    <t>Frederic</t>
-  </si>
-  <si>
-    <t>Tranchand</t>
-  </si>
-  <si>
-    <t>FRA</t>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Minar</t>
+  </si>
+  <si>
+    <t>Hodkinson</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Simosas</t>
   </si>
   <si>
     <t>Gheorghe</t>
@@ -115,22 +604,22 @@
     <t>MDA</t>
   </si>
   <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Hodkinson</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>Hakon</t>
-  </si>
-  <si>
-    <t>Jarvis Westergard</t>
-  </si>
-  <si>
-    <t>NOR</t>
+    <t>Mantas</t>
+  </si>
+  <si>
+    <t>Martinkus</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Nogueira</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Kivlenieks</t>
   </si>
   <si>
     <t>Tim</t>
@@ -139,25 +628,55 @@
     <t>Robertson</t>
   </si>
   <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>Andris</t>
-  </si>
-  <si>
-    <t>Kivlenieks</t>
-  </si>
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Saetalu</t>
-  </si>
-  <si>
-    <t>EST</t>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Merl</t>
+  </si>
+  <si>
+    <t>Bogya</t>
+  </si>
+  <si>
+    <t>Tamas</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Dallavalle</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Sirakov</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Rauturier</t>
+  </si>
+  <si>
+    <t>Warre</t>
+  </si>
+  <si>
+    <t>De Cuyper</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Doellgast</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Kacmaz</t>
+  </si>
+  <si>
+    <t>TUR</t>
   </si>
   <si>
     <t>Jesse</t>
@@ -166,97 +685,55 @@
     <t>Laukkarinen</t>
   </si>
   <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Arturs</t>
-  </si>
-  <si>
-    <t>Paulins</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>Rueedlinger</t>
-  </si>
-  <si>
-    <t>Moritz</t>
-  </si>
-  <si>
-    <t>Doellgast</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Inderst</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>Itay</t>
-  </si>
-  <si>
-    <t>Manor</t>
-  </si>
-  <si>
-    <t>ISR</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>Rauturier</t>
-  </si>
-  <si>
-    <t>Vojtech</t>
-  </si>
-  <si>
-    <t>Sykora</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>Max Peter</t>
-  </si>
-  <si>
-    <t>Bejmer</t>
-  </si>
-  <si>
-    <t>Joao Mega</t>
-  </si>
-  <si>
-    <t>Figueiredo</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
     <t>Dmitrii</t>
   </si>
   <si>
     <t>Poliakov</t>
   </si>
   <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Martinez Perez</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Yordanov</t>
+    <t>Jon Aukrust</t>
+  </si>
+  <si>
+    <t>Osmoen</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Smithard</t>
+  </si>
+  <si>
+    <t>Loic</t>
+  </si>
+  <si>
+    <t>Capbern</t>
+  </si>
+  <si>
+    <t>Kyburz</t>
+  </si>
+  <si>
+    <t>Ivaylo</t>
+  </si>
+  <si>
+    <t>Kamenarov</t>
+  </si>
+  <si>
+    <t>Alexandru</t>
+  </si>
+  <si>
+    <t>Blejdea</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Bergman</t>
+  </si>
+  <si>
+    <t>Kristo</t>
+  </si>
+  <si>
+    <t>Heinmann</t>
   </si>
   <si>
     <t>Dmitry</t>
@@ -265,70 +742,25 @@
     <t>Tsvetkov</t>
   </si>
   <si>
+    <t>Kral</t>
+  </si>
+  <si>
     <t>Mattia</t>
   </si>
   <si>
     <t>Debertolis</t>
   </si>
   <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Ciobanu</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>Mathias</t>
-  </si>
-  <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Bloemen</t>
-  </si>
-  <si>
-    <t>Giacomo</t>
-  </si>
-  <si>
-    <t>Barbone</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Kral</t>
-  </si>
-  <si>
-    <t>Magnus</t>
-  </si>
-  <si>
-    <t>Dewett</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>Jonas Vytautas</t>
-  </si>
-  <si>
-    <t>Gvildys</t>
-  </si>
-  <si>
-    <t>LTU</t>
-  </si>
-  <si>
-    <t>Aleksi</t>
-  </si>
-  <si>
-    <t>Niemi</t>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Goericke</t>
+  </si>
+  <si>
+    <t>Asaf</t>
+  </si>
+  <si>
+    <t>Avner</t>
   </si>
   <si>
     <t>Kasper</t>
@@ -337,448 +769,10 @@
     <t>Fosser</t>
   </si>
   <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Kivikas</t>
-  </si>
-  <si>
-    <t>Philipp</t>
-  </si>
-  <si>
-    <t>Mueller</t>
-  </si>
-  <si>
-    <t>Riccardo</t>
-  </si>
-  <si>
-    <t>Scalet</t>
-  </si>
-  <si>
-    <t>Andreas Hougaard</t>
-  </si>
-  <si>
-    <t>Boesen</t>
-  </si>
-  <si>
-    <t>Adrien</t>
-  </si>
-  <si>
-    <t>Delenne</t>
-  </si>
-  <si>
-    <t>Joni</t>
-  </si>
-  <si>
-    <t>Hirvikallio</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Popov</t>
-  </si>
-  <si>
-    <t>Mantas</t>
-  </si>
-  <si>
-    <t>Martinkus</t>
-  </si>
-  <si>
-    <t>Florian</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Regborn</t>
-  </si>
-  <si>
-    <t>Alasdair</t>
-  </si>
-  <si>
-    <t>McLeod</t>
-  </si>
-  <si>
-    <t>Endijs</t>
-  </si>
-  <si>
-    <t>Titomers</t>
-  </si>
-  <si>
-    <t>Teodor</t>
-  </si>
-  <si>
-    <t>Hubmann</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Salmenkyla</t>
-  </si>
-  <si>
-    <t>Tomas</t>
-  </si>
-  <si>
-    <t>Kubelka</t>
-  </si>
-  <si>
-    <t>Sergei</t>
-  </si>
-  <si>
-    <t>Rjabyshkin</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Jonsson</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Merl</t>
-  </si>
-  <si>
-    <t>Bogya</t>
-  </si>
-  <si>
-    <t>Tamas</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Kacmaz</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>Khramov</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Chepelin</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Leandersson</t>
-  </si>
-  <si>
-    <t>Warre</t>
-  </si>
-  <si>
-    <t>De Cuyper</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Dallavalle</t>
-  </si>
-  <si>
-    <t>Howald</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Goericke</t>
-  </si>
-  <si>
-    <t>Milos</t>
-  </si>
-  <si>
-    <t>Nykodym</t>
-  </si>
-  <si>
-    <t>Topi</t>
-  </si>
-  <si>
-    <t>Raitanen</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Gil Marcos</t>
-  </si>
-  <si>
-    <t>Yannick</t>
-  </si>
-  <si>
-    <t>Michiels</t>
-  </si>
-  <si>
-    <t>Ivaylo</t>
-  </si>
-  <si>
-    <t>Kamenarov</t>
-  </si>
-  <si>
-    <t>Trond Einar</t>
-  </si>
-  <si>
-    <t>Moen Pedersli</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>McNulty</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>Jubelis</t>
-  </si>
-  <si>
-    <t>Asaf</t>
-  </si>
-  <si>
-    <t>Avner</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Basset</t>
-  </si>
-  <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>Olejnik</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>George Emilian</t>
-  </si>
-  <si>
-    <t>Minoiu</t>
-  </si>
-  <si>
-    <t>Marek</t>
-  </si>
-  <si>
-    <t>Minar</t>
-  </si>
-  <si>
-    <t>Artem</t>
-  </si>
-  <si>
-    <t>Alessio</t>
-  </si>
-  <si>
-    <t>Tenani</t>
-  </si>
-  <si>
-    <t>Piotr</t>
-  </si>
-  <si>
-    <t>Parfianowicz</t>
-  </si>
-  <si>
-    <t>Morten</t>
-  </si>
-  <si>
-    <t>Jorgensen</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
-    <t>Simosas</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Hajek</t>
-  </si>
-  <si>
-    <t>Wouter</t>
-  </si>
-  <si>
-    <t>Hus</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Nogueira</t>
-  </si>
-  <si>
-    <t>Oystein</t>
-  </si>
-  <si>
-    <t>Kvaal Osterbo</t>
-  </si>
-  <si>
-    <t>Sebastian Ken</t>
-  </si>
-  <si>
-    <t>Baumann</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>Nitsan</t>
-  </si>
-  <si>
-    <t>Yasur</t>
-  </si>
-  <si>
-    <t>Miika</t>
-  </si>
-  <si>
-    <t>Kirmula</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Coupat</t>
-  </si>
-  <si>
-    <t>Christoph</t>
-  </si>
-  <si>
-    <t>Prunsche</t>
-  </si>
-  <si>
-    <t>Algirdas</t>
-  </si>
-  <si>
-    <t>Bartkevicius</t>
-  </si>
-  <si>
-    <t>Uldis</t>
-  </si>
-  <si>
-    <t>Upitis</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Smithard</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Jon Aukrust</t>
-  </si>
-  <si>
-    <t>Osmoen</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Sirakov</t>
-  </si>
-  <si>
-    <t>Jakob</t>
-  </si>
-  <si>
-    <t>Edsen</t>
-  </si>
-  <si>
-    <t>Loic</t>
-  </si>
-  <si>
-    <t>Capbern</t>
-  </si>
-  <si>
-    <t>Alexandru</t>
-  </si>
-  <si>
-    <t>Blejdea</t>
-  </si>
-  <si>
-    <t>Kristo</t>
-  </si>
-  <si>
-    <t>Heinmann</t>
-  </si>
-  <si>
-    <t>Gustav</t>
-  </si>
-  <si>
-    <t>Bergman</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>Reiner</t>
-  </si>
-  <si>
-    <t>Kristian</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Apostol</t>
-  </si>
-  <si>
-    <t>Atanasov</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Spaeth</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>Svensk</t>
-  </si>
-  <si>
     <t>Davis</t>
   </si>
   <si>
     <t>Dislers</t>
-  </si>
-  <si>
-    <t>Michele</t>
-  </si>
-  <si>
-    <t>Caraglio</t>
-  </si>
-  <si>
-    <t>Andreu</t>
-  </si>
-  <si>
-    <t>Blanes</t>
-  </si>
-  <si>
-    <t>Kyburz</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,13 +1156,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>1000</v>
+        <v>4532</v>
       </c>
       <c r="H2">
-        <v>10588</v>
+        <v>10663</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1191,13 +1185,13 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>4992</v>
+        <v>5673</v>
       </c>
       <c r="H3">
-        <v>8136</v>
+        <v>17348</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1220,13 +1214,13 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="G4">
-        <v>3952</v>
+        <v>4353</v>
       </c>
       <c r="H4">
-        <v>9624</v>
+        <v>10320</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1249,13 +1243,13 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G5">
-        <v>4066</v>
+        <v>4216</v>
       </c>
       <c r="H5">
-        <v>24809</v>
+        <v>25943</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1278,13 +1272,13 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="G6">
-        <v>5131</v>
+        <v>3524</v>
       </c>
       <c r="H6">
-        <v>11671</v>
+        <v>13978</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1307,13 +1301,13 @@
         <v>26</v>
       </c>
       <c r="F7">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="G7">
-        <v>4736</v>
+        <v>4295</v>
       </c>
       <c r="H7">
-        <v>23033</v>
+        <v>20182</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1333,16 +1327,16 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="G8">
-        <v>5673</v>
+        <v>3952</v>
       </c>
       <c r="H8">
-        <v>17348</v>
+        <v>9624</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1356,22 +1350,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
       <c r="F9">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="G9">
-        <v>1654</v>
+        <v>4066</v>
       </c>
       <c r="H9">
-        <v>9342</v>
+        <v>24809</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1385,22 +1379,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>34</v>
       </c>
-      <c r="E10" t="s">
-        <v>35</v>
-      </c>
       <c r="F10">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="G10">
-        <v>5272</v>
+        <v>1000</v>
       </c>
       <c r="H10">
-        <v>10688</v>
+        <v>10588</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1414,22 +1408,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" t="s">
-        <v>38</v>
-      </c>
       <c r="F11">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="G11">
-        <v>5473</v>
+        <v>5069</v>
       </c>
       <c r="H11">
-        <v>11163</v>
+        <v>15086</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1443,22 +1437,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
-        <v>41</v>
-      </c>
       <c r="F12">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G12">
-        <v>5464</v>
+        <v>4736</v>
       </c>
       <c r="H12">
-        <v>15525</v>
+        <v>13474</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1472,22 +1466,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
         <v>42</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>43</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
       <c r="F13">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="G13">
-        <v>4690</v>
+        <v>4422</v>
       </c>
       <c r="H13">
-        <v>11786</v>
+        <v>17146</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1501,16 +1495,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>46</v>
       </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
       <c r="F14">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14">
         <v>3348</v>
@@ -1530,22 +1524,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
         <v>48</v>
       </c>
-      <c r="D15" t="s">
-        <v>49</v>
-      </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F15">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="G15">
-        <v>5208</v>
+        <v>4599</v>
       </c>
       <c r="H15">
-        <v>12511</v>
+        <v>8351</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1559,22 +1553,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F16">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="G16">
-        <v>4952</v>
+        <v>3898</v>
       </c>
       <c r="H16">
-        <v>14704</v>
+        <v>25423</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1588,22 +1582,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" t="s">
         <v>53</v>
       </c>
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" t="s">
-        <v>26</v>
-      </c>
       <c r="F17">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="G17">
-        <v>4913</v>
+        <v>4526</v>
       </c>
       <c r="H17">
-        <v>15729</v>
+        <v>23864</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1617,22 +1611,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
       </c>
-      <c r="E18" t="s">
-        <v>17</v>
-      </c>
       <c r="F18">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>4233</v>
+        <v>5379</v>
       </c>
       <c r="H18">
-        <v>9068</v>
+        <v>13326</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1646,22 +1640,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>58</v>
       </c>
-      <c r="E19" t="s">
-        <v>59</v>
-      </c>
       <c r="F19">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="G19">
-        <v>4202</v>
+        <v>5641</v>
       </c>
       <c r="H19">
-        <v>11008</v>
+        <v>10849</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1675,22 +1669,22 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
         <v>60</v>
       </c>
-      <c r="D20" t="s">
-        <v>61</v>
-      </c>
       <c r="E20" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="F20">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="G20">
-        <v>3664</v>
+        <v>5196</v>
       </c>
       <c r="H20">
-        <v>21437</v>
+        <v>11718</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1704,22 +1698,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
         <v>63</v>
       </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
-      </c>
       <c r="F21">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="G21">
-        <v>4586</v>
+        <v>4952</v>
       </c>
       <c r="H21">
-        <v>20655</v>
+        <v>14704</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1733,22 +1727,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
         <v>65</v>
       </c>
-      <c r="D22" t="s">
-        <v>66</v>
-      </c>
       <c r="E22" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="F22">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G22">
-        <v>4534</v>
+        <v>4673</v>
       </c>
       <c r="H22">
-        <v>25347</v>
+        <v>8581</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1762,22 +1756,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>67</v>
+      </c>
+      <c r="E23" t="s">
         <v>68</v>
       </c>
-      <c r="D23" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" t="s">
-        <v>14</v>
-      </c>
       <c r="F23">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="G23">
-        <v>4840</v>
+        <v>5433</v>
       </c>
       <c r="H23">
-        <v>7466</v>
+        <v>12555</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1791,22 +1785,22 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D24" t="s">
         <v>70</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>71</v>
       </c>
-      <c r="E24" t="s">
-        <v>72</v>
-      </c>
       <c r="F24">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="G24">
-        <v>4399</v>
+        <v>5149</v>
       </c>
       <c r="H24">
-        <v>9450</v>
+        <v>22688</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1820,22 +1814,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
       <c r="E25" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="F25">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="G25">
-        <v>4738</v>
+        <v>4202</v>
       </c>
       <c r="H25">
-        <v>15056</v>
+        <v>11008</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1849,22 +1843,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E26" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="F26">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="G26">
-        <v>5379</v>
+        <v>4840</v>
       </c>
       <c r="H26">
-        <v>13326</v>
+        <v>7466</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1878,25 +1872,25 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="F27">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="G27">
-        <v>3898</v>
+        <v>4905</v>
       </c>
       <c r="H27">
-        <v>25423</v>
+        <v>13483</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1907,22 +1901,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E28" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="F28">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="G28">
-        <v>4667</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>17414</v>
+        <v>7724</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -1936,22 +1930,22 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E29" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F29">
-        <v>77</v>
+        <v>33</v>
       </c>
       <c r="G29">
-        <v>4353</v>
+        <v>5076</v>
       </c>
       <c r="H29">
-        <v>19153</v>
+        <v>18700</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -1965,22 +1959,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F30">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="G30">
-        <v>4304</v>
+        <v>5329</v>
       </c>
       <c r="H30">
-        <v>8458</v>
+        <v>11784</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1994,22 +1988,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="E31" t="s">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="F31">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="G31">
-        <v>4295</v>
+        <v>4975</v>
       </c>
       <c r="H31">
-        <v>14853</v>
+        <v>15405</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2023,22 +2017,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" t="s">
         <v>89</v>
       </c>
-      <c r="D32" t="s">
-        <v>90</v>
-      </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F32">
-        <v>115</v>
+        <v>21</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>5222</v>
       </c>
       <c r="H32">
-        <v>7724</v>
+        <v>14322</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2052,22 +2046,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
         <v>91</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>92</v>
       </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
       <c r="F33">
-        <v>102</v>
+        <v>25</v>
       </c>
       <c r="G33">
-        <v>3687</v>
+        <v>5175</v>
       </c>
       <c r="H33">
-        <v>7345</v>
+        <v>10248</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -2081,22 +2075,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" t="s">
         <v>94</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>95</v>
       </c>
-      <c r="E34" t="s">
-        <v>35</v>
-      </c>
       <c r="F34">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="G34">
-        <v>4993</v>
+        <v>4304</v>
       </c>
       <c r="H34">
-        <v>16782</v>
+        <v>8458</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -2110,22 +2104,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F35">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="G35">
-        <v>5661</v>
+        <v>3687</v>
       </c>
       <c r="H35">
-        <v>12187</v>
+        <v>7345</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -2139,22 +2133,22 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F36">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G36">
-        <v>4653</v>
+        <v>4540</v>
       </c>
       <c r="H36">
-        <v>8831</v>
+        <v>14406</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -2168,22 +2162,22 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D37" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="F37">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="G37">
-        <v>5175</v>
+        <v>5531</v>
       </c>
       <c r="H37">
-        <v>10248</v>
+        <v>10810</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -2197,22 +2191,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E38" t="s">
+        <v>63</v>
+      </c>
+      <c r="F38">
         <v>50</v>
       </c>
-      <c r="F38">
-        <v>33</v>
-      </c>
       <c r="G38">
-        <v>5076</v>
+        <v>4756</v>
       </c>
       <c r="H38">
-        <v>18700</v>
+        <v>11329</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -2226,22 +2220,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F39">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="G39">
-        <v>4488</v>
+        <v>4710</v>
       </c>
       <c r="H39">
-        <v>23855</v>
+        <v>14760</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2249,31 +2243,31 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E40" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F40">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="G40">
-        <v>5329</v>
+        <v>4736</v>
       </c>
       <c r="H40">
-        <v>11784</v>
+        <v>23033</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2281,25 +2275,25 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E41" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="F41">
-        <v>105</v>
+        <v>24</v>
       </c>
       <c r="G41">
-        <v>3524</v>
+        <v>5177</v>
       </c>
       <c r="H41">
-        <v>13978</v>
+        <v>14642</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2310,16 +2304,16 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E42" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F42">
         <v>31</v>
@@ -2339,25 +2333,25 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="F43">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="G43">
-        <v>5154</v>
+        <v>5473</v>
       </c>
       <c r="H43">
-        <v>7760</v>
+        <v>11163</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2368,25 +2362,25 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E44" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F44">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="G44">
-        <v>4956</v>
+        <v>5680</v>
       </c>
       <c r="H44">
-        <v>19918</v>
+        <v>15387</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -2397,25 +2391,25 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>118</v>
+        <v>36</v>
       </c>
       <c r="E45" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="F45">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="G45">
-        <v>4532</v>
+        <v>4265</v>
       </c>
       <c r="H45">
-        <v>10663</v>
+        <v>22153</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2426,7 +2420,7 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>119</v>
@@ -2435,16 +2429,16 @@
         <v>120</v>
       </c>
       <c r="E46" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="F46">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="G46">
-        <v>4265</v>
+        <v>3227</v>
       </c>
       <c r="H46">
-        <v>22153</v>
+        <v>27308</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2455,7 +2449,7 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>121</v>
@@ -2464,16 +2458,16 @@
         <v>122</v>
       </c>
       <c r="E47" t="s">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="F47">
-        <v>114</v>
+        <v>20</v>
       </c>
       <c r="G47">
-        <v>1000</v>
+        <v>5249</v>
       </c>
       <c r="H47">
-        <v>24197</v>
+        <v>18660</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2484,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
         <v>123</v>
@@ -2493,16 +2487,16 @@
         <v>124</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F48">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G48">
-        <v>5020</v>
+        <v>4956</v>
       </c>
       <c r="H48">
-        <v>15991</v>
+        <v>19918</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2513,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
         <v>125</v>
@@ -2522,16 +2516,16 @@
         <v>126</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G49">
-        <v>5680</v>
+        <v>5131</v>
       </c>
       <c r="H49">
-        <v>15387</v>
+        <v>11671</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2542,7 +2536,7 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C50" t="s">
         <v>127</v>
@@ -2551,16 +2545,16 @@
         <v>128</v>
       </c>
       <c r="E50" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F50">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="G50">
-        <v>4736</v>
+        <v>4322</v>
       </c>
       <c r="H50">
-        <v>13474</v>
+        <v>19137</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2571,25 +2565,25 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C51" t="s">
         <v>129</v>
       </c>
       <c r="D51" t="s">
-        <v>130</v>
+        <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F51">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="G51">
-        <v>4322</v>
+        <v>4030</v>
       </c>
       <c r="H51">
-        <v>19137</v>
+        <v>18286</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2600,25 +2594,25 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52" t="s">
         <v>131</v>
       </c>
-      <c r="D52" t="s">
-        <v>80</v>
-      </c>
       <c r="E52" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="F52">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="G52">
-        <v>4030</v>
+        <v>1000</v>
       </c>
       <c r="H52">
-        <v>18286</v>
+        <v>20876</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2629,28 +2623,28 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>26</v>
+        <v>134</v>
       </c>
       <c r="F53">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="G53">
-        <v>5400</v>
+        <v>4399</v>
       </c>
       <c r="H53">
-        <v>10851</v>
+        <v>9450</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2658,25 +2652,25 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C54" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E54" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F54">
-        <v>110</v>
+        <v>49</v>
       </c>
       <c r="G54">
-        <v>1968</v>
+        <v>4812</v>
       </c>
       <c r="H54">
-        <v>25115</v>
+        <v>18826</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -2687,25 +2681,25 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D55" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="F55">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="G55">
-        <v>4680</v>
+        <v>1968</v>
       </c>
       <c r="H55">
-        <v>19046</v>
+        <v>25115</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -2716,25 +2710,25 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D56" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E56" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F56">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="G56">
-        <v>4324</v>
+        <v>4913</v>
       </c>
       <c r="H56">
-        <v>15512</v>
+        <v>15729</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -2745,25 +2739,25 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C57" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D57" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>143</v>
       </c>
       <c r="F57">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G57">
-        <v>4526</v>
+        <v>4482</v>
       </c>
       <c r="H57">
-        <v>23864</v>
+        <v>22452</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -2774,25 +2768,25 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C58" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D58" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="E58" t="s">
         <v>23</v>
       </c>
       <c r="F58">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="G58">
-        <v>5166</v>
+        <v>4213</v>
       </c>
       <c r="H58">
-        <v>13549</v>
+        <v>15207</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -2803,25 +2797,25 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D59" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E59" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="F59">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="G59">
-        <v>3808</v>
+        <v>4324</v>
       </c>
       <c r="H59">
-        <v>7771</v>
+        <v>15512</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -2832,25 +2826,25 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C60" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D60" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E60" t="s">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="F60">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="G60">
-        <v>4167</v>
+        <v>3664</v>
       </c>
       <c r="H60">
-        <v>11402</v>
+        <v>21437</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -2861,25 +2855,25 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C61" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D61" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E61" t="s">
-        <v>75</v>
+        <v>17</v>
       </c>
       <c r="F61">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="G61">
-        <v>5196</v>
+        <v>4680</v>
       </c>
       <c r="H61">
-        <v>11718</v>
+        <v>19046</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -2890,25 +2884,25 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C62" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D62" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E62" t="s">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="F62">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="G62">
-        <v>4599</v>
+        <v>4124</v>
       </c>
       <c r="H62">
-        <v>8351</v>
+        <v>22993</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -2919,25 +2913,25 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D63" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F63">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G63">
-        <v>5433</v>
+        <v>4686</v>
       </c>
       <c r="H63">
-        <v>12555</v>
+        <v>11767</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -2948,25 +2942,25 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C64" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F64">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="G64">
-        <v>3780</v>
+        <v>4534</v>
       </c>
       <c r="H64">
-        <v>28066</v>
+        <v>25347</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -2977,28 +2971,28 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D65" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="F65">
-        <v>84</v>
+        <v>36</v>
       </c>
       <c r="G65">
-        <v>4265</v>
+        <v>4993</v>
       </c>
       <c r="H65">
-        <v>8680</v>
+        <v>16782</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3006,25 +3000,25 @@
         <v>2</v>
       </c>
       <c r="B66">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C66" t="s">
-        <v>123</v>
+        <v>160</v>
       </c>
       <c r="D66" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F66">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="G66">
-        <v>5531</v>
+        <v>3912</v>
       </c>
       <c r="H66">
-        <v>10810</v>
+        <v>8196</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -3035,25 +3029,25 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C67" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F67">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="G67">
-        <v>4434</v>
+        <v>5319</v>
       </c>
       <c r="H67">
-        <v>9942</v>
+        <v>7403</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -3064,25 +3058,25 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C68" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="F68">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="G68">
-        <v>5222</v>
+        <v>5620</v>
       </c>
       <c r="H68">
-        <v>14322</v>
+        <v>13592</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -3093,25 +3087,25 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F69">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="G69">
-        <v>4848</v>
+        <v>4560</v>
       </c>
       <c r="H69">
-        <v>15299</v>
+        <v>16618</v>
       </c>
       <c r="I69">
         <v>3</v>
@@ -3122,25 +3116,25 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E70" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F70">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="G70">
-        <v>4988</v>
+        <v>5356</v>
       </c>
       <c r="H70">
-        <v>13255</v>
+        <v>15397</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -3151,25 +3145,25 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C71" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="F71">
-        <v>6</v>
+        <v>82</v>
       </c>
       <c r="G71">
-        <v>5620</v>
+        <v>4295</v>
       </c>
       <c r="H71">
-        <v>13592</v>
+        <v>14853</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -3180,25 +3174,25 @@
         <v>2</v>
       </c>
       <c r="B72">
+        <v>32</v>
+      </c>
+      <c r="C72" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" t="s">
+        <v>173</v>
+      </c>
+      <c r="E72" t="s">
         <v>31</v>
       </c>
-      <c r="C72" t="s">
-        <v>169</v>
-      </c>
-      <c r="D72" t="s">
-        <v>170</v>
-      </c>
-      <c r="E72" t="s">
-        <v>20</v>
-      </c>
       <c r="F72">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G72">
-        <v>4208</v>
+        <v>3600</v>
       </c>
       <c r="H72">
-        <v>11467</v>
+        <v>7164</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -3209,25 +3203,25 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C73" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D73" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F73">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="G73">
-        <v>4710</v>
+        <v>5170</v>
       </c>
       <c r="H73">
-        <v>14760</v>
+        <v>11299</v>
       </c>
       <c r="I73">
         <v>3</v>
@@ -3238,25 +3232,25 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C74" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="E74" t="s">
-        <v>175</v>
+        <v>71</v>
       </c>
       <c r="F74">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G74">
-        <v>4905</v>
+        <v>4653</v>
       </c>
       <c r="H74">
-        <v>13483</v>
+        <v>8831</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -3267,25 +3261,25 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C75" t="s">
-        <v>42</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="F75">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G75">
-        <v>4756</v>
+        <v>4988</v>
       </c>
       <c r="H75">
-        <v>11329</v>
+        <v>13255</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -3296,25 +3290,25 @@
         <v>2</v>
       </c>
       <c r="B76">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C76" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D76" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
-        <v>62</v>
+        <v>11</v>
       </c>
       <c r="F76">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="G76">
-        <v>3358</v>
+        <v>4848</v>
       </c>
       <c r="H76">
-        <v>7199</v>
+        <v>15299</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3325,25 +3319,25 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C77" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D77" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E77" t="s">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="F77">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G77">
-        <v>5319</v>
+        <v>5473</v>
       </c>
       <c r="H77">
-        <v>7403</v>
+        <v>16905</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -3351,31 +3345,31 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B78">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C78" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E78" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="F78">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="G78">
-        <v>4540</v>
+        <v>5154</v>
       </c>
       <c r="H78">
-        <v>14406</v>
+        <v>7760</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3383,25 +3377,25 @@
         <v>3</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="F79">
-        <v>109</v>
+        <v>37</v>
       </c>
       <c r="G79">
-        <v>3227</v>
+        <v>4992</v>
       </c>
       <c r="H79">
-        <v>27308</v>
+        <v>8136</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -3412,16 +3406,16 @@
         <v>3</v>
       </c>
       <c r="B80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="F80">
         <v>62</v>
@@ -3441,25 +3435,25 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D81" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="E81" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F81">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="G81">
-        <v>5069</v>
+        <v>5272</v>
       </c>
       <c r="H81">
-        <v>15086</v>
+        <v>10688</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3470,25 +3464,25 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C82" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D82" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E82" t="s">
-        <v>59</v>
+        <v>11</v>
       </c>
       <c r="F82">
-        <v>74</v>
+        <v>32</v>
       </c>
       <c r="G82">
-        <v>4422</v>
+        <v>5077</v>
       </c>
       <c r="H82">
-        <v>17146</v>
+        <v>16342</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3499,25 +3493,25 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="F83">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="G83">
-        <v>5177</v>
+        <v>1654</v>
       </c>
       <c r="H83">
-        <v>14642</v>
+        <v>9342</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -3528,25 +3522,25 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D84" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F84">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="G84">
-        <v>3727</v>
+        <v>1000</v>
       </c>
       <c r="H84">
-        <v>22494</v>
+        <v>24197</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -3557,25 +3551,25 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D85" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E85" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F85">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="G85">
-        <v>5077</v>
+        <v>3980</v>
       </c>
       <c r="H85">
-        <v>16342</v>
+        <v>13880</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3586,25 +3580,25 @@
         <v>3</v>
       </c>
       <c r="B86">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>197</v>
+        <v>102</v>
       </c>
       <c r="D86" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F86">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G86">
-        <v>4353</v>
+        <v>5020</v>
       </c>
       <c r="H86">
-        <v>10320</v>
+        <v>15991</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3615,25 +3609,25 @@
         <v>3</v>
       </c>
       <c r="B87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>199</v>
+        <v>104</v>
       </c>
       <c r="D87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F87">
-        <v>113</v>
+        <v>56</v>
       </c>
       <c r="G87">
-        <v>1000</v>
+        <v>4690</v>
       </c>
       <c r="H87">
-        <v>20876</v>
+        <v>11786</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3644,25 +3638,25 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E88" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
       <c r="F88">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="G88">
-        <v>3980</v>
+        <v>5464</v>
       </c>
       <c r="H88">
-        <v>13880</v>
+        <v>15525</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3673,25 +3667,25 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C89" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="D89" t="s">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F89">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G89">
-        <v>5249</v>
+        <v>5400</v>
       </c>
       <c r="H89">
-        <v>18660</v>
+        <v>10851</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3702,28 +3696,28 @@
         <v>3</v>
       </c>
       <c r="B90">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C90" t="s">
+        <v>204</v>
+      </c>
+      <c r="D90" t="s">
         <v>205</v>
       </c>
-      <c r="D90" t="s">
-        <v>206</v>
-      </c>
       <c r="E90" t="s">
-        <v>207</v>
+        <v>87</v>
       </c>
       <c r="F90">
-        <v>87</v>
+        <v>27</v>
       </c>
       <c r="G90">
-        <v>4216</v>
+        <v>5166</v>
       </c>
       <c r="H90">
-        <v>25943</v>
+        <v>13549</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3731,28 +3725,28 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C91" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D91" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E91" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="F91">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="G91">
-        <v>4295</v>
+        <v>3808</v>
       </c>
       <c r="H91">
-        <v>20182</v>
+        <v>7771</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3760,25 +3754,25 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C92" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="D92" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="G92">
-        <v>5641</v>
+        <v>4265</v>
       </c>
       <c r="H92">
-        <v>10849</v>
+        <v>8680</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -3789,7 +3783,7 @@
         <v>3</v>
       </c>
       <c r="B93">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C93" t="s">
         <v>210</v>
@@ -3798,16 +3792,16 @@
         <v>211</v>
       </c>
       <c r="E93" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="F93">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G93">
-        <v>4686</v>
+        <v>4733</v>
       </c>
       <c r="H93">
-        <v>11767</v>
+        <v>16365</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -3818,25 +3812,25 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>135</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F94">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="G94">
-        <v>4308</v>
+        <v>4586</v>
       </c>
       <c r="H94">
-        <v>10587</v>
+        <v>20655</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -3847,25 +3841,25 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C95" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D95" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E95" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F95">
-        <v>59</v>
+        <v>100</v>
       </c>
       <c r="G95">
-        <v>4673</v>
+        <v>3780</v>
       </c>
       <c r="H95">
-        <v>8581</v>
+        <v>28066</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -3876,25 +3870,25 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C96" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D96" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E96" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F96">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G96">
-        <v>4213</v>
+        <v>4233</v>
       </c>
       <c r="H96">
-        <v>15207</v>
+        <v>9068</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -3905,25 +3899,25 @@
         <v>3</v>
       </c>
       <c r="B97">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C97" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D97" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>220</v>
       </c>
       <c r="F97">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="G97">
-        <v>4812</v>
+        <v>4167</v>
       </c>
       <c r="H97">
-        <v>18826</v>
+        <v>11402</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -3934,25 +3928,25 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C98" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D98" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="F98">
-        <v>92</v>
+        <v>22</v>
       </c>
       <c r="G98">
-        <v>4124</v>
+        <v>5208</v>
       </c>
       <c r="H98">
-        <v>22993</v>
+        <v>12511</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -3963,25 +3957,25 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C99" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D99" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="E99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F99">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="G99">
-        <v>5325</v>
+        <v>4738</v>
       </c>
       <c r="H99">
-        <v>16491</v>
+        <v>15056</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -3992,25 +3986,25 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C100" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="D100" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="F100">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="G100">
-        <v>4482</v>
+        <v>4975</v>
       </c>
       <c r="H100">
-        <v>22452</v>
+        <v>14509</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -4021,25 +4015,25 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>150</v>
       </c>
       <c r="D101" t="s">
-        <v>225</v>
+        <v>33</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F101">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G101">
-        <v>4975</v>
+        <v>4308</v>
       </c>
       <c r="H101">
-        <v>14509</v>
+        <v>10587</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -4050,25 +4044,25 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E102" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F102">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="G102">
-        <v>4733</v>
+        <v>5325</v>
       </c>
       <c r="H102">
-        <v>16365</v>
+        <v>16491</v>
       </c>
       <c r="I102">
         <v>2</v>
@@ -4079,28 +4073,28 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>14</v>
       </c>
       <c r="F103">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="G103">
-        <v>5149</v>
+        <v>4849</v>
       </c>
       <c r="H103">
-        <v>22688</v>
+        <v>8188</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4108,25 +4102,25 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>85</v>
       </c>
       <c r="D104" t="s">
         <v>231</v>
       </c>
       <c r="E104" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="F104">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>4849</v>
+        <v>5820</v>
       </c>
       <c r="H104">
-        <v>8188</v>
+        <v>12305</v>
       </c>
       <c r="I104">
         <v>3</v>
@@ -4137,7 +4131,7 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C105" t="s">
         <v>232</v>
@@ -4146,16 +4140,16 @@
         <v>233</v>
       </c>
       <c r="E105" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="F105">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="G105">
-        <v>3246</v>
+        <v>4208</v>
       </c>
       <c r="H105">
-        <v>7719</v>
+        <v>11467</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -4166,7 +4160,7 @@
         <v>3</v>
       </c>
       <c r="B106">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C106" t="s">
         <v>234</v>
@@ -4175,16 +4169,16 @@
         <v>235</v>
       </c>
       <c r="E106" t="s">
-        <v>47</v>
+        <v>95</v>
       </c>
       <c r="F106">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="G106">
-        <v>4812</v>
+        <v>3246</v>
       </c>
       <c r="H106">
-        <v>10551</v>
+        <v>7719</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -4195,7 +4189,7 @@
         <v>3</v>
       </c>
       <c r="B107">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C107" t="s">
         <v>236</v>
@@ -4204,7 +4198,7 @@
         <v>237</v>
       </c>
       <c r="E107" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F107">
         <v>7</v>
@@ -4224,7 +4218,7 @@
         <v>3</v>
       </c>
       <c r="B108">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C108" t="s">
         <v>238</v>
@@ -4233,16 +4227,16 @@
         <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="F108">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="G108">
-        <v>4975</v>
+        <v>4812</v>
       </c>
       <c r="H108">
-        <v>15405</v>
+        <v>10551</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -4253,7 +4247,7 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C109" t="s">
         <v>240</v>
@@ -4262,16 +4256,16 @@
         <v>241</v>
       </c>
       <c r="E109" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F109">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="G109">
-        <v>5170</v>
+        <v>4667</v>
       </c>
       <c r="H109">
-        <v>11299</v>
+        <v>17414</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -4282,25 +4276,25 @@
         <v>3</v>
       </c>
       <c r="B110">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C110" t="s">
+        <v>156</v>
+      </c>
+      <c r="D110" t="s">
         <v>242</v>
       </c>
-      <c r="D110" t="s">
-        <v>243</v>
-      </c>
       <c r="E110" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F110">
-        <v>104</v>
+        <v>4</v>
       </c>
       <c r="G110">
-        <v>3600</v>
+        <v>5661</v>
       </c>
       <c r="H110">
-        <v>7164</v>
+        <v>12187</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -4311,25 +4305,25 @@
         <v>3</v>
       </c>
       <c r="B111">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C111" t="s">
+        <v>243</v>
+      </c>
+      <c r="D111" t="s">
         <v>244</v>
       </c>
-      <c r="D111" t="s">
-        <v>245</v>
-      </c>
       <c r="E111" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="F111">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="G111">
-        <v>4560</v>
+        <v>4353</v>
       </c>
       <c r="H111">
-        <v>16618</v>
+        <v>19153</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -4340,25 +4334,25 @@
         <v>3</v>
       </c>
       <c r="B112">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C112" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" t="s">
         <v>246</v>
       </c>
-      <c r="D112" t="s">
-        <v>247</v>
-      </c>
       <c r="E112" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F112">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="G112">
-        <v>5473</v>
+        <v>4434</v>
       </c>
       <c r="H112">
-        <v>16905</v>
+        <v>9942</v>
       </c>
       <c r="I112">
         <v>3</v>
@@ -4369,25 +4363,25 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C113" t="s">
+        <v>247</v>
+      </c>
+      <c r="D113" t="s">
         <v>248</v>
       </c>
-      <c r="D113" t="s">
-        <v>249</v>
-      </c>
       <c r="E113" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="F113">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="G113">
-        <v>4538</v>
+        <v>3358</v>
       </c>
       <c r="H113">
-        <v>18766</v>
+        <v>7199</v>
       </c>
       <c r="I113">
         <v>3</v>
@@ -4398,25 +4392,25 @@
         <v>3</v>
       </c>
       <c r="B114">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C114" t="s">
+        <v>249</v>
+      </c>
+      <c r="D114" t="s">
         <v>250</v>
       </c>
-      <c r="D114" t="s">
-        <v>251</v>
-      </c>
       <c r="E114" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="F114">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="G114">
-        <v>3912</v>
+        <v>4488</v>
       </c>
       <c r="H114">
-        <v>8196</v>
+        <v>23855</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -4427,56 +4421,27 @@
         <v>3</v>
       </c>
       <c r="B115">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C115" t="s">
+        <v>251</v>
+      </c>
+      <c r="D115" t="s">
         <v>252</v>
       </c>
-      <c r="D115" t="s">
-        <v>253</v>
-      </c>
       <c r="E115" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F115">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="G115">
-        <v>5356</v>
+        <v>4538</v>
       </c>
       <c r="H115">
-        <v>15397</v>
+        <v>18766</v>
       </c>
       <c r="I115">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
-      <c r="A116">
-        <v>3</v>
-      </c>
-      <c r="B116">
-        <v>37</v>
-      </c>
-      <c r="C116" t="s">
-        <v>238</v>
-      </c>
-      <c r="D116" t="s">
-        <v>254</v>
-      </c>
-      <c r="E116" t="s">
-        <v>26</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-      <c r="G116">
-        <v>5820</v>
-      </c>
-      <c r="H116">
-        <v>12305</v>
-      </c>
-      <c r="I116">
         <v>3</v>
       </c>
     </row>

--- a/startlists.xlsx
+++ b/startlists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="255">
   <si>
     <t>Heat</t>
   </si>
@@ -43,13 +43,376 @@
     <t>StartGrp</t>
   </si>
   <si>
+    <t>Oystein</t>
+  </si>
+  <si>
+    <t>Kvaal Osterbo</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Gheorghe</t>
+  </si>
+  <si>
+    <t>Fala</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Simosas</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Mantas</t>
+  </si>
+  <si>
+    <t>Martinkus</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Nogueira</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Parfianowicz</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Andris</t>
+  </si>
+  <si>
+    <t>Kivlenieks</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Popov</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Minar</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Delenne</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Dimitar</t>
+  </si>
+  <si>
+    <t>Zhelyazkov</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>Andreas Hougaard</t>
+  </si>
+  <si>
+    <t>Boesen</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Joao Mega</t>
+  </si>
+  <si>
+    <t>Figueiredo</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Smithard</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Merl</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Vojtech</t>
+  </si>
+  <si>
+    <t>Sykora</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Martinez Perez</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Rueedlinger</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Prunsche</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Leandersson</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Rjabyshkin</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Dallavalle</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Rauturier</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Sirakov</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Kyburz</t>
+  </si>
+  <si>
+    <t>Jubelis</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Bergman</t>
+  </si>
+  <si>
+    <t>Asaf</t>
+  </si>
+  <si>
+    <t>Avner</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>Tsvetkov</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Ciobanu</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Kasper</t>
+  </si>
+  <si>
+    <t>Fosser</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Bloemen</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Giacomo</t>
+  </si>
+  <si>
+    <t>Barbone</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Caraglio</t>
+  </si>
+  <si>
+    <t>Reiner</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Yannick</t>
+  </si>
+  <si>
+    <t>Michiels</t>
+  </si>
+  <si>
+    <t>Topi</t>
+  </si>
+  <si>
+    <t>Raitanen</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>McLeod</t>
+  </si>
+  <si>
+    <t>Teodor</t>
+  </si>
+  <si>
+    <t>Yordanov</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Saetalu</t>
+  </si>
+  <si>
+    <t>Sebastian Ken</t>
+  </si>
+  <si>
+    <t>Baumann</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>Gernot</t>
+  </si>
+  <si>
+    <t>Kerschbaumer</t>
+  </si>
+  <si>
+    <t>Endijs</t>
+  </si>
+  <si>
+    <t>Titomers</t>
+  </si>
+  <si>
     <t>Joni</t>
   </si>
   <si>
     <t>Hirvikallio</t>
   </si>
   <si>
-    <t>FIN</t>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Nitsan</t>
+  </si>
+  <si>
+    <t>Yasur</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Borjeskog</t>
   </si>
   <si>
     <t>Frederic</t>
@@ -58,43 +421,169 @@
     <t>Tranchand</t>
   </si>
   <si>
-    <t>FRA</t>
+    <t>Wannes</t>
+  </si>
+  <si>
+    <t>Hendrickx</t>
+  </si>
+  <si>
+    <t>Algirdas</t>
+  </si>
+  <si>
+    <t>Bartkevicius</t>
+  </si>
+  <si>
+    <t>Arturs</t>
+  </si>
+  <si>
+    <t>Paulins</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Inderst</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Jonsson</t>
+  </si>
+  <si>
+    <t>Warre</t>
+  </si>
+  <si>
+    <t>De Cuyper</t>
+  </si>
+  <si>
+    <t>Bogya</t>
+  </si>
+  <si>
+    <t>Tamas</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>Khramov</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Salmenkyla</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Kubelka</t>
+  </si>
+  <si>
+    <t>Max Peter</t>
+  </si>
+  <si>
+    <t>Bejmer</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Kacmaz</t>
+  </si>
+  <si>
+    <t>TUR</t>
   </si>
   <si>
     <t>Daniel</t>
   </si>
   <si>
+    <t>Hubmann</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Dewett</t>
+  </si>
+  <si>
+    <t>Apostol</t>
+  </si>
+  <si>
+    <t>Atanasov</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Spaeth</t>
+  </si>
+  <si>
+    <t>Loic</t>
+  </si>
+  <si>
+    <t>Capbern</t>
+  </si>
+  <si>
+    <t>Andreu</t>
+  </si>
+  <si>
+    <t>Blanes</t>
+  </si>
+  <si>
+    <t>Aleksi</t>
+  </si>
+  <si>
+    <t>Niemi</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Kivikas</t>
+  </si>
+  <si>
+    <t>Trond Einar</t>
+  </si>
+  <si>
+    <t>Moen Pedersli</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Goericke</t>
+  </si>
+  <si>
+    <t>Howald</t>
+  </si>
+  <si>
+    <t>Mattia</t>
+  </si>
+  <si>
+    <t>Debertolis</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Nykodym</t>
+  </si>
+  <si>
     <t>Hajek</t>
   </si>
   <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>Sebastian Ken</t>
-  </si>
-  <si>
-    <t>Baumann</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>Philipp</t>
-  </si>
-  <si>
-    <t>Mueller</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>Nitsan</t>
-  </si>
-  <si>
-    <t>Yasur</t>
-  </si>
-  <si>
-    <t>ISR</t>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Hadorn</t>
   </si>
   <si>
     <t>Bjarne</t>
@@ -103,58 +592,91 @@
     <t>Friedrichs</t>
   </si>
   <si>
-    <t>Dimitar</t>
-  </si>
-  <si>
-    <t>Zhelyazkov</t>
-  </si>
-  <si>
-    <t>BUL</t>
-  </si>
-  <si>
-    <t>Wannes</t>
-  </si>
-  <si>
-    <t>Hendrickx</t>
-  </si>
-  <si>
-    <t>BEL</t>
+    <t>George Emilian</t>
+  </si>
+  <si>
+    <t>Minoiu</t>
+  </si>
+  <si>
+    <t>Hakon</t>
+  </si>
+  <si>
+    <t>Jarvis Westergard</t>
+  </si>
+  <si>
+    <t>Wouter</t>
+  </si>
+  <si>
+    <t>Hus</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Alessio</t>
+  </si>
+  <si>
+    <t>Tenani</t>
+  </si>
+  <si>
+    <t>Morten</t>
+  </si>
+  <si>
+    <t>Jorgensen</t>
+  </si>
+  <si>
+    <t>Regborn</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Scalet</t>
   </si>
   <si>
     <t>Artem</t>
   </si>
   <si>
-    <t>Popov</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>Alasdair</t>
-  </si>
-  <si>
-    <t>McLeod</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>Alessio</t>
-  </si>
-  <si>
-    <t>Tenani</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Saetalu</t>
-  </si>
-  <si>
-    <t>EST</t>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Hodkinson</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Doellgast</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Laukkarinen</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Jon Aukrust</t>
+  </si>
+  <si>
+    <t>Osmoen</t>
+  </si>
+  <si>
+    <t>Dmitrii</t>
+  </si>
+  <si>
+    <t>Poliakov</t>
+  </si>
+  <si>
+    <t>Miika</t>
+  </si>
+  <si>
+    <t>Kirmula</t>
   </si>
   <si>
     <t>Alexander</t>
@@ -166,46 +688,16 @@
     <t>Stefan</t>
   </si>
   <si>
-    <t>Yordanov</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Jonsson</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Martinez Perez</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>Hubmann</t>
-  </si>
-  <si>
-    <t>SUI</t>
-  </si>
-  <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>Khramov</t>
-  </si>
-  <si>
-    <t>Arturs</t>
-  </si>
-  <si>
-    <t>Paulins</t>
-  </si>
-  <si>
-    <t>LAT</t>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Edsen</t>
+  </si>
+  <si>
+    <t>Uldis</t>
+  </si>
+  <si>
+    <t>Upitis</t>
   </si>
   <si>
     <t>Vincent</t>
@@ -214,34 +706,37 @@
     <t>Coupat</t>
   </si>
   <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Leandersson</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>Jakob</t>
-  </si>
-  <si>
-    <t>Edsen</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Inderst</t>
-  </si>
-  <si>
-    <t>Max Peter</t>
-  </si>
-  <si>
-    <t>Bejmer</t>
+    <t>Itay</t>
+  </si>
+  <si>
+    <t>Manor</t>
+  </si>
+  <si>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>Olejnik</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Svensk</t>
+  </si>
+  <si>
+    <t>Alexandru</t>
+  </si>
+  <si>
+    <t>Blejdea</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Basset</t>
   </si>
   <si>
     <t>Henry</t>
@@ -253,37 +748,7 @@
     <t>AUS</t>
   </si>
   <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Bloemen</t>
-  </si>
-  <si>
-    <t>Aleksi</t>
-  </si>
-  <si>
-    <t>Niemi</t>
-  </si>
-  <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Kivikas</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>Reiner</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>Milos</t>
-  </si>
-  <si>
-    <t>Nykodym</t>
+    <t>Kral</t>
   </si>
   <si>
     <t>Jonas Vytautas</t>
@@ -292,487 +757,28 @@
     <t>Gvildys</t>
   </si>
   <si>
-    <t>LTU</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Ciobanu</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>Giacomo</t>
-  </si>
-  <si>
-    <t>Barbone</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>Olejnik</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>Florian</t>
-  </si>
-  <si>
-    <t>Howald</t>
-  </si>
-  <si>
-    <t>Andris</t>
-  </si>
-  <si>
-    <t>Jubelis</t>
-  </si>
-  <si>
-    <t>Trond Einar</t>
-  </si>
-  <si>
-    <t>Moen Pedersli</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>Hadorn</t>
-  </si>
-  <si>
-    <t>Piotr</t>
-  </si>
-  <si>
-    <t>Parfianowicz</t>
-  </si>
-  <si>
-    <t>Riccardo</t>
-  </si>
-  <si>
-    <t>Scalet</t>
-  </si>
-  <si>
-    <t>Hakon</t>
-  </si>
-  <si>
-    <t>Jarvis Westergard</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Regborn</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>George Emilian</t>
-  </si>
-  <si>
-    <t>Minoiu</t>
-  </si>
-  <si>
-    <t>Oystein</t>
-  </si>
-  <si>
-    <t>Kvaal Osterbo</t>
-  </si>
-  <si>
-    <t>Adrien</t>
-  </si>
-  <si>
-    <t>Delenne</t>
-  </si>
-  <si>
-    <t>Gernot</t>
-  </si>
-  <si>
-    <t>Kerschbaumer</t>
-  </si>
-  <si>
-    <t>Endijs</t>
-  </si>
-  <si>
-    <t>Titomers</t>
-  </si>
-  <si>
-    <t>Teodor</t>
-  </si>
-  <si>
-    <t>Wouter</t>
-  </si>
-  <si>
-    <t>Hus</t>
-  </si>
-  <si>
-    <t>Joao Mega</t>
-  </si>
-  <si>
-    <t>Figueiredo</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>Algirdas</t>
-  </si>
-  <si>
-    <t>Bartkevicius</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Salmenkyla</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>Rueedlinger</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>Christoph</t>
-  </si>
-  <si>
-    <t>Prunsche</t>
-  </si>
-  <si>
-    <t>Sergei</t>
-  </si>
-  <si>
-    <t>Rjabyshkin</t>
-  </si>
-  <si>
-    <t>Itay</t>
-  </si>
-  <si>
-    <t>Manor</t>
-  </si>
-  <si>
-    <t>Tomas</t>
-  </si>
-  <si>
-    <t>Kubelka</t>
-  </si>
-  <si>
-    <t>Uldis</t>
-  </si>
-  <si>
-    <t>Upitis</t>
-  </si>
-  <si>
-    <t>Miika</t>
-  </si>
-  <si>
-    <t>Kirmula</t>
-  </si>
-  <si>
-    <t>Vojtech</t>
-  </si>
-  <si>
-    <t>Sykora</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Michele</t>
-  </si>
-  <si>
-    <t>Caraglio</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Basset</t>
-  </si>
-  <si>
-    <t>Yannick</t>
-  </si>
-  <si>
-    <t>Michiels</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Spaeth</t>
-  </si>
-  <si>
-    <t>Andreu</t>
-  </si>
-  <si>
-    <t>Blanes</t>
-  </si>
-  <si>
-    <t>Mathias</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Apostol</t>
-  </si>
-  <si>
-    <t>Atanasov</t>
-  </si>
-  <si>
-    <t>Kristian</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Magnus</t>
-  </si>
-  <si>
-    <t>Dewett</t>
+    <t>Kristo</t>
+  </si>
+  <si>
+    <t>Heinmann</t>
+  </si>
+  <si>
+    <t>Ivaylo</t>
+  </si>
+  <si>
+    <t>Kamenarov</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Dislers</t>
   </si>
   <si>
     <t>Eduardo</t>
   </si>
   <si>
     <t>Gil Marcos</t>
-  </si>
-  <si>
-    <t>Topi</t>
-  </si>
-  <si>
-    <t>Raitanen</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>Svensk</t>
-  </si>
-  <si>
-    <t>Andreas Hougaard</t>
-  </si>
-  <si>
-    <t>Boesen</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Borjeskog</t>
-  </si>
-  <si>
-    <t>Marek</t>
-  </si>
-  <si>
-    <t>Minar</t>
-  </si>
-  <si>
-    <t>Hodkinson</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
-    <t>Simosas</t>
-  </si>
-  <si>
-    <t>Gheorghe</t>
-  </si>
-  <si>
-    <t>Fala</t>
-  </si>
-  <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>Mantas</t>
-  </si>
-  <si>
-    <t>Martinkus</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Nogueira</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Kivlenieks</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Merl</t>
-  </si>
-  <si>
-    <t>Bogya</t>
-  </si>
-  <si>
-    <t>Tamas</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Dallavalle</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Sirakov</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>Rauturier</t>
-  </si>
-  <si>
-    <t>Warre</t>
-  </si>
-  <si>
-    <t>De Cuyper</t>
-  </si>
-  <si>
-    <t>Moritz</t>
-  </si>
-  <si>
-    <t>Doellgast</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Kacmaz</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>Laukkarinen</t>
-  </si>
-  <si>
-    <t>Dmitrii</t>
-  </si>
-  <si>
-    <t>Poliakov</t>
-  </si>
-  <si>
-    <t>Jon Aukrust</t>
-  </si>
-  <si>
-    <t>Osmoen</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Smithard</t>
-  </si>
-  <si>
-    <t>Loic</t>
-  </si>
-  <si>
-    <t>Capbern</t>
-  </si>
-  <si>
-    <t>Kyburz</t>
-  </si>
-  <si>
-    <t>Ivaylo</t>
-  </si>
-  <si>
-    <t>Kamenarov</t>
-  </si>
-  <si>
-    <t>Alexandru</t>
-  </si>
-  <si>
-    <t>Blejdea</t>
-  </si>
-  <si>
-    <t>Gustav</t>
-  </si>
-  <si>
-    <t>Bergman</t>
-  </si>
-  <si>
-    <t>Kristo</t>
-  </si>
-  <si>
-    <t>Heinmann</t>
-  </si>
-  <si>
-    <t>Dmitry</t>
-  </si>
-  <si>
-    <t>Tsvetkov</t>
-  </si>
-  <si>
-    <t>Kral</t>
-  </si>
-  <si>
-    <t>Mattia</t>
-  </si>
-  <si>
-    <t>Debertolis</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Goericke</t>
-  </si>
-  <si>
-    <t>Asaf</t>
-  </si>
-  <si>
-    <t>Avner</t>
-  </si>
-  <si>
-    <t>Kasper</t>
-  </si>
-  <si>
-    <t>Fosser</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Dislers</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1156,13 +1162,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>69</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>4532</v>
+        <v>5249</v>
       </c>
       <c r="H2">
-        <v>10663</v>
+        <v>18660</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1185,13 +1191,13 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>111</v>
       </c>
       <c r="G3">
-        <v>5673</v>
+        <v>1654</v>
       </c>
       <c r="H3">
-        <v>17348</v>
+        <v>9342</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1214,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="G4">
-        <v>4353</v>
+        <v>5077</v>
       </c>
       <c r="H4">
-        <v>10320</v>
+        <v>16342</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1243,13 +1249,13 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>87</v>
+        <v>114</v>
       </c>
       <c r="G5">
-        <v>4216</v>
+        <v>1000</v>
       </c>
       <c r="H5">
-        <v>25943</v>
+        <v>24197</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1272,7 +1278,7 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G6">
         <v>3524</v>
@@ -1301,13 +1307,13 @@
         <v>26</v>
       </c>
       <c r="F7">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G7">
-        <v>4295</v>
+        <v>3980</v>
       </c>
       <c r="H7">
-        <v>20182</v>
+        <v>13880</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1327,16 +1333,16 @@
         <v>28</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F8">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="G8">
-        <v>3952</v>
+        <v>5177</v>
       </c>
       <c r="H8">
-        <v>9624</v>
+        <v>14642</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1350,22 +1356,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="G9">
-        <v>4066</v>
+        <v>4690</v>
       </c>
       <c r="H9">
-        <v>24809</v>
+        <v>11786</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1379,22 +1385,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F10">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G10">
-        <v>1000</v>
+        <v>4265</v>
       </c>
       <c r="H10">
-        <v>10588</v>
+        <v>22153</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1408,22 +1414,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F11">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="G11">
-        <v>5069</v>
+        <v>4623</v>
       </c>
       <c r="H11">
-        <v>15086</v>
+        <v>20166</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1437,22 +1443,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F12">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G12">
-        <v>4736</v>
+        <v>4956</v>
       </c>
       <c r="H12">
-        <v>13474</v>
+        <v>19918</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1466,22 +1472,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="G13">
-        <v>4422</v>
+        <v>4066</v>
       </c>
       <c r="H13">
-        <v>17146</v>
+        <v>24809</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1495,22 +1501,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F14">
-        <v>106</v>
+        <v>28</v>
       </c>
       <c r="G14">
-        <v>3348</v>
+        <v>5154</v>
       </c>
       <c r="H14">
-        <v>20535</v>
+        <v>7760</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1524,22 +1530,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F15">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="G15">
-        <v>4599</v>
+        <v>4399</v>
       </c>
       <c r="H15">
-        <v>8351</v>
+        <v>9450</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1553,22 +1559,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="F16">
-        <v>98</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>3898</v>
+        <v>5325</v>
       </c>
       <c r="H16">
-        <v>25423</v>
+        <v>16491</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1582,22 +1588,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F17">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="G17">
-        <v>4526</v>
+        <v>5166</v>
       </c>
       <c r="H17">
-        <v>23864</v>
+        <v>13549</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1611,22 +1617,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="F18">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G18">
-        <v>5379</v>
+        <v>4534</v>
       </c>
       <c r="H18">
-        <v>13326</v>
+        <v>25347</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1640,22 +1646,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="G19">
-        <v>5641</v>
+        <v>5379</v>
       </c>
       <c r="H19">
-        <v>10849</v>
+        <v>13326</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1669,22 +1675,22 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="F20">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="G20">
-        <v>5196</v>
+        <v>4913</v>
       </c>
       <c r="H20">
-        <v>11718</v>
+        <v>15729</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1698,22 +1704,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="F21">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="G21">
-        <v>4952</v>
+        <v>4213</v>
       </c>
       <c r="H21">
-        <v>14704</v>
+        <v>15207</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1727,22 +1733,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F22">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>4673</v>
+        <v>5433</v>
       </c>
       <c r="H22">
-        <v>8581</v>
+        <v>12555</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1756,22 +1762,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F23">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G23">
-        <v>5433</v>
+        <v>4324</v>
       </c>
       <c r="H23">
-        <v>12555</v>
+        <v>15512</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1785,22 +1791,22 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D24" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F24">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="G24">
-        <v>5149</v>
+        <v>4265</v>
       </c>
       <c r="H24">
-        <v>22688</v>
+        <v>8680</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1814,22 +1820,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F25">
-        <v>90</v>
+        <v>64</v>
       </c>
       <c r="G25">
-        <v>4202</v>
+        <v>4586</v>
       </c>
       <c r="H25">
-        <v>11008</v>
+        <v>20655</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1843,22 +1849,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="F26">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="G26">
-        <v>4840</v>
+        <v>4733</v>
       </c>
       <c r="H26">
-        <v>7466</v>
+        <v>16365</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1872,22 +1878,22 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="F27">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="G27">
-        <v>4905</v>
+        <v>5820</v>
       </c>
       <c r="H27">
-        <v>13483</v>
+        <v>12305</v>
       </c>
       <c r="I27">
         <v>3</v>
@@ -1901,22 +1907,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F28">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4756</v>
       </c>
       <c r="H28">
-        <v>7724</v>
+        <v>11329</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -1930,22 +1936,22 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F29">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="G29">
-        <v>5076</v>
+        <v>5544</v>
       </c>
       <c r="H29">
-        <v>18700</v>
+        <v>7562</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -1959,22 +1965,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D30" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="F30">
-        <v>16</v>
+        <v>106</v>
       </c>
       <c r="G30">
-        <v>5329</v>
+        <v>3358</v>
       </c>
       <c r="H30">
-        <v>11784</v>
+        <v>7199</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1988,22 +1994,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F31">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G31">
-        <v>4975</v>
+        <v>4667</v>
       </c>
       <c r="H31">
-        <v>15405</v>
+        <v>17414</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2017,22 +2023,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>91</v>
       </c>
       <c r="F32">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="G32">
-        <v>5222</v>
+        <v>4304</v>
       </c>
       <c r="H32">
-        <v>14322</v>
+        <v>8458</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2046,22 +2052,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D33" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E33" t="s">
-        <v>92</v>
+        <v>11</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="G33">
-        <v>5175</v>
+        <v>4488</v>
       </c>
       <c r="H33">
-        <v>10248</v>
+        <v>23855</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -2075,22 +2081,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F34">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="G34">
-        <v>4304</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>8458</v>
+        <v>7724</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -2104,16 +2110,16 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F35">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G35">
         <v>3687</v>
@@ -2133,22 +2139,22 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D36" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E36" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="F36">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="G36">
-        <v>4540</v>
+        <v>3912</v>
       </c>
       <c r="H36">
-        <v>14406</v>
+        <v>8196</v>
       </c>
       <c r="I36">
         <v>3</v>
@@ -2162,22 +2168,22 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" t="s">
         <v>102</v>
       </c>
-      <c r="D37" t="s">
-        <v>103</v>
-      </c>
       <c r="E37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F37">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="G37">
-        <v>5531</v>
+        <v>4975</v>
       </c>
       <c r="H37">
-        <v>10810</v>
+        <v>15405</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -2191,22 +2197,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" t="s">
         <v>104</v>
       </c>
-      <c r="D38" t="s">
-        <v>105</v>
-      </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F38">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="G38">
-        <v>4756</v>
+        <v>4993</v>
       </c>
       <c r="H38">
-        <v>11329</v>
+        <v>16782</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -2220,22 +2226,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" t="s">
         <v>106</v>
       </c>
-      <c r="D39" t="s">
-        <v>107</v>
-      </c>
       <c r="E39" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="F39">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="G39">
-        <v>4710</v>
+        <v>5620</v>
       </c>
       <c r="H39">
-        <v>14760</v>
+        <v>13592</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2243,31 +2249,31 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>107</v>
+      </c>
+      <c r="D40" t="s">
         <v>108</v>
       </c>
-      <c r="D40" t="s">
-        <v>109</v>
-      </c>
       <c r="E40" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="F40">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="G40">
-        <v>4736</v>
+        <v>4848</v>
       </c>
       <c r="H40">
-        <v>23033</v>
+        <v>15299</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2275,25 +2281,25 @@
         <v>2</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C41" t="s">
+        <v>109</v>
+      </c>
+      <c r="D41" t="s">
         <v>110</v>
       </c>
-      <c r="D41" t="s">
-        <v>111</v>
-      </c>
       <c r="E41" t="s">
-        <v>101</v>
+        <v>53</v>
       </c>
       <c r="F41">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="G41">
-        <v>5177</v>
+        <v>4736</v>
       </c>
       <c r="H41">
-        <v>14642</v>
+        <v>13474</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2304,25 +2310,25 @@
         <v>2</v>
       </c>
       <c r="B42">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C42" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" t="s">
         <v>112</v>
       </c>
-      <c r="D42" t="s">
-        <v>113</v>
-      </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="G42">
-        <v>5092</v>
+        <v>4030</v>
       </c>
       <c r="H42">
-        <v>18966</v>
+        <v>18286</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2333,25 +2339,25 @@
         <v>2</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C43" t="s">
+        <v>113</v>
+      </c>
+      <c r="D43" t="s">
         <v>114</v>
       </c>
-      <c r="D43" t="s">
-        <v>115</v>
-      </c>
       <c r="E43" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="F43">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="G43">
-        <v>5473</v>
+        <v>3348</v>
       </c>
       <c r="H43">
-        <v>11163</v>
+        <v>20535</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -2362,25 +2368,25 @@
         <v>2</v>
       </c>
       <c r="B44">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" t="s">
         <v>116</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>117</v>
       </c>
-      <c r="E44" t="s">
-        <v>68</v>
-      </c>
       <c r="F44">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="G44">
-        <v>5680</v>
+        <v>4216</v>
       </c>
       <c r="H44">
-        <v>15387</v>
+        <v>25943</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -2391,25 +2397,25 @@
         <v>2</v>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" t="s">
         <v>118</v>
       </c>
       <c r="D45" t="s">
-        <v>36</v>
+        <v>119</v>
       </c>
       <c r="E45" t="s">
-        <v>37</v>
+        <v>120</v>
       </c>
       <c r="F45">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="G45">
-        <v>4265</v>
+        <v>5464</v>
       </c>
       <c r="H45">
-        <v>22153</v>
+        <v>15525</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2420,25 +2426,25 @@
         <v>2</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E46" t="s">
-        <v>95</v>
+        <v>56</v>
       </c>
       <c r="F46">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="G46">
-        <v>3227</v>
+        <v>5131</v>
       </c>
       <c r="H46">
-        <v>27308</v>
+        <v>11671</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2449,25 +2455,25 @@
         <v>2</v>
       </c>
       <c r="B47">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E47" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F47">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="G47">
-        <v>5249</v>
+        <v>4322</v>
       </c>
       <c r="H47">
-        <v>18660</v>
+        <v>19137</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2478,25 +2484,25 @@
         <v>2</v>
       </c>
       <c r="B48">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D48" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F48">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="G48">
-        <v>4956</v>
+        <v>4532</v>
       </c>
       <c r="H48">
-        <v>19918</v>
+        <v>10663</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2507,25 +2513,25 @@
         <v>2</v>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D49" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E49" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
       <c r="F49">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G49">
-        <v>5131</v>
+        <v>5020</v>
       </c>
       <c r="H49">
-        <v>11671</v>
+        <v>15991</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2536,25 +2542,25 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D50" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E50" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
       <c r="F50">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G50">
-        <v>4322</v>
+        <v>4295</v>
       </c>
       <c r="H50">
-        <v>19137</v>
+        <v>20182</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2565,25 +2571,25 @@
         <v>2</v>
       </c>
       <c r="B51">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D51" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F51">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="G51">
-        <v>4030</v>
+        <v>4992</v>
       </c>
       <c r="H51">
-        <v>18286</v>
+        <v>8136</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2594,25 +2600,25 @@
         <v>2</v>
       </c>
       <c r="B52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F52">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="G52">
-        <v>1000</v>
+        <v>5673</v>
       </c>
       <c r="H52">
-        <v>20876</v>
+        <v>17348</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2623,28 +2629,28 @@
         <v>2</v>
       </c>
       <c r="B53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E53" t="s">
-        <v>134</v>
+        <v>96</v>
       </c>
       <c r="F53">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="G53">
-        <v>4399</v>
+        <v>1000</v>
       </c>
       <c r="H53">
-        <v>9450</v>
+        <v>10588</v>
       </c>
       <c r="I53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2652,16 +2658,16 @@
         <v>2</v>
       </c>
       <c r="B54">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D54" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E54" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="F54">
         <v>49</v>
@@ -2681,25 +2687,25 @@
         <v>2</v>
       </c>
       <c r="B55">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D55" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>32</v>
       </c>
       <c r="F55">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="G55">
-        <v>1968</v>
+        <v>4952</v>
       </c>
       <c r="H55">
-        <v>25115</v>
+        <v>14704</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -2710,25 +2716,25 @@
         <v>2</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D56" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E56" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F56">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="G56">
-        <v>4913</v>
+        <v>4202</v>
       </c>
       <c r="H56">
-        <v>15729</v>
+        <v>11008</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -2739,25 +2745,25 @@
         <v>2</v>
       </c>
       <c r="B57">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D57" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E57" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="F57">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G57">
-        <v>4482</v>
+        <v>4526</v>
       </c>
       <c r="H57">
-        <v>22452</v>
+        <v>23864</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -2768,25 +2774,25 @@
         <v>2</v>
       </c>
       <c r="B58">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D58" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E58" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="F58">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G58">
-        <v>4213</v>
+        <v>3780</v>
       </c>
       <c r="H58">
-        <v>15207</v>
+        <v>28066</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -2797,25 +2803,25 @@
         <v>2</v>
       </c>
       <c r="B59">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D59" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E59" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="F59">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="G59">
-        <v>4324</v>
+        <v>3808</v>
       </c>
       <c r="H59">
-        <v>15512</v>
+        <v>7771</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -2826,25 +2832,25 @@
         <v>2</v>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D60" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E60" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F60">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="G60">
-        <v>3664</v>
+        <v>5196</v>
       </c>
       <c r="H60">
-        <v>21437</v>
+        <v>11718</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -2855,25 +2861,25 @@
         <v>2</v>
       </c>
       <c r="B61">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D61" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E61" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F61">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="G61">
-        <v>4680</v>
+        <v>1968</v>
       </c>
       <c r="H61">
-        <v>19046</v>
+        <v>25115</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -2884,25 +2890,25 @@
         <v>2</v>
       </c>
       <c r="B62">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D62" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F62">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="G62">
-        <v>4124</v>
+        <v>4680</v>
       </c>
       <c r="H62">
-        <v>22993</v>
+        <v>19046</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -2913,25 +2919,25 @@
         <v>2</v>
       </c>
       <c r="B63">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D63" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F63">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="G63">
-        <v>4686</v>
+        <v>4840</v>
       </c>
       <c r="H63">
-        <v>11767</v>
+        <v>7466</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -2942,25 +2948,25 @@
         <v>2</v>
       </c>
       <c r="B64">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>17</v>
+        <v>159</v>
       </c>
       <c r="F64">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="G64">
-        <v>4534</v>
+        <v>4167</v>
       </c>
       <c r="H64">
-        <v>25347</v>
+        <v>11402</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -2971,28 +2977,28 @@
         <v>2</v>
       </c>
       <c r="B65">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D65" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E65" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F65">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="G65">
-        <v>4993</v>
+        <v>5641</v>
       </c>
       <c r="H65">
-        <v>16782</v>
+        <v>10849</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3000,25 +3006,25 @@
         <v>2</v>
       </c>
       <c r="B66">
+        <v>25</v>
+      </c>
+      <c r="C66" t="s">
+        <v>162</v>
+      </c>
+      <c r="D66" t="s">
+        <v>163</v>
+      </c>
+      <c r="E66" t="s">
+        <v>53</v>
+      </c>
+      <c r="F66">
         <v>26</v>
       </c>
-      <c r="C66" t="s">
-        <v>160</v>
-      </c>
-      <c r="D66" t="s">
-        <v>161</v>
-      </c>
-      <c r="E66" t="s">
-        <v>43</v>
-      </c>
-      <c r="F66">
-        <v>97</v>
-      </c>
       <c r="G66">
-        <v>3912</v>
+        <v>5170</v>
       </c>
       <c r="H66">
-        <v>8196</v>
+        <v>11299</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -3029,25 +3035,25 @@
         <v>2</v>
       </c>
       <c r="B67">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E67" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F67">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="G67">
-        <v>5319</v>
+        <v>4653</v>
       </c>
       <c r="H67">
-        <v>7403</v>
+        <v>8831</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -3058,25 +3064,25 @@
         <v>2</v>
       </c>
       <c r="B68">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E68" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F68">
-        <v>6</v>
+        <v>104</v>
       </c>
       <c r="G68">
-        <v>5620</v>
+        <v>3600</v>
       </c>
       <c r="H68">
-        <v>13592</v>
+        <v>7164</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -3087,13 +3093,13 @@
         <v>2</v>
       </c>
       <c r="B69">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E69" t="s">
         <v>23</v>
@@ -3116,25 +3122,25 @@
         <v>2</v>
       </c>
       <c r="B70">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D70" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E70" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="F70">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="G70">
-        <v>5356</v>
+        <v>4849</v>
       </c>
       <c r="H70">
-        <v>15397</v>
+        <v>8188</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -3145,25 +3151,25 @@
         <v>2</v>
       </c>
       <c r="B71">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E71" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="F71">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G71">
-        <v>4295</v>
+        <v>5356</v>
       </c>
       <c r="H71">
-        <v>14853</v>
+        <v>15397</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -3174,25 +3180,25 @@
         <v>2</v>
       </c>
       <c r="B72">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F72">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="G72">
-        <v>3600</v>
+        <v>5076</v>
       </c>
       <c r="H72">
-        <v>7164</v>
+        <v>18700</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -3203,25 +3209,25 @@
         <v>2</v>
       </c>
       <c r="B73">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E73" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="F73">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G73">
-        <v>5170</v>
+        <v>5329</v>
       </c>
       <c r="H73">
-        <v>11299</v>
+        <v>11784</v>
       </c>
       <c r="I73">
         <v>3</v>
@@ -3232,25 +3238,25 @@
         <v>2</v>
       </c>
       <c r="B74">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D74" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="F74">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G74">
-        <v>4653</v>
+        <v>4710</v>
       </c>
       <c r="H74">
-        <v>8831</v>
+        <v>14760</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -3261,25 +3267,25 @@
         <v>2</v>
       </c>
       <c r="B75">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E75" t="s">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="F75">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="G75">
-        <v>4988</v>
+        <v>4434</v>
       </c>
       <c r="H75">
-        <v>13255</v>
+        <v>9942</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -3290,25 +3296,25 @@
         <v>2</v>
       </c>
       <c r="B76">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
+        <v>127</v>
       </c>
       <c r="D76" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F76">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="G76">
-        <v>4848</v>
+        <v>5531</v>
       </c>
       <c r="H76">
-        <v>15299</v>
+        <v>10810</v>
       </c>
       <c r="I76">
         <v>3</v>
@@ -3319,25 +3325,25 @@
         <v>2</v>
       </c>
       <c r="B77">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D77" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F77">
-        <v>10</v>
+        <v>77</v>
       </c>
       <c r="G77">
-        <v>5473</v>
+        <v>4353</v>
       </c>
       <c r="H77">
-        <v>16905</v>
+        <v>19153</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -3345,31 +3351,31 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E78" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
       <c r="F78">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G78">
-        <v>5154</v>
+        <v>5222</v>
       </c>
       <c r="H78">
-        <v>7760</v>
+        <v>14322</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3377,25 +3383,25 @@
         <v>3</v>
       </c>
       <c r="B79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="D79" t="s">
         <v>187</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="F79">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="G79">
-        <v>4992</v>
+        <v>4353</v>
       </c>
       <c r="H79">
-        <v>8136</v>
+        <v>10320</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -3406,7 +3412,7 @@
         <v>3</v>
       </c>
       <c r="B80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C80" t="s">
         <v>188</v>
@@ -3415,16 +3421,16 @@
         <v>189</v>
       </c>
       <c r="E80" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F80">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="G80">
-        <v>4623</v>
+        <v>4736</v>
       </c>
       <c r="H80">
-        <v>20166</v>
+        <v>23033</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -3435,25 +3441,25 @@
         <v>3</v>
       </c>
       <c r="B81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="D81" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E81" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="F81">
-        <v>19</v>
+        <v>96</v>
       </c>
       <c r="G81">
-        <v>5272</v>
+        <v>3952</v>
       </c>
       <c r="H81">
-        <v>10688</v>
+        <v>9624</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3464,25 +3470,25 @@
         <v>3</v>
       </c>
       <c r="B82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D82" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F82">
-        <v>32</v>
+        <v>109</v>
       </c>
       <c r="G82">
-        <v>5077</v>
+        <v>3227</v>
       </c>
       <c r="H82">
-        <v>16342</v>
+        <v>27308</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3493,25 +3499,25 @@
         <v>3</v>
       </c>
       <c r="B83">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D83" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E83" t="s">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="F83">
-        <v>110</v>
+        <v>9</v>
       </c>
       <c r="G83">
-        <v>1654</v>
+        <v>5473</v>
       </c>
       <c r="H83">
-        <v>9342</v>
+        <v>11163</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -3522,7 +3528,7 @@
         <v>3</v>
       </c>
       <c r="B84">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>196</v>
@@ -3531,7 +3537,7 @@
         <v>197</v>
       </c>
       <c r="E84" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F84">
         <v>113</v>
@@ -3540,7 +3546,7 @@
         <v>1000</v>
       </c>
       <c r="H84">
-        <v>24197</v>
+        <v>20876</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -3551,25 +3557,25 @@
         <v>3</v>
       </c>
       <c r="B85">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>198</v>
       </c>
       <c r="D85" t="s">
-        <v>199</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F85">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="G85">
-        <v>3980</v>
+        <v>5400</v>
       </c>
       <c r="H85">
-        <v>13880</v>
+        <v>10851</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3580,25 +3586,25 @@
         <v>3</v>
       </c>
       <c r="B86">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>102</v>
+        <v>199</v>
       </c>
       <c r="D86" t="s">
         <v>200</v>
       </c>
       <c r="E86" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F86">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G86">
-        <v>5020</v>
+        <v>4422</v>
       </c>
       <c r="H86">
-        <v>15991</v>
+        <v>17146</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3609,25 +3615,25 @@
         <v>3</v>
       </c>
       <c r="B87">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>104</v>
+        <v>201</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E87" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="F87">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="G87">
-        <v>4690</v>
+        <v>3727</v>
       </c>
       <c r="H87">
-        <v>11786</v>
+        <v>22494</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3638,25 +3644,25 @@
         <v>3</v>
       </c>
       <c r="B88">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D88" t="s">
         <v>203</v>
       </c>
       <c r="E88" t="s">
-        <v>143</v>
+        <v>68</v>
       </c>
       <c r="F88">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G88">
-        <v>5464</v>
+        <v>5680</v>
       </c>
       <c r="H88">
-        <v>15525</v>
+        <v>15387</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3667,25 +3673,25 @@
         <v>3</v>
       </c>
       <c r="B89">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>204</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="F89">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G89">
-        <v>5400</v>
+        <v>5092</v>
       </c>
       <c r="H89">
-        <v>10851</v>
+        <v>18966</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3696,28 +3702,28 @@
         <v>3</v>
       </c>
       <c r="B90">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D90" t="s">
-        <v>205</v>
+        <v>34</v>
       </c>
       <c r="E90" t="s">
-        <v>87</v>
+        <v>35</v>
       </c>
       <c r="F90">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="G90">
-        <v>5166</v>
+        <v>5069</v>
       </c>
       <c r="H90">
-        <v>13549</v>
+        <v>15086</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3725,28 +3731,28 @@
         <v>3</v>
       </c>
       <c r="B91">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E91" t="s">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="F91">
-        <v>99</v>
+        <v>19</v>
       </c>
       <c r="G91">
-        <v>3808</v>
+        <v>5272</v>
       </c>
       <c r="H91">
-        <v>7771</v>
+        <v>10688</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3754,25 +3760,25 @@
         <v>3</v>
       </c>
       <c r="B92">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="F92">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G92">
-        <v>4265</v>
+        <v>4233</v>
       </c>
       <c r="H92">
-        <v>8680</v>
+        <v>9068</v>
       </c>
       <c r="I92">
         <v>2</v>
@@ -3783,25 +3789,25 @@
         <v>3</v>
       </c>
       <c r="B93">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>153</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="E93" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="F93">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="G93">
-        <v>4733</v>
+        <v>4308</v>
       </c>
       <c r="H93">
-        <v>16365</v>
+        <v>10587</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -3812,25 +3818,25 @@
         <v>3</v>
       </c>
       <c r="B94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C94" t="s">
+        <v>211</v>
+      </c>
+      <c r="D94" t="s">
         <v>212</v>
       </c>
-      <c r="D94" t="s">
-        <v>213</v>
-      </c>
       <c r="E94" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F94">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="G94">
-        <v>4586</v>
+        <v>5208</v>
       </c>
       <c r="H94">
-        <v>20655</v>
+        <v>12511</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -3841,25 +3847,25 @@
         <v>3</v>
       </c>
       <c r="B95">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C95" t="s">
+        <v>213</v>
+      </c>
+      <c r="D95" t="s">
         <v>214</v>
       </c>
-      <c r="D95" t="s">
-        <v>215</v>
-      </c>
       <c r="E95" t="s">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="F95">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="G95">
-        <v>3780</v>
+        <v>4482</v>
       </c>
       <c r="H95">
-        <v>28066</v>
+        <v>22452</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -3870,25 +3876,25 @@
         <v>3</v>
       </c>
       <c r="B96">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C96" t="s">
+        <v>215</v>
+      </c>
+      <c r="D96" t="s">
         <v>216</v>
       </c>
-      <c r="D96" t="s">
-        <v>217</v>
-      </c>
       <c r="E96" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F96">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="G96">
-        <v>4233</v>
+        <v>4975</v>
       </c>
       <c r="H96">
-        <v>9068</v>
+        <v>14509</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -3899,25 +3905,25 @@
         <v>3</v>
       </c>
       <c r="B97">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C97" t="s">
+        <v>217</v>
+      </c>
+      <c r="D97" t="s">
         <v>218</v>
       </c>
-      <c r="D97" t="s">
-        <v>219</v>
-      </c>
       <c r="E97" t="s">
-        <v>220</v>
+        <v>35</v>
       </c>
       <c r="F97">
-        <v>91</v>
+        <v>51</v>
       </c>
       <c r="G97">
-        <v>4167</v>
+        <v>4738</v>
       </c>
       <c r="H97">
-        <v>11402</v>
+        <v>15056</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -3928,25 +3934,25 @@
         <v>3</v>
       </c>
       <c r="B98">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D98" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F98">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G98">
-        <v>5208</v>
+        <v>4686</v>
       </c>
       <c r="H98">
-        <v>12511</v>
+        <v>11767</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -3957,25 +3963,25 @@
         <v>3</v>
       </c>
       <c r="B99">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D99" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E99" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F99">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G99">
-        <v>4738</v>
+        <v>4599</v>
       </c>
       <c r="H99">
-        <v>15056</v>
+        <v>8351</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -3986,25 +3992,25 @@
         <v>3</v>
       </c>
       <c r="B100">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>226</v>
+        <v>112</v>
       </c>
       <c r="E100" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F100">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="G100">
-        <v>4975</v>
+        <v>3898</v>
       </c>
       <c r="H100">
-        <v>14509</v>
+        <v>25423</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -4015,25 +4021,25 @@
         <v>3</v>
       </c>
       <c r="B101">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>150</v>
+        <v>224</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>225</v>
       </c>
       <c r="E101" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="F101">
-        <v>80</v>
+        <v>29</v>
       </c>
       <c r="G101">
-        <v>4308</v>
+        <v>5149</v>
       </c>
       <c r="H101">
-        <v>10587</v>
+        <v>22688</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -4044,25 +4050,25 @@
         <v>3</v>
       </c>
       <c r="B102">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C102" t="s">
+        <v>226</v>
+      </c>
+      <c r="D102" t="s">
         <v>227</v>
       </c>
-      <c r="D102" t="s">
-        <v>228</v>
-      </c>
       <c r="E102" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F102">
-        <v>17</v>
+        <v>92</v>
       </c>
       <c r="G102">
-        <v>5325</v>
+        <v>4124</v>
       </c>
       <c r="H102">
-        <v>16491</v>
+        <v>22993</v>
       </c>
       <c r="I102">
         <v>2</v>
@@ -4073,28 +4079,28 @@
         <v>3</v>
       </c>
       <c r="B103">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C103" t="s">
+        <v>228</v>
+      </c>
+      <c r="D103" t="s">
         <v>229</v>
       </c>
-      <c r="D103" t="s">
-        <v>230</v>
-      </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F103">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G103">
-        <v>4849</v>
+        <v>4673</v>
       </c>
       <c r="H103">
-        <v>8188</v>
+        <v>8581</v>
       </c>
       <c r="I103">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4102,28 +4108,28 @@
         <v>3</v>
       </c>
       <c r="B104">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>85</v>
+        <v>230</v>
       </c>
       <c r="D104" t="s">
         <v>231</v>
       </c>
       <c r="E104" t="s">
-        <v>58</v>
+        <v>86</v>
       </c>
       <c r="F104">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="G104">
-        <v>5820</v>
+        <v>3664</v>
       </c>
       <c r="H104">
-        <v>12305</v>
+        <v>21437</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4131,7 +4137,7 @@
         <v>3</v>
       </c>
       <c r="B105">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C105" t="s">
         <v>232</v>
@@ -4140,16 +4146,16 @@
         <v>233</v>
       </c>
       <c r="E105" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F105">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G105">
-        <v>4208</v>
+        <v>4540</v>
       </c>
       <c r="H105">
-        <v>11467</v>
+        <v>14406</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -4160,7 +4166,7 @@
         <v>3</v>
       </c>
       <c r="B106">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C106" t="s">
         <v>234</v>
@@ -4169,16 +4175,16 @@
         <v>235</v>
       </c>
       <c r="E106" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="F106">
-        <v>107</v>
+        <v>10</v>
       </c>
       <c r="G106">
-        <v>3246</v>
+        <v>5473</v>
       </c>
       <c r="H106">
-        <v>7719</v>
+        <v>16905</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -4189,7 +4195,7 @@
         <v>3</v>
       </c>
       <c r="B107">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C107" t="s">
         <v>236</v>
@@ -4198,16 +4204,16 @@
         <v>237</v>
       </c>
       <c r="E107" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="F107">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="G107">
-        <v>5544</v>
+        <v>3246</v>
       </c>
       <c r="H107">
-        <v>7562</v>
+        <v>7719</v>
       </c>
       <c r="I107">
         <v>3</v>
@@ -4218,25 +4224,25 @@
         <v>3</v>
       </c>
       <c r="B108">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C108" t="s">
         <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>239</v>
+        <v>207</v>
       </c>
       <c r="E108" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F108">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="G108">
-        <v>4812</v>
+        <v>4295</v>
       </c>
       <c r="H108">
-        <v>10551</v>
+        <v>14853</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -4247,25 +4253,25 @@
         <v>3</v>
       </c>
       <c r="B109">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C109" t="s">
+        <v>239</v>
+      </c>
+      <c r="D109" t="s">
         <v>240</v>
       </c>
-      <c r="D109" t="s">
-        <v>241</v>
-      </c>
       <c r="E109" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F109">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G109">
-        <v>4667</v>
+        <v>5319</v>
       </c>
       <c r="H109">
-        <v>17414</v>
+        <v>7403</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -4276,25 +4282,25 @@
         <v>3</v>
       </c>
       <c r="B110">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>156</v>
+        <v>241</v>
       </c>
       <c r="D110" t="s">
         <v>242</v>
       </c>
       <c r="E110" t="s">
-        <v>17</v>
+        <v>243</v>
       </c>
       <c r="F110">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G110">
-        <v>5661</v>
+        <v>4905</v>
       </c>
       <c r="H110">
-        <v>12187</v>
+        <v>13483</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -4305,25 +4311,25 @@
         <v>3</v>
       </c>
       <c r="B111">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>243</v>
+        <v>57</v>
       </c>
       <c r="D111" t="s">
         <v>244</v>
       </c>
       <c r="E111" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F111">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="G111">
-        <v>4353</v>
+        <v>5661</v>
       </c>
       <c r="H111">
-        <v>19153</v>
+        <v>12187</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -4334,7 +4340,7 @@
         <v>3</v>
       </c>
       <c r="B112">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C112" t="s">
         <v>245</v>
@@ -4343,16 +4349,16 @@
         <v>246</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F112">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="G112">
-        <v>4434</v>
+        <v>5175</v>
       </c>
       <c r="H112">
-        <v>9942</v>
+        <v>10248</v>
       </c>
       <c r="I112">
         <v>3</v>
@@ -4363,7 +4369,7 @@
         <v>3</v>
       </c>
       <c r="B113">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C113" t="s">
         <v>247</v>
@@ -4372,16 +4378,16 @@
         <v>248</v>
       </c>
       <c r="E113" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F113">
-        <v>105</v>
+        <v>48</v>
       </c>
       <c r="G113">
-        <v>3358</v>
+        <v>4812</v>
       </c>
       <c r="H113">
-        <v>7199</v>
+        <v>10551</v>
       </c>
       <c r="I113">
         <v>3</v>
@@ -4392,7 +4398,7 @@
         <v>3</v>
       </c>
       <c r="B114">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C114" t="s">
         <v>249</v>
@@ -4401,16 +4407,16 @@
         <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F114">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="G114">
-        <v>4488</v>
+        <v>4208</v>
       </c>
       <c r="H114">
-        <v>23855</v>
+        <v>11467</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -4421,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="B115">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C115" t="s">
         <v>251</v>
@@ -4430,7 +4436,7 @@
         <v>252</v>
       </c>
       <c r="E115" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F115">
         <v>67</v>
@@ -4442,6 +4448,35 @@
         <v>18766</v>
       </c>
       <c r="I115">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116">
+        <v>3</v>
+      </c>
+      <c r="B116">
+        <v>37</v>
+      </c>
+      <c r="C116" t="s">
+        <v>253</v>
+      </c>
+      <c r="D116" t="s">
+        <v>254</v>
+      </c>
+      <c r="E116" t="s">
+        <v>26</v>
+      </c>
+      <c r="F116">
+        <v>38</v>
+      </c>
+      <c r="G116">
+        <v>4988</v>
+      </c>
+      <c r="H116">
+        <v>13255</v>
+      </c>
+      <c r="I116">
         <v>3</v>
       </c>
     </row>

--- a/startlists.xlsx
+++ b/startlists.xlsx
@@ -43,13 +43,538 @@
     <t>StartGrp</t>
   </si>
   <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Hajek</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Hubmann</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>Artem</t>
+  </si>
+  <si>
+    <t>Popov</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Frederic</t>
+  </si>
+  <si>
+    <t>Tranchand</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Nitsan</t>
+  </si>
+  <si>
+    <t>Yasur</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Gernot</t>
+  </si>
+  <si>
+    <t>Kerschbaumer</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Nogueira</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Scalet</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>McLeod</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Hodkinson</t>
+  </si>
+  <si>
+    <t>Mantas</t>
+  </si>
+  <si>
+    <t>Martinkus</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>Laukkarinen</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Salmenkyla</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Coupat</t>
+  </si>
+  <si>
+    <t>Jon Aukrust</t>
+  </si>
+  <si>
+    <t>Osmoen</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Vojtech</t>
+  </si>
+  <si>
+    <t>Sykora</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Merl</t>
+  </si>
+  <si>
+    <t>Miika</t>
+  </si>
+  <si>
+    <t>Kirmula</t>
+  </si>
+  <si>
+    <t>Warre</t>
+  </si>
+  <si>
+    <t>De Cuyper</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Uldis</t>
+  </si>
+  <si>
+    <t>Upitis</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Rueedlinger</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Jonsson</t>
+  </si>
+  <si>
+    <t>Max Peter</t>
+  </si>
+  <si>
+    <t>Bejmer</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Bloemen</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Bergman</t>
+  </si>
+  <si>
+    <t>Alexandru</t>
+  </si>
+  <si>
+    <t>Blejdea</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Spaeth</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Andris</t>
+  </si>
+  <si>
+    <t>Jubelis</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Kivikas</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Goericke</t>
+  </si>
+  <si>
+    <t>Apostol</t>
+  </si>
+  <si>
+    <t>Atanasov</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Caraglio</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Ciobanu</t>
+  </si>
+  <si>
+    <t>Eduardo</t>
+  </si>
+  <si>
+    <t>Gil Marcos</t>
+  </si>
+  <si>
+    <t>Ivaylo</t>
+  </si>
+  <si>
+    <t>Kamenarov</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Dewett</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Minar</t>
+  </si>
+  <si>
+    <t>Andreas Hougaard</t>
+  </si>
+  <si>
+    <t>Boesen</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Saetalu</t>
+  </si>
+  <si>
+    <t>Alessio</t>
+  </si>
+  <si>
+    <t>Tenani</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Borjeskog</t>
+  </si>
+  <si>
     <t>Oystein</t>
   </si>
   <si>
     <t>Kvaal Osterbo</t>
   </si>
   <si>
-    <t>NOR</t>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Delenne</t>
+  </si>
+  <si>
+    <t>Endijs</t>
+  </si>
+  <si>
+    <t>Titomers</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Parfianowicz</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Sebastian Ken</t>
+  </si>
+  <si>
+    <t>Baumann</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Wannes</t>
+  </si>
+  <si>
+    <t>Hendrickx</t>
+  </si>
+  <si>
+    <t>George Emilian</t>
+  </si>
+  <si>
+    <t>Minoiu</t>
+  </si>
+  <si>
+    <t>Bjarne</t>
+  </si>
+  <si>
+    <t>Friedrichs</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Sirakov</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Prunsche</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Rauturier</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Kacmaz</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Itay</t>
+  </si>
+  <si>
+    <t>Manor</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Martinez Perez</t>
+  </si>
+  <si>
+    <t>Dmitrii</t>
+  </si>
+  <si>
+    <t>Poliakov</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Leandersson</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Yordanov</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Kubelka</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Smithard</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>McNulty</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Dislers</t>
+  </si>
+  <si>
+    <t>Jonas Vytautas</t>
+  </si>
+  <si>
+    <t>Gvildys</t>
+  </si>
+  <si>
+    <t>Aleksi</t>
+  </si>
+  <si>
+    <t>Niemi</t>
+  </si>
+  <si>
+    <t>Mattia</t>
+  </si>
+  <si>
+    <t>Debertolis</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Yannick</t>
+  </si>
+  <si>
+    <t>Michiels</t>
+  </si>
+  <si>
+    <t>Trond Einar</t>
+  </si>
+  <si>
+    <t>Moen Pedersli</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Kyburz</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Howald</t>
+  </si>
+  <si>
+    <t>Giacomo</t>
+  </si>
+  <si>
+    <t>Barbone</t>
+  </si>
+  <si>
+    <t>Topi</t>
+  </si>
+  <si>
+    <t>Raitanen</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Regborn</t>
   </si>
   <si>
     <t>Gheorghe</t>
@@ -61,22 +586,28 @@
     <t>MDA</t>
   </si>
   <si>
+    <t>Morten</t>
+  </si>
+  <si>
+    <t>Jorgensen</t>
+  </si>
+  <si>
     <t>Otto</t>
   </si>
   <si>
     <t>Simosas</t>
   </si>
   <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Mantas</t>
-  </si>
-  <si>
-    <t>Martinkus</t>
-  </si>
-  <si>
-    <t>LTU</t>
+    <t>Dimitar</t>
+  </si>
+  <si>
+    <t>Zhelyazkov</t>
+  </si>
+  <si>
+    <t>Wouter</t>
+  </si>
+  <si>
+    <t>Hus</t>
   </si>
   <si>
     <t>Philipp</t>
@@ -85,79 +616,46 @@
     <t>Mueller</t>
   </si>
   <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Nogueira</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>Piotr</t>
-  </si>
-  <si>
-    <t>Parfianowicz</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>Andris</t>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>Hirvikallio</t>
+  </si>
+  <si>
+    <t>Hakon</t>
+  </si>
+  <si>
+    <t>Jarvis Westergard</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Hadorn</t>
   </si>
   <si>
     <t>Kivlenieks</t>
   </si>
   <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Popov</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>Marek</t>
-  </si>
-  <si>
-    <t>Minar</t>
-  </si>
-  <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>Adrien</t>
-  </si>
-  <si>
-    <t>Delenne</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>Dimitar</t>
-  </si>
-  <si>
-    <t>Zhelyazkov</t>
-  </si>
-  <si>
-    <t>BUL</t>
-  </si>
-  <si>
-    <t>Andreas Hougaard</t>
-  </si>
-  <si>
-    <t>Boesen</t>
-  </si>
-  <si>
-    <t>DEN</t>
+    <t>Teodor</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Doellgast</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Chepelin</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Inderst</t>
   </si>
   <si>
     <t>Joao Mega</t>
@@ -169,58 +667,16 @@
     <t>POR</t>
   </si>
   <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Smithard</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Merl</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>Vojtech</t>
-  </si>
-  <si>
-    <t>Sykora</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Martinez Perez</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>Rueedlinger</t>
-  </si>
-  <si>
-    <t>SUI</t>
-  </si>
-  <si>
-    <t>Christoph</t>
-  </si>
-  <si>
-    <t>Prunsche</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Leandersson</t>
-  </si>
-  <si>
-    <t>SWE</t>
+    <t>Bogya</t>
+  </si>
+  <si>
+    <t>Tamas</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Dallavalle</t>
   </si>
   <si>
     <t>Sergei</t>
@@ -229,43 +685,67 @@
     <t>Rjabyshkin</t>
   </si>
   <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Dallavalle</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>Rauturier</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Sirakov</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>Kyburz</t>
-  </si>
-  <si>
-    <t>Jubelis</t>
-  </si>
-  <si>
-    <t>Gustav</t>
-  </si>
-  <si>
-    <t>Bergman</t>
+    <t>Arturs</t>
+  </si>
+  <si>
+    <t>Paulins</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>Khramov</t>
+  </si>
+  <si>
+    <t>Algirdas</t>
+  </si>
+  <si>
+    <t>Bartkevicius</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Edsen</t>
+  </si>
+  <si>
+    <t>Kasper</t>
+  </si>
+  <si>
+    <t>Fosser</t>
+  </si>
+  <si>
+    <t>Kristo</t>
+  </si>
+  <si>
+    <t>Heinmann</t>
+  </si>
+  <si>
+    <t>Loic</t>
+  </si>
+  <si>
+    <t>Capbern</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>Tsvetkov</t>
+  </si>
+  <si>
+    <t>Kral</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Basset</t>
   </si>
   <si>
     <t>Asaf</t>
@@ -274,511 +754,31 @@
     <t>Avner</t>
   </si>
   <si>
-    <t>ISR</t>
-  </si>
-  <si>
-    <t>Dmitry</t>
-  </si>
-  <si>
-    <t>Tsvetkov</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Ciobanu</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>Kasper</t>
-  </si>
-  <si>
-    <t>Fosser</t>
-  </si>
-  <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Bloemen</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>Giacomo</t>
-  </si>
-  <si>
-    <t>Barbone</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Michele</t>
-  </si>
-  <si>
-    <t>Caraglio</t>
+    <t>Andreu</t>
+  </si>
+  <si>
+    <t>Blanes</t>
   </si>
   <si>
     <t>Reiner</t>
   </si>
   <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Yannick</t>
-  </si>
-  <si>
-    <t>Michiels</t>
-  </si>
-  <si>
-    <t>Topi</t>
-  </si>
-  <si>
-    <t>Raitanen</t>
-  </si>
-  <si>
-    <t>Alasdair</t>
-  </si>
-  <si>
-    <t>McLeod</t>
-  </si>
-  <si>
-    <t>Teodor</t>
-  </si>
-  <si>
-    <t>Yordanov</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Saetalu</t>
-  </si>
-  <si>
-    <t>Sebastian Ken</t>
-  </si>
-  <si>
-    <t>Baumann</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>Gernot</t>
-  </si>
-  <si>
-    <t>Kerschbaumer</t>
-  </si>
-  <si>
-    <t>Endijs</t>
-  </si>
-  <si>
-    <t>Titomers</t>
-  </si>
-  <si>
-    <t>Joni</t>
-  </si>
-  <si>
-    <t>Hirvikallio</t>
-  </si>
-  <si>
-    <t>Florian</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Nitsan</t>
-  </si>
-  <si>
-    <t>Yasur</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Borjeskog</t>
-  </si>
-  <si>
-    <t>Frederic</t>
-  </si>
-  <si>
-    <t>Tranchand</t>
-  </si>
-  <si>
-    <t>Wannes</t>
-  </si>
-  <si>
-    <t>Hendrickx</t>
-  </si>
-  <si>
-    <t>Algirdas</t>
-  </si>
-  <si>
-    <t>Bartkevicius</t>
-  </si>
-  <si>
-    <t>Arturs</t>
-  </si>
-  <si>
-    <t>Paulins</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Inderst</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Jonsson</t>
-  </si>
-  <si>
-    <t>Warre</t>
-  </si>
-  <si>
-    <t>De Cuyper</t>
-  </si>
-  <si>
-    <t>Bogya</t>
-  </si>
-  <si>
-    <t>Tamas</t>
-  </si>
-  <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>Khramov</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Salmenkyla</t>
-  </si>
-  <si>
-    <t>Tomas</t>
-  </si>
-  <si>
-    <t>Kubelka</t>
-  </si>
-  <si>
-    <t>Max Peter</t>
-  </si>
-  <si>
-    <t>Bejmer</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Kacmaz</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>Daniel</t>
-  </si>
-  <si>
-    <t>Hubmann</t>
-  </si>
-  <si>
-    <t>Kristian</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Magnus</t>
-  </si>
-  <si>
-    <t>Dewett</t>
-  </si>
-  <si>
-    <t>Apostol</t>
-  </si>
-  <si>
-    <t>Atanasov</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Spaeth</t>
-  </si>
-  <si>
-    <t>Loic</t>
-  </si>
-  <si>
-    <t>Capbern</t>
-  </si>
-  <si>
-    <t>Andreu</t>
-  </si>
-  <si>
-    <t>Blanes</t>
-  </si>
-  <si>
-    <t>Aleksi</t>
-  </si>
-  <si>
-    <t>Niemi</t>
-  </si>
-  <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Kivikas</t>
-  </si>
-  <si>
-    <t>Trond Einar</t>
-  </si>
-  <si>
-    <t>Moen Pedersli</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Goericke</t>
-  </si>
-  <si>
-    <t>Howald</t>
-  </si>
-  <si>
-    <t>Mattia</t>
-  </si>
-  <si>
-    <t>Debertolis</t>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>Olejnik</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Svensk</t>
   </si>
   <si>
     <t>Milos</t>
   </si>
   <si>
     <t>Nykodym</t>
-  </si>
-  <si>
-    <t>Hajek</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>Hadorn</t>
-  </si>
-  <si>
-    <t>Bjarne</t>
-  </si>
-  <si>
-    <t>Friedrichs</t>
-  </si>
-  <si>
-    <t>George Emilian</t>
-  </si>
-  <si>
-    <t>Minoiu</t>
-  </si>
-  <si>
-    <t>Hakon</t>
-  </si>
-  <si>
-    <t>Jarvis Westergard</t>
-  </si>
-  <si>
-    <t>Wouter</t>
-  </si>
-  <si>
-    <t>Hus</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Alessio</t>
-  </si>
-  <si>
-    <t>Tenani</t>
-  </si>
-  <si>
-    <t>Morten</t>
-  </si>
-  <si>
-    <t>Jorgensen</t>
-  </si>
-  <si>
-    <t>Regborn</t>
-  </si>
-  <si>
-    <t>Riccardo</t>
-  </si>
-  <si>
-    <t>Scalet</t>
-  </si>
-  <si>
-    <t>Artem</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Hodkinson</t>
-  </si>
-  <si>
-    <t>Moritz</t>
-  </si>
-  <si>
-    <t>Doellgast</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>Laukkarinen</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Jon Aukrust</t>
-  </si>
-  <si>
-    <t>Osmoen</t>
-  </si>
-  <si>
-    <t>Dmitrii</t>
-  </si>
-  <si>
-    <t>Poliakov</t>
-  </si>
-  <si>
-    <t>Miika</t>
-  </si>
-  <si>
-    <t>Kirmula</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Chepelin</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Jakob</t>
-  </si>
-  <si>
-    <t>Edsen</t>
-  </si>
-  <si>
-    <t>Uldis</t>
-  </si>
-  <si>
-    <t>Upitis</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Coupat</t>
-  </si>
-  <si>
-    <t>Itay</t>
-  </si>
-  <si>
-    <t>Manor</t>
-  </si>
-  <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>Olejnik</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>Svensk</t>
-  </si>
-  <si>
-    <t>Alexandru</t>
-  </si>
-  <si>
-    <t>Blejdea</t>
-  </si>
-  <si>
-    <t>Mathias</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Basset</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>McNulty</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>Kral</t>
-  </si>
-  <si>
-    <t>Jonas Vytautas</t>
-  </si>
-  <si>
-    <t>Gvildys</t>
-  </si>
-  <si>
-    <t>Kristo</t>
-  </si>
-  <si>
-    <t>Heinmann</t>
-  </si>
-  <si>
-    <t>Ivaylo</t>
-  </si>
-  <si>
-    <t>Kamenarov</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Dislers</t>
-  </si>
-  <si>
-    <t>Eduardo</t>
-  </si>
-  <si>
-    <t>Gil Marcos</t>
   </si>
 </sst>
 </file>
@@ -1162,13 +1162,13 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="G2">
-        <v>5249</v>
+        <v>4353</v>
       </c>
       <c r="H2">
-        <v>18660</v>
+        <v>10320</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1191,13 +1191,13 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>111</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>1654</v>
+        <v>5400</v>
       </c>
       <c r="H3">
-        <v>9342</v>
+        <v>10851</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1220,13 +1220,13 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G4">
-        <v>5077</v>
+        <v>5464</v>
       </c>
       <c r="H4">
-        <v>16342</v>
+        <v>15525</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1249,13 +1249,13 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="G5">
-        <v>1000</v>
+        <v>5069</v>
       </c>
       <c r="H5">
-        <v>24197</v>
+        <v>15086</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1278,13 +1278,13 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>105</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>3524</v>
+        <v>5673</v>
       </c>
       <c r="H6">
-        <v>13978</v>
+        <v>17348</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1307,13 +1307,13 @@
         <v>26</v>
       </c>
       <c r="F7">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="G7">
-        <v>3980</v>
+        <v>4295</v>
       </c>
       <c r="H7">
-        <v>13880</v>
+        <v>20182</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1336,13 +1336,13 @@
         <v>29</v>
       </c>
       <c r="F8">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G8">
-        <v>5177</v>
+        <v>5131</v>
       </c>
       <c r="H8">
-        <v>14642</v>
+        <v>11671</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1365,13 +1365,13 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="G9">
-        <v>4690</v>
+        <v>3980</v>
       </c>
       <c r="H9">
-        <v>11786</v>
+        <v>13880</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1394,13 +1394,13 @@
         <v>35</v>
       </c>
       <c r="F10">
-        <v>85</v>
+        <v>31</v>
       </c>
       <c r="G10">
-        <v>4265</v>
+        <v>5092</v>
       </c>
       <c r="H10">
-        <v>22153</v>
+        <v>18966</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1423,13 +1423,13 @@
         <v>38</v>
       </c>
       <c r="F11">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="G11">
-        <v>4623</v>
+        <v>4736</v>
       </c>
       <c r="H11">
-        <v>20166</v>
+        <v>13474</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -1446,19 +1446,19 @@
         <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="F12">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="G12">
-        <v>4956</v>
+        <v>4265</v>
       </c>
       <c r="H12">
-        <v>19918</v>
+        <v>22153</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -1472,22 +1472,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F13">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="G13">
-        <v>4066</v>
+        <v>5272</v>
       </c>
       <c r="H13">
-        <v>24809</v>
+        <v>10688</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1501,22 +1501,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F14">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="G14">
-        <v>5154</v>
+        <v>1000</v>
       </c>
       <c r="H14">
-        <v>7760</v>
+        <v>24197</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -1530,22 +1530,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F15">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="G15">
-        <v>4399</v>
+        <v>5641</v>
       </c>
       <c r="H15">
-        <v>9450</v>
+        <v>10849</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1559,22 +1559,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="F16">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G16">
-        <v>5325</v>
+        <v>5208</v>
       </c>
       <c r="H16">
-        <v>16491</v>
+        <v>12511</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -1588,22 +1588,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F17">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="G17">
-        <v>5166</v>
+        <v>1968</v>
       </c>
       <c r="H17">
-        <v>13549</v>
+        <v>25115</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1617,22 +1617,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G18">
-        <v>4534</v>
+        <v>4673</v>
       </c>
       <c r="H18">
-        <v>25347</v>
+        <v>8581</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -1646,22 +1646,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="F19">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="G19">
-        <v>5379</v>
+        <v>4975</v>
       </c>
       <c r="H19">
-        <v>13326</v>
+        <v>14509</v>
       </c>
       <c r="I19">
         <v>2</v>
@@ -1675,22 +1675,22 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
-        <v>63</v>
+        <v>11</v>
       </c>
       <c r="F20">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G20">
-        <v>4913</v>
+        <v>4534</v>
       </c>
       <c r="H20">
-        <v>15729</v>
+        <v>25347</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -1704,22 +1704,22 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F21">
-        <v>88</v>
+        <v>27</v>
       </c>
       <c r="G21">
-        <v>4213</v>
+        <v>5166</v>
       </c>
       <c r="H21">
-        <v>15207</v>
+        <v>13549</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1733,22 +1733,22 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="F22">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="G22">
-        <v>5433</v>
+        <v>4686</v>
       </c>
       <c r="H22">
-        <v>12555</v>
+        <v>11767</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -1762,22 +1762,22 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="F23">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="G23">
-        <v>4324</v>
+        <v>3780</v>
       </c>
       <c r="H23">
-        <v>15512</v>
+        <v>28066</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -1791,22 +1791,22 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="F24">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="G24">
-        <v>4265</v>
+        <v>4124</v>
       </c>
       <c r="H24">
-        <v>8680</v>
+        <v>22993</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -1820,22 +1820,22 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="F25">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="G25">
-        <v>4586</v>
+        <v>4913</v>
       </c>
       <c r="H25">
-        <v>20655</v>
+        <v>15729</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1849,22 +1849,22 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="D26" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F26">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="G26">
-        <v>4733</v>
+        <v>4526</v>
       </c>
       <c r="H26">
-        <v>16365</v>
+        <v>23864</v>
       </c>
       <c r="I26">
         <v>2</v>
@@ -1878,25 +1878,25 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="G27">
-        <v>5820</v>
+        <v>4840</v>
       </c>
       <c r="H27">
-        <v>12305</v>
+        <v>7466</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1907,22 +1907,22 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="D28" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E28" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="F28">
-        <v>50</v>
+        <v>115</v>
       </c>
       <c r="G28">
-        <v>4756</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>11329</v>
+        <v>7724</v>
       </c>
       <c r="I28">
         <v>3</v>
@@ -1936,13 +1936,13 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F29">
         <v>7</v>
@@ -1965,22 +1965,22 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F30">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G30">
-        <v>3358</v>
+        <v>3246</v>
       </c>
       <c r="H30">
-        <v>7199</v>
+        <v>7719</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1994,22 +1994,22 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="F31">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G31">
-        <v>4667</v>
+        <v>4560</v>
       </c>
       <c r="H31">
-        <v>17414</v>
+        <v>16618</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -2023,22 +2023,22 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D32" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E32" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="F32">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="G32">
-        <v>4304</v>
+        <v>4756</v>
       </c>
       <c r="H32">
-        <v>8458</v>
+        <v>11329</v>
       </c>
       <c r="I32">
         <v>3</v>
@@ -2052,22 +2052,22 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F33">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="G33">
-        <v>4488</v>
+        <v>5329</v>
       </c>
       <c r="H33">
-        <v>23855</v>
+        <v>11784</v>
       </c>
       <c r="I33">
         <v>3</v>
@@ -2081,22 +2081,22 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="F34">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>4434</v>
       </c>
       <c r="H34">
-        <v>7724</v>
+        <v>9942</v>
       </c>
       <c r="I34">
         <v>3</v>
@@ -2110,22 +2110,22 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="F35">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G35">
-        <v>3687</v>
+        <v>3600</v>
       </c>
       <c r="H35">
-        <v>7345</v>
+        <v>7164</v>
       </c>
       <c r="I35">
         <v>3</v>
@@ -2139,13 +2139,13 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
       <c r="F36">
         <v>97</v>
@@ -2168,22 +2168,22 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E37" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="F37">
-        <v>39</v>
+        <v>81</v>
       </c>
       <c r="G37">
-        <v>4975</v>
+        <v>4304</v>
       </c>
       <c r="H37">
-        <v>15405</v>
+        <v>8458</v>
       </c>
       <c r="I37">
         <v>3</v>
@@ -2197,22 +2197,22 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="F38">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G38">
-        <v>4993</v>
+        <v>4988</v>
       </c>
       <c r="H38">
-        <v>16782</v>
+        <v>13255</v>
       </c>
       <c r="I38">
         <v>3</v>
@@ -2226,22 +2226,22 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F39">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="G39">
-        <v>5620</v>
+        <v>4208</v>
       </c>
       <c r="H39">
-        <v>13592</v>
+        <v>11467</v>
       </c>
       <c r="I39">
         <v>3</v>
@@ -2255,22 +2255,22 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E40" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="F40">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="G40">
-        <v>4848</v>
+        <v>4653</v>
       </c>
       <c r="H40">
-        <v>15299</v>
+        <v>8831</v>
       </c>
       <c r="I40">
         <v>3</v>
@@ -2284,22 +2284,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E41" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="F41">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G41">
-        <v>4736</v>
+        <v>4623</v>
       </c>
       <c r="H41">
-        <v>13474</v>
+        <v>20166</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -2313,22 +2313,22 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="F42">
-        <v>94</v>
+        <v>28</v>
       </c>
       <c r="G42">
-        <v>4030</v>
+        <v>5154</v>
       </c>
       <c r="H42">
-        <v>18286</v>
+        <v>7760</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -2342,13 +2342,13 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E43" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="F43">
         <v>107</v>
@@ -2371,22 +2371,22 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>35</v>
       </c>
       <c r="F44">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="G44">
-        <v>4216</v>
+        <v>4422</v>
       </c>
       <c r="H44">
-        <v>25943</v>
+        <v>17146</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -2400,22 +2400,22 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>74</v>
       </c>
       <c r="F45">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="G45">
-        <v>5464</v>
+        <v>4992</v>
       </c>
       <c r="H45">
-        <v>15525</v>
+        <v>8136</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -2429,22 +2429,22 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F46">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G46">
-        <v>5131</v>
+        <v>5249</v>
       </c>
       <c r="H46">
-        <v>11671</v>
+        <v>18660</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -2458,22 +2458,22 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D47" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F47">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="G47">
-        <v>4322</v>
+        <v>4956</v>
       </c>
       <c r="H47">
-        <v>19137</v>
+        <v>19918</v>
       </c>
       <c r="I47">
         <v>1</v>
@@ -2487,22 +2487,22 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D48" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E48" t="s">
-        <v>17</v>
+        <v>67</v>
       </c>
       <c r="F48">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="G48">
-        <v>4532</v>
+        <v>4322</v>
       </c>
       <c r="H48">
-        <v>10663</v>
+        <v>19137</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -2516,22 +2516,22 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E49" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
       <c r="F49">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="G49">
-        <v>5020</v>
+        <v>5177</v>
       </c>
       <c r="H49">
-        <v>15991</v>
+        <v>14642</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -2545,22 +2545,22 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D50" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E50" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="F50">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="G50">
-        <v>4295</v>
+        <v>4216</v>
       </c>
       <c r="H50">
-        <v>20182</v>
+        <v>25943</v>
       </c>
       <c r="I50">
         <v>1</v>
@@ -2574,22 +2574,22 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D51" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F51">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="G51">
-        <v>4992</v>
+        <v>1000</v>
       </c>
       <c r="H51">
-        <v>8136</v>
+        <v>10588</v>
       </c>
       <c r="I51">
         <v>1</v>
@@ -2603,22 +2603,22 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="F52">
-        <v>3</v>
+        <v>109</v>
       </c>
       <c r="G52">
-        <v>5673</v>
+        <v>3227</v>
       </c>
       <c r="H52">
-        <v>17348</v>
+        <v>27308</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -2632,22 +2632,22 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D53" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
+        <v>84</v>
+      </c>
+      <c r="F53">
         <v>96</v>
       </c>
-      <c r="F53">
-        <v>112</v>
-      </c>
       <c r="G53">
-        <v>1000</v>
+        <v>3952</v>
       </c>
       <c r="H53">
-        <v>10588</v>
+        <v>9624</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -2661,22 +2661,22 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D54" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E54" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="F54">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G54">
-        <v>4812</v>
+        <v>4733</v>
       </c>
       <c r="H54">
-        <v>18826</v>
+        <v>16365</v>
       </c>
       <c r="I54">
         <v>2</v>
@@ -2690,22 +2690,22 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D55" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E55" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F55">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="G55">
-        <v>4952</v>
+        <v>4482</v>
       </c>
       <c r="H55">
-        <v>14704</v>
+        <v>22452</v>
       </c>
       <c r="I55">
         <v>2</v>
@@ -2719,22 +2719,22 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F56">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G56">
-        <v>4202</v>
+        <v>4213</v>
       </c>
       <c r="H56">
-        <v>11008</v>
+        <v>15207</v>
       </c>
       <c r="I56">
         <v>2</v>
@@ -2748,22 +2748,22 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D57" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F57">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G57">
-        <v>4526</v>
+        <v>4586</v>
       </c>
       <c r="H57">
-        <v>23864</v>
+        <v>20655</v>
       </c>
       <c r="I57">
         <v>2</v>
@@ -2777,22 +2777,22 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D58" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E58" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="F58">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G58">
-        <v>3780</v>
+        <v>4167</v>
       </c>
       <c r="H58">
-        <v>28066</v>
+        <v>11402</v>
       </c>
       <c r="I58">
         <v>2</v>
@@ -2806,22 +2806,22 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E59" t="s">
-        <v>91</v>
+        <v>26</v>
       </c>
       <c r="F59">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G59">
-        <v>3808</v>
+        <v>3664</v>
       </c>
       <c r="H59">
-        <v>7771</v>
+        <v>21437</v>
       </c>
       <c r="I59">
         <v>2</v>
@@ -2835,22 +2835,22 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D60" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F60">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="G60">
-        <v>5196</v>
+        <v>5379</v>
       </c>
       <c r="H60">
-        <v>11718</v>
+        <v>13326</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -2864,22 +2864,22 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D61" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>20</v>
       </c>
       <c r="F61">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="G61">
-        <v>1968</v>
+        <v>4738</v>
       </c>
       <c r="H61">
-        <v>25115</v>
+        <v>15056</v>
       </c>
       <c r="I61">
         <v>2</v>
@@ -2893,22 +2893,22 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D62" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="F62">
-        <v>58</v>
+        <v>12</v>
       </c>
       <c r="G62">
-        <v>4680</v>
+        <v>5433</v>
       </c>
       <c r="H62">
-        <v>19046</v>
+        <v>12555</v>
       </c>
       <c r="I62">
         <v>2</v>
@@ -2922,22 +2922,22 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D63" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="F63">
-        <v>47</v>
+        <v>98</v>
       </c>
       <c r="G63">
-        <v>4840</v>
+        <v>3898</v>
       </c>
       <c r="H63">
-        <v>7466</v>
+        <v>25423</v>
       </c>
       <c r="I63">
         <v>2</v>
@@ -2951,22 +2951,22 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D64" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E64" t="s">
-        <v>159</v>
+        <v>11</v>
       </c>
       <c r="F64">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="G64">
-        <v>4167</v>
+        <v>4680</v>
       </c>
       <c r="H64">
-        <v>11402</v>
+        <v>19046</v>
       </c>
       <c r="I64">
         <v>2</v>
@@ -2980,22 +2980,22 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D65" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E65" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="F65">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="G65">
-        <v>5641</v>
+        <v>5325</v>
       </c>
       <c r="H65">
-        <v>10849</v>
+        <v>16491</v>
       </c>
       <c r="I65">
         <v>2</v>
@@ -3009,22 +3009,22 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E66" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="F66">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="G66">
-        <v>5170</v>
+        <v>4905</v>
       </c>
       <c r="H66">
-        <v>11299</v>
+        <v>13483</v>
       </c>
       <c r="I66">
         <v>3</v>
@@ -3038,22 +3038,22 @@
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E67" t="s">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="F67">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="G67">
-        <v>4653</v>
+        <v>4538</v>
       </c>
       <c r="H67">
-        <v>8831</v>
+        <v>18766</v>
       </c>
       <c r="I67">
         <v>3</v>
@@ -3067,22 +3067,22 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D68" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E68" t="s">
         <v>44</v>
       </c>
       <c r="F68">
-        <v>104</v>
+        <v>25</v>
       </c>
       <c r="G68">
-        <v>3600</v>
+        <v>5175</v>
       </c>
       <c r="H68">
-        <v>7164</v>
+        <v>10248</v>
       </c>
       <c r="I68">
         <v>3</v>
@@ -3096,22 +3096,22 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D69" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E69" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="F69">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="G69">
-        <v>4560</v>
+        <v>5076</v>
       </c>
       <c r="H69">
-        <v>16618</v>
+        <v>18700</v>
       </c>
       <c r="I69">
         <v>3</v>
@@ -3125,22 +3125,22 @@
         <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F70">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="G70">
-        <v>4849</v>
+        <v>4353</v>
       </c>
       <c r="H70">
-        <v>8188</v>
+        <v>19153</v>
       </c>
       <c r="I70">
         <v>3</v>
@@ -3154,22 +3154,22 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D71" t="s">
-        <v>173</v>
+        <v>40</v>
       </c>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F71">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="G71">
-        <v>5356</v>
+        <v>4295</v>
       </c>
       <c r="H71">
-        <v>15397</v>
+        <v>14853</v>
       </c>
       <c r="I71">
         <v>3</v>
@@ -3183,22 +3183,22 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D72" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E72" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="F72">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G72">
-        <v>5076</v>
+        <v>5620</v>
       </c>
       <c r="H72">
-        <v>18700</v>
+        <v>13592</v>
       </c>
       <c r="I72">
         <v>3</v>
@@ -3212,22 +3212,22 @@
         <v>32</v>
       </c>
       <c r="C73" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D73" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E73" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F73">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="G73">
-        <v>5329</v>
+        <v>4710</v>
       </c>
       <c r="H73">
-        <v>11784</v>
+        <v>14760</v>
       </c>
       <c r="I73">
         <v>3</v>
@@ -3241,22 +3241,22 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D74" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F74">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>4710</v>
+        <v>5820</v>
       </c>
       <c r="H74">
-        <v>14760</v>
+        <v>12305</v>
       </c>
       <c r="I74">
         <v>3</v>
@@ -3270,22 +3270,22 @@
         <v>34</v>
       </c>
       <c r="C75" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D75" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E75" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="F75">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="G75">
-        <v>4434</v>
+        <v>4993</v>
       </c>
       <c r="H75">
-        <v>9942</v>
+        <v>16782</v>
       </c>
       <c r="I75">
         <v>3</v>
@@ -3299,13 +3299,13 @@
         <v>35</v>
       </c>
       <c r="C76" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="D76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E76" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -3328,22 +3328,22 @@
         <v>36</v>
       </c>
       <c r="C77" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D77" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E77" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="F77">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="G77">
-        <v>4353</v>
+        <v>3687</v>
       </c>
       <c r="H77">
-        <v>19153</v>
+        <v>7345</v>
       </c>
       <c r="I77">
         <v>3</v>
@@ -3357,22 +3357,22 @@
         <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D78" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E78" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F78">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="G78">
-        <v>5222</v>
+        <v>4848</v>
       </c>
       <c r="H78">
-        <v>14322</v>
+        <v>15299</v>
       </c>
       <c r="I78">
         <v>3</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F79">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="G79">
-        <v>4353</v>
+        <v>5020</v>
       </c>
       <c r="H79">
-        <v>10320</v>
+        <v>15991</v>
       </c>
       <c r="I79">
         <v>1</v>
@@ -3415,22 +3415,22 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="F80">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="G80">
-        <v>4736</v>
+        <v>5680</v>
       </c>
       <c r="H80">
-        <v>23033</v>
+        <v>15387</v>
       </c>
       <c r="I80">
         <v>1</v>
@@ -3444,22 +3444,22 @@
         <v>2</v>
       </c>
       <c r="C81" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E81" t="s">
-        <v>23</v>
+        <v>189</v>
       </c>
       <c r="F81">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="G81">
-        <v>3952</v>
+        <v>1654</v>
       </c>
       <c r="H81">
-        <v>9624</v>
+        <v>9342</v>
       </c>
       <c r="I81">
         <v>1</v>
@@ -3473,22 +3473,22 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
-        <v>91</v>
+        <v>50</v>
       </c>
       <c r="F82">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G82">
-        <v>3227</v>
+        <v>3727</v>
       </c>
       <c r="H82">
-        <v>27308</v>
+        <v>22494</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -3502,22 +3502,22 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D83" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F83">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G83">
-        <v>5473</v>
+        <v>5077</v>
       </c>
       <c r="H83">
-        <v>11163</v>
+        <v>16342</v>
       </c>
       <c r="I83">
         <v>1</v>
@@ -3531,22 +3531,22 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D84" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F84">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="G84">
-        <v>1000</v>
+        <v>4066</v>
       </c>
       <c r="H84">
-        <v>20876</v>
+        <v>24809</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -3560,22 +3560,22 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D85" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="E85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F85">
-        <v>13</v>
+        <v>113</v>
       </c>
       <c r="G85">
-        <v>5400</v>
+        <v>1000</v>
       </c>
       <c r="H85">
-        <v>10851</v>
+        <v>20876</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -3589,22 +3589,22 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
+        <v>198</v>
+      </c>
+      <c r="D86" t="s">
         <v>199</v>
       </c>
-      <c r="D86" t="s">
-        <v>200</v>
-      </c>
       <c r="E86" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="F86">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="G86">
-        <v>4422</v>
+        <v>3524</v>
       </c>
       <c r="H86">
-        <v>17146</v>
+        <v>13978</v>
       </c>
       <c r="I86">
         <v>1</v>
@@ -3618,22 +3618,22 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" t="s">
         <v>201</v>
       </c>
-      <c r="D87" t="s">
-        <v>202</v>
-      </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>47</v>
       </c>
       <c r="F87">
-        <v>101</v>
+        <v>69</v>
       </c>
       <c r="G87">
-        <v>3727</v>
+        <v>4532</v>
       </c>
       <c r="H87">
-        <v>22494</v>
+        <v>10663</v>
       </c>
       <c r="I87">
         <v>1</v>
@@ -3647,22 +3647,22 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D88" t="s">
         <v>203</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G88">
-        <v>5680</v>
+        <v>5473</v>
       </c>
       <c r="H88">
-        <v>15387</v>
+        <v>11163</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -3682,16 +3682,16 @@
         <v>205</v>
       </c>
       <c r="E89" t="s">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="F89">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="G89">
-        <v>5092</v>
+        <v>4736</v>
       </c>
       <c r="H89">
-        <v>18966</v>
+        <v>23033</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -3705,22 +3705,22 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
+        <v>85</v>
+      </c>
+      <c r="D90" t="s">
         <v>206</v>
       </c>
-      <c r="D90" t="s">
-        <v>34</v>
-      </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F90">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="G90">
-        <v>5069</v>
+        <v>4690</v>
       </c>
       <c r="H90">
-        <v>15086</v>
+        <v>11786</v>
       </c>
       <c r="I90">
         <v>1</v>
@@ -3737,19 +3737,19 @@
         <v>207</v>
       </c>
       <c r="D91" t="s">
-        <v>208</v>
+        <v>154</v>
       </c>
       <c r="E91" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="F91">
-        <v>19</v>
+        <v>94</v>
       </c>
       <c r="G91">
-        <v>5272</v>
+        <v>4030</v>
       </c>
       <c r="H91">
-        <v>10688</v>
+        <v>18286</v>
       </c>
       <c r="I91">
         <v>1</v>
@@ -3763,13 +3763,13 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
+        <v>208</v>
+      </c>
+      <c r="D92" t="s">
         <v>209</v>
       </c>
-      <c r="D92" t="s">
-        <v>210</v>
-      </c>
       <c r="E92" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="F92">
         <v>86</v>
@@ -3792,22 +3792,22 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
-        <v>136</v>
+        <v>211</v>
       </c>
       <c r="E93" t="s">
-        <v>96</v>
+        <v>38</v>
       </c>
       <c r="F93">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="G93">
-        <v>4308</v>
+        <v>4599</v>
       </c>
       <c r="H93">
-        <v>10587</v>
+        <v>8351</v>
       </c>
       <c r="I93">
         <v>2</v>
@@ -3821,22 +3821,22 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D94" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E94" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F94">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="G94">
-        <v>5208</v>
+        <v>4202</v>
       </c>
       <c r="H94">
-        <v>12511</v>
+        <v>11008</v>
       </c>
       <c r="I94">
         <v>2</v>
@@ -3850,22 +3850,22 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E95" t="s">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="F95">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G95">
-        <v>4482</v>
+        <v>4399</v>
       </c>
       <c r="H95">
-        <v>22452</v>
+        <v>9450</v>
       </c>
       <c r="I95">
         <v>2</v>
@@ -3879,22 +3879,22 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="D96" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="F96">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G96">
-        <v>4975</v>
+        <v>4308</v>
       </c>
       <c r="H96">
-        <v>14509</v>
+        <v>10587</v>
       </c>
       <c r="I96">
         <v>2</v>
@@ -3914,16 +3914,16 @@
         <v>218</v>
       </c>
       <c r="E97" t="s">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="F97">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="G97">
-        <v>4738</v>
+        <v>3808</v>
       </c>
       <c r="H97">
-        <v>15056</v>
+        <v>7771</v>
       </c>
       <c r="I97">
         <v>2</v>
@@ -3943,16 +3943,16 @@
         <v>220</v>
       </c>
       <c r="E98" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="F98">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="G98">
-        <v>4686</v>
+        <v>4265</v>
       </c>
       <c r="H98">
-        <v>11767</v>
+        <v>8680</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -3972,16 +3972,16 @@
         <v>222</v>
       </c>
       <c r="E99" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="F99">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G99">
-        <v>4599</v>
+        <v>4324</v>
       </c>
       <c r="H99">
-        <v>8351</v>
+        <v>15512</v>
       </c>
       <c r="I99">
         <v>2</v>
@@ -3998,19 +3998,19 @@
         <v>223</v>
       </c>
       <c r="D100" t="s">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F100">
-        <v>98</v>
+        <v>42</v>
       </c>
       <c r="G100">
-        <v>3898</v>
+        <v>4952</v>
       </c>
       <c r="H100">
-        <v>25423</v>
+        <v>14704</v>
       </c>
       <c r="I100">
         <v>2</v>
@@ -4024,22 +4024,22 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D101" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E101" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="F101">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G101">
-        <v>5149</v>
+        <v>5196</v>
       </c>
       <c r="H101">
-        <v>22688</v>
+        <v>11718</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -4053,22 +4053,22 @@
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="F102">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="G102">
-        <v>4124</v>
+        <v>4812</v>
       </c>
       <c r="H102">
-        <v>22993</v>
+        <v>18826</v>
       </c>
       <c r="I102">
         <v>2</v>
@@ -4082,22 +4082,22 @@
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D103" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>105</v>
       </c>
       <c r="F103">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G103">
-        <v>4673</v>
+        <v>5149</v>
       </c>
       <c r="H103">
-        <v>8581</v>
+        <v>22688</v>
       </c>
       <c r="I103">
         <v>2</v>
@@ -4111,25 +4111,25 @@
         <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E104" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="F104">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="G104">
-        <v>3664</v>
+        <v>4488</v>
       </c>
       <c r="H104">
-        <v>21437</v>
+        <v>23855</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4140,22 +4140,22 @@
         <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D105" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E105" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="F105">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G105">
-        <v>4540</v>
+        <v>4812</v>
       </c>
       <c r="H105">
-        <v>14406</v>
+        <v>10551</v>
       </c>
       <c r="I105">
         <v>3</v>
@@ -4169,22 +4169,22 @@
         <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D106" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E106" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="G106">
-        <v>5473</v>
+        <v>4849</v>
       </c>
       <c r="H106">
-        <v>16905</v>
+        <v>8188</v>
       </c>
       <c r="I106">
         <v>3</v>
@@ -4198,22 +4198,22 @@
         <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D107" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="E107" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="F107">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="G107">
-        <v>3246</v>
+        <v>4667</v>
       </c>
       <c r="H107">
-        <v>7719</v>
+        <v>17414</v>
       </c>
       <c r="I107">
         <v>3</v>
@@ -4227,22 +4227,22 @@
         <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>238</v>
+        <v>56</v>
       </c>
       <c r="D108" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="F108">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="G108">
-        <v>4295</v>
+        <v>5661</v>
       </c>
       <c r="H108">
-        <v>14853</v>
+        <v>12187</v>
       </c>
       <c r="I108">
         <v>3</v>
@@ -4256,22 +4256,22 @@
         <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D109" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F109">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="G109">
-        <v>5319</v>
+        <v>5170</v>
       </c>
       <c r="H109">
-        <v>7403</v>
+        <v>11299</v>
       </c>
       <c r="I109">
         <v>3</v>
@@ -4285,22 +4285,22 @@
         <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D110" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E110" t="s">
-        <v>243</v>
+        <v>23</v>
       </c>
       <c r="F110">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="G110">
-        <v>4905</v>
+        <v>5319</v>
       </c>
       <c r="H110">
-        <v>13483</v>
+        <v>7403</v>
       </c>
       <c r="I110">
         <v>3</v>
@@ -4314,22 +4314,22 @@
         <v>32</v>
       </c>
       <c r="C111" t="s">
-        <v>57</v>
+        <v>244</v>
       </c>
       <c r="D111" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F111">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="G111">
-        <v>5661</v>
+        <v>3358</v>
       </c>
       <c r="H111">
-        <v>12187</v>
+        <v>7199</v>
       </c>
       <c r="I111">
         <v>3</v>
@@ -4343,22 +4343,22 @@
         <v>33</v>
       </c>
       <c r="C112" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D112" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E112" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F112">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="G112">
-        <v>5175</v>
+        <v>5356</v>
       </c>
       <c r="H112">
-        <v>10248</v>
+        <v>15397</v>
       </c>
       <c r="I112">
         <v>3</v>
@@ -4372,22 +4372,22 @@
         <v>34</v>
       </c>
       <c r="C113" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="D113" t="s">
         <v>248</v>
       </c>
       <c r="E113" t="s">
-        <v>71</v>
+        <v>29</v>
       </c>
       <c r="F113">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="G113">
-        <v>4812</v>
+        <v>4975</v>
       </c>
       <c r="H113">
-        <v>10551</v>
+        <v>15405</v>
       </c>
       <c r="I113">
         <v>3</v>
@@ -4407,16 +4407,16 @@
         <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F114">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="G114">
-        <v>4208</v>
+        <v>4540</v>
       </c>
       <c r="H114">
-        <v>11467</v>
+        <v>14406</v>
       </c>
       <c r="I114">
         <v>3</v>
@@ -4436,16 +4436,16 @@
         <v>252</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="F115">
-        <v>67</v>
+        <v>10</v>
       </c>
       <c r="G115">
-        <v>4538</v>
+        <v>5473</v>
       </c>
       <c r="H115">
-        <v>18766</v>
+        <v>16905</v>
       </c>
       <c r="I115">
         <v>3</v>
@@ -4465,16 +4465,16 @@
         <v>254</v>
       </c>
       <c r="E116" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F116">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G116">
-        <v>4988</v>
+        <v>5222</v>
       </c>
       <c r="H116">
-        <v>13255</v>
+        <v>14322</v>
       </c>
       <c r="I116">
         <v>3</v>

--- a/startlists.xlsx
+++ b/startlists.xlsx
@@ -43,112 +43,724 @@
     <t>StartGrp</t>
   </si>
   <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Leandersson</t>
+  </si>
+  <si>
+    <t>SWE</t>
+  </si>
+  <si>
+    <t>Riccardo</t>
+  </si>
+  <si>
+    <t>Scalet</t>
+  </si>
+  <si>
+    <t>ITA</t>
+  </si>
+  <si>
+    <t>Ralph</t>
+  </si>
+  <si>
+    <t>Street</t>
+  </si>
+  <si>
+    <t>GBR</t>
+  </si>
+  <si>
+    <t>Morten</t>
+  </si>
+  <si>
+    <t>Jorgensen</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Bjarne</t>
+  </si>
+  <si>
+    <t>Friedrichs</t>
+  </si>
+  <si>
+    <t>GER</t>
+  </si>
+  <si>
+    <t>Joey</t>
+  </si>
+  <si>
+    <t>Hadorn</t>
+  </si>
+  <si>
+    <t>SUI</t>
+  </si>
+  <si>
+    <t>Asaf</t>
+  </si>
+  <si>
+    <t>Avner</t>
+  </si>
+  <si>
+    <t>ISR</t>
+  </si>
+  <si>
+    <t>Jakob</t>
+  </si>
+  <si>
+    <t>Edsen</t>
+  </si>
+  <si>
+    <t>DEN</t>
+  </si>
+  <si>
+    <t>Quentin</t>
+  </si>
+  <si>
+    <t>Rauturier</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>Mattia</t>
+  </si>
+  <si>
+    <t>Debertolis</t>
+  </si>
+  <si>
+    <t>Gheorghe</t>
+  </si>
+  <si>
+    <t>Fala</t>
+  </si>
+  <si>
+    <t>MDA</t>
+  </si>
+  <si>
+    <t>Algirdas</t>
+  </si>
+  <si>
+    <t>Bartkevicius</t>
+  </si>
+  <si>
+    <t>LTU</t>
+  </si>
+  <si>
+    <t>Hakon</t>
+  </si>
+  <si>
+    <t>Jarvis Westergard</t>
+  </si>
+  <si>
+    <t>NOR</t>
+  </si>
+  <si>
+    <t>Antonio</t>
+  </si>
+  <si>
+    <t>Martinez Perez</t>
+  </si>
+  <si>
+    <t>ESP</t>
+  </si>
+  <si>
+    <t>Ivaylo</t>
+  </si>
+  <si>
+    <t>Kamenarov</t>
+  </si>
+  <si>
+    <t>BUL</t>
+  </si>
+  <si>
+    <t>Dmitry</t>
+  </si>
+  <si>
+    <t>Tsvetkov</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Regborn</t>
+  </si>
+  <si>
+    <t>Arturs</t>
+  </si>
+  <si>
+    <t>Paulins</t>
+  </si>
+  <si>
+    <t>LAT</t>
+  </si>
+  <si>
+    <t>Kenny</t>
+  </si>
+  <si>
+    <t>Kivikas</t>
+  </si>
+  <si>
+    <t>EST</t>
+  </si>
+  <si>
+    <t>Joao Mega</t>
+  </si>
+  <si>
+    <t>Figueiredo</t>
+  </si>
+  <si>
+    <t>POR</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>Mueller</t>
+  </si>
+  <si>
+    <t>Loic</t>
+  </si>
+  <si>
+    <t>Capbern</t>
+  </si>
+  <si>
+    <t>Tommy</t>
+  </si>
+  <si>
+    <t>Hayes</t>
+  </si>
+  <si>
+    <t>NZL</t>
+  </si>
+  <si>
+    <t>Vojtech</t>
+  </si>
+  <si>
+    <t>Sykora</t>
+  </si>
+  <si>
+    <t>CZE</t>
+  </si>
+  <si>
+    <t>Miika</t>
+  </si>
+  <si>
+    <t>Kirmula</t>
+  </si>
+  <si>
+    <t>FIN</t>
+  </si>
+  <si>
+    <t>Sebastian Ken</t>
+  </si>
+  <si>
+    <t>Baumann</t>
+  </si>
+  <si>
+    <t>JPN</t>
+  </si>
+  <si>
+    <t>Marek</t>
+  </si>
+  <si>
+    <t>Minar</t>
+  </si>
+  <si>
+    <t>Tristan</t>
+  </si>
+  <si>
+    <t>Bloemen</t>
+  </si>
+  <si>
+    <t>BEL</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Reiner</t>
+  </si>
+  <si>
+    <t>AUT</t>
+  </si>
+  <si>
     <t>Daniel</t>
   </si>
   <si>
+    <t>Hubmann</t>
+  </si>
+  <si>
+    <t>Uldis</t>
+  </si>
+  <si>
+    <t>Upitis</t>
+  </si>
+  <si>
+    <t>Stefan</t>
+  </si>
+  <si>
+    <t>Yordanov</t>
+  </si>
+  <si>
+    <t>Oystein</t>
+  </si>
+  <si>
+    <t>Kvaal Osterbo</t>
+  </si>
+  <si>
+    <t>Piotr</t>
+  </si>
+  <si>
+    <t>Parfianowicz</t>
+  </si>
+  <si>
+    <t>POL</t>
+  </si>
+  <si>
+    <t>Wannes</t>
+  </si>
+  <si>
+    <t>Hendrickx</t>
+  </si>
+  <si>
+    <t>Mathias</t>
+  </si>
+  <si>
+    <t>Peter</t>
+  </si>
+  <si>
+    <t>Kristian</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>Topi</t>
+  </si>
+  <si>
+    <t>Raitanen</t>
+  </si>
+  <si>
+    <t>Roman</t>
+  </si>
+  <si>
+    <t>Ciobanu</t>
+  </si>
+  <si>
+    <t>ROU</t>
+  </si>
+  <si>
+    <t>Andreu</t>
+  </si>
+  <si>
+    <t>Blanes</t>
+  </si>
+  <si>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>Hirvikallio</t>
+  </si>
+  <si>
+    <t>Kral</t>
+  </si>
+  <si>
+    <t>Andris</t>
+  </si>
+  <si>
+    <t>Kivlenieks</t>
+  </si>
+  <si>
+    <t>Giacomo</t>
+  </si>
+  <si>
+    <t>Barbone</t>
+  </si>
+  <si>
+    <t>Sergei</t>
+  </si>
+  <si>
+    <t>Rjabyshkin</t>
+  </si>
+  <si>
+    <t>Magnus</t>
+  </si>
+  <si>
+    <t>Dewett</t>
+  </si>
+  <si>
+    <t>Max Peter</t>
+  </si>
+  <si>
+    <t>Bejmer</t>
+  </si>
+  <si>
+    <t>Tomas</t>
+  </si>
+  <si>
+    <t>Kubelka</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Apostol</t>
+  </si>
+  <si>
+    <t>Atanasov</t>
+  </si>
+  <si>
+    <t>Wouter</t>
+  </si>
+  <si>
+    <t>Hus</t>
+  </si>
+  <si>
+    <t>Jonas Vytautas</t>
+  </si>
+  <si>
+    <t>Gvildys</t>
+  </si>
+  <si>
+    <t>Christoph</t>
+  </si>
+  <si>
+    <t>Prunsche</t>
+  </si>
+  <si>
+    <t>George Emilian</t>
+  </si>
+  <si>
+    <t>Minoiu</t>
+  </si>
+  <si>
+    <t>Aleksi</t>
+  </si>
+  <si>
+    <t>Niemi</t>
+  </si>
+  <si>
+    <t>Dimitar</t>
+  </si>
+  <si>
+    <t>Zhelyazkov</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Howald</t>
+  </si>
+  <si>
+    <t>Alessio</t>
+  </si>
+  <si>
+    <t>Tenani</t>
+  </si>
+  <si>
+    <t>Felix</t>
+  </si>
+  <si>
+    <t>Spaeth</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Rueedlinger</t>
+  </si>
+  <si>
+    <t>Kasper</t>
+  </si>
+  <si>
+    <t>Fosser</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Luis</t>
+  </si>
+  <si>
+    <t>Nogueira</t>
+  </si>
+  <si>
+    <t>Hodkinson</t>
+  </si>
+  <si>
+    <t>Gernot</t>
+  </si>
+  <si>
+    <t>Kerschbaumer</t>
+  </si>
+  <si>
+    <t>Igor</t>
+  </si>
+  <si>
+    <t>Popov</t>
+  </si>
+  <si>
+    <t>Nitsan</t>
+  </si>
+  <si>
+    <t>Yasur</t>
+  </si>
+  <si>
+    <t>Andrey</t>
+  </si>
+  <si>
+    <t>Khramov</t>
+  </si>
+  <si>
+    <t>Andres</t>
+  </si>
+  <si>
+    <t>Saetalu</t>
+  </si>
+  <si>
+    <t>Alasdair</t>
+  </si>
+  <si>
+    <t>McLeod</t>
+  </si>
+  <si>
+    <t>Lucas</t>
+  </si>
+  <si>
+    <t>Basset</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Borjeskog</t>
+  </si>
+  <si>
+    <t>Frederic</t>
+  </si>
+  <si>
+    <t>Tranchand</t>
+  </si>
+  <si>
+    <t>Jon Aukrust</t>
+  </si>
+  <si>
+    <t>Osmoen</t>
+  </si>
+  <si>
+    <t>Michele</t>
+  </si>
+  <si>
+    <t>Caraglio</t>
+  </si>
+  <si>
+    <t>Jubelis</t>
+  </si>
+  <si>
+    <t>Roberto</t>
+  </si>
+  <si>
+    <t>Dallavalle</t>
+  </si>
+  <si>
+    <t>Ivan</t>
+  </si>
+  <si>
+    <t>Sirakov</t>
+  </si>
+  <si>
+    <t>Milos</t>
+  </si>
+  <si>
+    <t>Nykodym</t>
+  </si>
+  <si>
+    <t>Marvin</t>
+  </si>
+  <si>
+    <t>Goericke</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Inderst</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Bergman</t>
+  </si>
+  <si>
+    <t>Otto</t>
+  </si>
+  <si>
+    <t>Simosas</t>
+  </si>
+  <si>
+    <t>Michal</t>
+  </si>
+  <si>
+    <t>Olejnik</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>Jonsson</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Smithard</t>
+  </si>
+  <si>
+    <t>Warre</t>
+  </si>
+  <si>
+    <t>De Cuyper</t>
+  </si>
+  <si>
+    <t>Artem</t>
+  </si>
+  <si>
+    <t>Mantas</t>
+  </si>
+  <si>
+    <t>Martinkus</t>
+  </si>
+  <si>
+    <t>Teodor</t>
+  </si>
+  <si>
+    <t>Endijs</t>
+  </si>
+  <si>
+    <t>Titomers</t>
+  </si>
+  <si>
+    <t>Vincent</t>
+  </si>
+  <si>
+    <t>Coupat</t>
+  </si>
+  <si>
+    <t>Itay</t>
+  </si>
+  <si>
+    <t>Manor</t>
+  </si>
+  <si>
+    <t>Kristo</t>
+  </si>
+  <si>
+    <t>Heinmann</t>
+  </si>
+  <si>
+    <t>Davis</t>
+  </si>
+  <si>
+    <t>Dislers</t>
+  </si>
+  <si>
+    <t>Adrien</t>
+  </si>
+  <si>
+    <t>Delenne</t>
+  </si>
+  <si>
     <t>Hajek</t>
   </si>
   <si>
-    <t>CZE</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>Hubmann</t>
-  </si>
-  <si>
-    <t>SUI</t>
-  </si>
-  <si>
-    <t>Tim</t>
-  </si>
-  <si>
-    <t>Robertson</t>
-  </si>
-  <si>
-    <t>NZL</t>
-  </si>
-  <si>
-    <t>Artem</t>
-  </si>
-  <si>
-    <t>Popov</t>
-  </si>
-  <si>
-    <t>RUS</t>
-  </si>
-  <si>
-    <t>Frederic</t>
-  </si>
-  <si>
-    <t>Tranchand</t>
-  </si>
-  <si>
-    <t>FRA</t>
-  </si>
-  <si>
-    <t>Nitsan</t>
-  </si>
-  <si>
-    <t>Yasur</t>
-  </si>
-  <si>
-    <t>ISR</t>
-  </si>
-  <si>
-    <t>Gernot</t>
-  </si>
-  <si>
-    <t>Kerschbaumer</t>
-  </si>
-  <si>
-    <t>AUT</t>
-  </si>
-  <si>
-    <t>Luis</t>
-  </si>
-  <si>
-    <t>Nogueira</t>
-  </si>
-  <si>
-    <t>ESP</t>
-  </si>
-  <si>
-    <t>Riccardo</t>
-  </si>
-  <si>
-    <t>Scalet</t>
-  </si>
-  <si>
-    <t>ITA</t>
-  </si>
-  <si>
-    <t>Alasdair</t>
-  </si>
-  <si>
-    <t>McLeod</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>Igor</t>
-  </si>
-  <si>
-    <t>Peter</t>
-  </si>
-  <si>
-    <t>Hodkinson</t>
-  </si>
-  <si>
-    <t>Mantas</t>
-  </si>
-  <si>
-    <t>Martinkus</t>
-  </si>
-  <si>
-    <t>LTU</t>
+    <t>Alexandru</t>
+  </si>
+  <si>
+    <t>Blejdea</t>
+  </si>
+  <si>
+    <t>Andreas Hougaard</t>
+  </si>
+  <si>
+    <t>Boesen</t>
+  </si>
+  <si>
+    <t>Yannick</t>
+  </si>
+  <si>
+    <t>Michiels</t>
+  </si>
+  <si>
+    <t>Trond Einar</t>
+  </si>
+  <si>
+    <t>Moen Pedersli</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Salmenkyla</t>
+  </si>
+  <si>
+    <t>Bogya</t>
+  </si>
+  <si>
+    <t>Tamas</t>
+  </si>
+  <si>
+    <t>Emil</t>
+  </si>
+  <si>
+    <t>Svensk</t>
+  </si>
+  <si>
+    <t>Henry</t>
+  </si>
+  <si>
+    <t>McNulty</t>
+  </si>
+  <si>
+    <t>AUS</t>
+  </si>
+  <si>
+    <t>Kyburz</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Chepelin</t>
+  </si>
+  <si>
+    <t>Ahmet</t>
+  </si>
+  <si>
+    <t>Kacmaz</t>
+  </si>
+  <si>
+    <t>TUR</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Merl</t>
+  </si>
+  <si>
+    <t>Dmitrii</t>
+  </si>
+  <si>
+    <t>Poliakov</t>
   </si>
   <si>
     <t>Jesse</t>
@@ -157,628 +769,16 @@
     <t>Laukkarinen</t>
   </si>
   <si>
-    <t>FIN</t>
-  </si>
-  <si>
-    <t>Anton</t>
-  </si>
-  <si>
-    <t>Salmenkyla</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Vincent</t>
-  </si>
-  <si>
-    <t>Coupat</t>
-  </si>
-  <si>
-    <t>Jon Aukrust</t>
-  </si>
-  <si>
-    <t>Osmoen</t>
-  </si>
-  <si>
-    <t>NOR</t>
-  </si>
-  <si>
-    <t>Vojtech</t>
-  </si>
-  <si>
-    <t>Sykora</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Merl</t>
-  </si>
-  <si>
-    <t>Miika</t>
-  </si>
-  <si>
-    <t>Kirmula</t>
-  </si>
-  <si>
-    <t>Warre</t>
-  </si>
-  <si>
-    <t>De Cuyper</t>
-  </si>
-  <si>
-    <t>BEL</t>
-  </si>
-  <si>
-    <t>Uldis</t>
-  </si>
-  <si>
-    <t>Upitis</t>
-  </si>
-  <si>
-    <t>LAT</t>
-  </si>
-  <si>
-    <t>Andreas</t>
-  </si>
-  <si>
-    <t>Rueedlinger</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
-    <t>Jonsson</t>
-  </si>
-  <si>
-    <t>Max Peter</t>
-  </si>
-  <si>
-    <t>Bejmer</t>
-  </si>
-  <si>
-    <t>SWE</t>
-  </si>
-  <si>
-    <t>Tristan</t>
-  </si>
-  <si>
-    <t>Bloemen</t>
-  </si>
-  <si>
-    <t>Gustav</t>
-  </si>
-  <si>
-    <t>Bergman</t>
-  </si>
-  <si>
-    <t>Alexandru</t>
-  </si>
-  <si>
-    <t>Blejdea</t>
-  </si>
-  <si>
-    <t>ROU</t>
-  </si>
-  <si>
-    <t>Felix</t>
-  </si>
-  <si>
-    <t>Spaeth</t>
-  </si>
-  <si>
-    <t>GER</t>
-  </si>
-  <si>
-    <t>Andris</t>
-  </si>
-  <si>
-    <t>Jubelis</t>
-  </si>
-  <si>
-    <t>Kenny</t>
-  </si>
-  <si>
-    <t>Kivikas</t>
-  </si>
-  <si>
-    <t>EST</t>
-  </si>
-  <si>
-    <t>Marvin</t>
-  </si>
-  <si>
-    <t>Goericke</t>
-  </si>
-  <si>
-    <t>Apostol</t>
-  </si>
-  <si>
-    <t>Atanasov</t>
-  </si>
-  <si>
-    <t>BUL</t>
-  </si>
-  <si>
-    <t>Michele</t>
-  </si>
-  <si>
-    <t>Caraglio</t>
-  </si>
-  <si>
-    <t>Roman</t>
-  </si>
-  <si>
-    <t>Ciobanu</t>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Doellgast</t>
   </si>
   <si>
     <t>Eduardo</t>
   </si>
   <si>
     <t>Gil Marcos</t>
-  </si>
-  <si>
-    <t>Ivaylo</t>
-  </si>
-  <si>
-    <t>Kamenarov</t>
-  </si>
-  <si>
-    <t>Magnus</t>
-  </si>
-  <si>
-    <t>Dewett</t>
-  </si>
-  <si>
-    <t>DEN</t>
-  </si>
-  <si>
-    <t>Marek</t>
-  </si>
-  <si>
-    <t>Minar</t>
-  </si>
-  <si>
-    <t>Andreas Hougaard</t>
-  </si>
-  <si>
-    <t>Boesen</t>
-  </si>
-  <si>
-    <t>Andres</t>
-  </si>
-  <si>
-    <t>Saetalu</t>
-  </si>
-  <si>
-    <t>Alessio</t>
-  </si>
-  <si>
-    <t>Tenani</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Borjeskog</t>
-  </si>
-  <si>
-    <t>Oystein</t>
-  </si>
-  <si>
-    <t>Kvaal Osterbo</t>
-  </si>
-  <si>
-    <t>Adrien</t>
-  </si>
-  <si>
-    <t>Delenne</t>
-  </si>
-  <si>
-    <t>Endijs</t>
-  </si>
-  <si>
-    <t>Titomers</t>
-  </si>
-  <si>
-    <t>Piotr</t>
-  </si>
-  <si>
-    <t>Parfianowicz</t>
-  </si>
-  <si>
-    <t>POL</t>
-  </si>
-  <si>
-    <t>Sebastian Ken</t>
-  </si>
-  <si>
-    <t>Baumann</t>
-  </si>
-  <si>
-    <t>JPN</t>
-  </si>
-  <si>
-    <t>Wannes</t>
-  </si>
-  <si>
-    <t>Hendrickx</t>
-  </si>
-  <si>
-    <t>George Emilian</t>
-  </si>
-  <si>
-    <t>Minoiu</t>
-  </si>
-  <si>
-    <t>Bjarne</t>
-  </si>
-  <si>
-    <t>Friedrichs</t>
-  </si>
-  <si>
-    <t>Ivan</t>
-  </si>
-  <si>
-    <t>Sirakov</t>
-  </si>
-  <si>
-    <t>Tommy</t>
-  </si>
-  <si>
-    <t>Hayes</t>
-  </si>
-  <si>
-    <t>Christoph</t>
-  </si>
-  <si>
-    <t>Prunsche</t>
-  </si>
-  <si>
-    <t>Quentin</t>
-  </si>
-  <si>
-    <t>Rauturier</t>
-  </si>
-  <si>
-    <t>Ahmet</t>
-  </si>
-  <si>
-    <t>Kacmaz</t>
-  </si>
-  <si>
-    <t>TUR</t>
-  </si>
-  <si>
-    <t>Itay</t>
-  </si>
-  <si>
-    <t>Manor</t>
-  </si>
-  <si>
-    <t>Antonio</t>
-  </si>
-  <si>
-    <t>Martinez Perez</t>
-  </si>
-  <si>
-    <t>Dmitrii</t>
-  </si>
-  <si>
-    <t>Poliakov</t>
-  </si>
-  <si>
-    <t>Jonas</t>
-  </si>
-  <si>
-    <t>Leandersson</t>
-  </si>
-  <si>
-    <t>Stefan</t>
-  </si>
-  <si>
-    <t>Yordanov</t>
-  </si>
-  <si>
-    <t>Tomas</t>
-  </si>
-  <si>
-    <t>Kubelka</t>
-  </si>
-  <si>
-    <t>Chris</t>
-  </si>
-  <si>
-    <t>Smithard</t>
-  </si>
-  <si>
-    <t>Henry</t>
-  </si>
-  <si>
-    <t>McNulty</t>
-  </si>
-  <si>
-    <t>AUS</t>
-  </si>
-  <si>
-    <t>Davis</t>
-  </si>
-  <si>
-    <t>Dislers</t>
-  </si>
-  <si>
-    <t>Jonas Vytautas</t>
-  </si>
-  <si>
-    <t>Gvildys</t>
-  </si>
-  <si>
-    <t>Aleksi</t>
-  </si>
-  <si>
-    <t>Niemi</t>
-  </si>
-  <si>
-    <t>Mattia</t>
-  </si>
-  <si>
-    <t>Debertolis</t>
-  </si>
-  <si>
-    <t>Mathias</t>
-  </si>
-  <si>
-    <t>Yannick</t>
-  </si>
-  <si>
-    <t>Michiels</t>
-  </si>
-  <si>
-    <t>Trond Einar</t>
-  </si>
-  <si>
-    <t>Moen Pedersli</t>
-  </si>
-  <si>
-    <t>Matthias</t>
-  </si>
-  <si>
-    <t>Kyburz</t>
-  </si>
-  <si>
-    <t>Ralph</t>
-  </si>
-  <si>
-    <t>Street</t>
-  </si>
-  <si>
-    <t>Florian</t>
-  </si>
-  <si>
-    <t>Howald</t>
-  </si>
-  <si>
-    <t>Giacomo</t>
-  </si>
-  <si>
-    <t>Barbone</t>
-  </si>
-  <si>
-    <t>Topi</t>
-  </si>
-  <si>
-    <t>Raitanen</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Regborn</t>
-  </si>
-  <si>
-    <t>Gheorghe</t>
-  </si>
-  <si>
-    <t>Fala</t>
-  </si>
-  <si>
-    <t>MDA</t>
-  </si>
-  <si>
-    <t>Morten</t>
-  </si>
-  <si>
-    <t>Jorgensen</t>
-  </si>
-  <si>
-    <t>Otto</t>
-  </si>
-  <si>
-    <t>Simosas</t>
-  </si>
-  <si>
-    <t>Dimitar</t>
-  </si>
-  <si>
-    <t>Zhelyazkov</t>
-  </si>
-  <si>
-    <t>Wouter</t>
-  </si>
-  <si>
-    <t>Hus</t>
-  </si>
-  <si>
-    <t>Philipp</t>
-  </si>
-  <si>
-    <t>Mueller</t>
-  </si>
-  <si>
-    <t>Joni</t>
-  </si>
-  <si>
-    <t>Hirvikallio</t>
-  </si>
-  <si>
-    <t>Hakon</t>
-  </si>
-  <si>
-    <t>Jarvis Westergard</t>
-  </si>
-  <si>
-    <t>Joey</t>
-  </si>
-  <si>
-    <t>Hadorn</t>
-  </si>
-  <si>
-    <t>Kivlenieks</t>
-  </si>
-  <si>
-    <t>Teodor</t>
-  </si>
-  <si>
-    <t>Moritz</t>
-  </si>
-  <si>
-    <t>Doellgast</t>
-  </si>
-  <si>
-    <t>Alexander</t>
-  </si>
-  <si>
-    <t>Chepelin</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Inderst</t>
-  </si>
-  <si>
-    <t>Joao Mega</t>
-  </si>
-  <si>
-    <t>Figueiredo</t>
-  </si>
-  <si>
-    <t>POR</t>
-  </si>
-  <si>
-    <t>Bogya</t>
-  </si>
-  <si>
-    <t>Tamas</t>
-  </si>
-  <si>
-    <t>Roberto</t>
-  </si>
-  <si>
-    <t>Dallavalle</t>
-  </si>
-  <si>
-    <t>Sergei</t>
-  </si>
-  <si>
-    <t>Rjabyshkin</t>
-  </si>
-  <si>
-    <t>Arturs</t>
-  </si>
-  <si>
-    <t>Paulins</t>
-  </si>
-  <si>
-    <t>Andrey</t>
-  </si>
-  <si>
-    <t>Khramov</t>
-  </si>
-  <si>
-    <t>Algirdas</t>
-  </si>
-  <si>
-    <t>Bartkevicius</t>
-  </si>
-  <si>
-    <t>Jakob</t>
-  </si>
-  <si>
-    <t>Edsen</t>
-  </si>
-  <si>
-    <t>Kasper</t>
-  </si>
-  <si>
-    <t>Fosser</t>
-  </si>
-  <si>
-    <t>Kristo</t>
-  </si>
-  <si>
-    <t>Heinmann</t>
-  </si>
-  <si>
-    <t>Loic</t>
-  </si>
-  <si>
-    <t>Capbern</t>
-  </si>
-  <si>
-    <t>Dmitry</t>
-  </si>
-  <si>
-    <t>Tsvetkov</t>
-  </si>
-  <si>
-    <t>Kral</t>
-  </si>
-  <si>
-    <t>Kristian</t>
-  </si>
-  <si>
-    <t>Jones</t>
-  </si>
-  <si>
-    <t>Lucas</t>
-  </si>
-  <si>
-    <t>Basset</t>
-  </si>
-  <si>
-    <t>Asaf</t>
-  </si>
-  <si>
-    <t>Avner</t>
-  </si>
-  <si>
-    <t>Andreu</t>
-  </si>
-  <si>
-    <t>Blanes</t>
-  </si>
-  <si>
-    <t>Reiner</t>
-  </si>
-  <si>
-    <t>Michal</t>
-  </si>
-  <si>
-    <t>Olejnik</t>
-  </si>
-  <si>
-    <t>Emil</t>
-  </si>
-  <si>
-    <t>Svensk</t>
-  </si>
-  <si>
-    <t>Milos</t>
-  </si>
-  <si>
-    <t>Nykodym</t>
   </si>
 </sst>
 </file>
@@ -1162,16 +1162,16 @@
         <v>11</v>
       </c>
       <c r="F2">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="G2">
-        <v>4353</v>
+        <v>5433</v>
       </c>
       <c r="H2">
-        <v>10320</v>
+        <v>12555</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1191,16 +1191,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="G3">
-        <v>5400</v>
+        <v>5092</v>
       </c>
       <c r="H3">
-        <v>10851</v>
+        <v>18966</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1220,16 +1220,16 @@
         <v>17</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="G4">
-        <v>5464</v>
+        <v>4993</v>
       </c>
       <c r="H4">
-        <v>15525</v>
+        <v>16782</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1249,16 +1249,16 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="G5">
-        <v>5069</v>
+        <v>3727</v>
       </c>
       <c r="H5">
-        <v>15086</v>
+        <v>22494</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1278,16 +1278,16 @@
         <v>23</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="G6">
-        <v>5673</v>
+        <v>3952</v>
       </c>
       <c r="H6">
-        <v>17348</v>
+        <v>9624</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1307,16 +1307,16 @@
         <v>26</v>
       </c>
       <c r="F7">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="G7">
-        <v>4295</v>
+        <v>4736</v>
       </c>
       <c r="H7">
-        <v>20182</v>
+        <v>23033</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1336,16 +1336,16 @@
         <v>29</v>
       </c>
       <c r="F8">
-        <v>30</v>
+        <v>106</v>
       </c>
       <c r="G8">
-        <v>5131</v>
+        <v>3358</v>
       </c>
       <c r="H8">
-        <v>11671</v>
+        <v>7199</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1365,16 +1365,16 @@
         <v>32</v>
       </c>
       <c r="F9">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="G9">
-        <v>3980</v>
+        <v>5149</v>
       </c>
       <c r="H9">
-        <v>13880</v>
+        <v>22688</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1394,16 +1394,16 @@
         <v>35</v>
       </c>
       <c r="F10">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="G10">
-        <v>5092</v>
+        <v>4586</v>
       </c>
       <c r="H10">
-        <v>18966</v>
+        <v>20655</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1420,19 +1420,19 @@
         <v>37</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="F11">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="G11">
-        <v>4736</v>
+        <v>4353</v>
       </c>
       <c r="H11">
-        <v>13474</v>
+        <v>19153</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D12" t="s">
         <v>39</v>
       </c>
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="F12">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="G12">
-        <v>4265</v>
+        <v>1654</v>
       </c>
       <c r="H12">
-        <v>22153</v>
+        <v>9342</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1472,25 +1472,25 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F13">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="G13">
-        <v>5272</v>
+        <v>4812</v>
       </c>
       <c r="H13">
-        <v>10688</v>
+        <v>18826</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1501,25 +1501,25 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F14">
-        <v>114</v>
+        <v>9</v>
       </c>
       <c r="G14">
-        <v>1000</v>
+        <v>5473</v>
       </c>
       <c r="H14">
-        <v>24197</v>
+        <v>11163</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1530,25 +1530,25 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
         <v>14</v>
       </c>
-      <c r="F15">
-        <v>5</v>
-      </c>
       <c r="G15">
-        <v>5641</v>
+        <v>5379</v>
       </c>
       <c r="H15">
-        <v>10849</v>
+        <v>13326</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1559,25 +1559,25 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F16">
-        <v>22</v>
+        <v>89</v>
       </c>
       <c r="G16">
-        <v>5208</v>
+        <v>4208</v>
       </c>
       <c r="H16">
-        <v>12511</v>
+        <v>11467</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1588,25 +1588,25 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F17">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="G17">
-        <v>1968</v>
+        <v>4667</v>
       </c>
       <c r="H17">
-        <v>25115</v>
+        <v>17414</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1617,25 +1617,25 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F18">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>4673</v>
+        <v>5680</v>
       </c>
       <c r="H18">
-        <v>8581</v>
+        <v>15387</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1646,25 +1646,25 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F19">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G19">
-        <v>4975</v>
+        <v>4952</v>
       </c>
       <c r="H19">
-        <v>14509</v>
+        <v>14704</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1675,25 +1675,25 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="F20">
-        <v>68</v>
+        <v>16</v>
       </c>
       <c r="G20">
-        <v>4534</v>
+        <v>5329</v>
       </c>
       <c r="H20">
-        <v>25347</v>
+        <v>11784</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1704,25 +1704,25 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="F21">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="G21">
-        <v>5166</v>
+        <v>4399</v>
       </c>
       <c r="H21">
-        <v>13549</v>
+        <v>9450</v>
       </c>
       <c r="I21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1733,25 +1733,25 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D22" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E22" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="F22">
-        <v>57</v>
+        <v>105</v>
       </c>
       <c r="G22">
-        <v>4686</v>
+        <v>3524</v>
       </c>
       <c r="H22">
-        <v>11767</v>
+        <v>13978</v>
       </c>
       <c r="I22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1762,25 +1762,25 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D23" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="G23">
-        <v>3780</v>
+        <v>4849</v>
       </c>
       <c r="H23">
-        <v>28066</v>
+        <v>8188</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1791,25 +1791,25 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F24">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="G24">
-        <v>4124</v>
+        <v>4482</v>
       </c>
       <c r="H24">
-        <v>22993</v>
+        <v>22452</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1820,25 +1820,25 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F25">
         <v>68</v>
       </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F25">
-        <v>43</v>
-      </c>
       <c r="G25">
-        <v>4913</v>
+        <v>4534</v>
       </c>
       <c r="H25">
-        <v>15729</v>
+        <v>25347</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1849,25 +1849,25 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D26" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="F26">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="G26">
-        <v>4526</v>
+        <v>4686</v>
       </c>
       <c r="H26">
-        <v>23864</v>
+        <v>11767</v>
       </c>
       <c r="I26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1878,25 +1878,25 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F27">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="G27">
-        <v>4840</v>
+        <v>4216</v>
       </c>
       <c r="H27">
-        <v>7466</v>
+        <v>25943</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1907,25 +1907,25 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
+        <v>84</v>
+      </c>
+      <c r="E28" t="s">
         <v>76</v>
       </c>
-      <c r="E28" t="s">
-        <v>64</v>
-      </c>
       <c r="F28">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4623</v>
       </c>
       <c r="H28">
-        <v>7724</v>
+        <v>20166</v>
       </c>
       <c r="I28">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1936,25 +1936,25 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F29">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="G29">
-        <v>5544</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>7562</v>
+        <v>7724</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1965,25 +1965,25 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="D30" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="E30" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F30">
-        <v>108</v>
+        <v>39</v>
       </c>
       <c r="G30">
-        <v>3246</v>
+        <v>4975</v>
       </c>
       <c r="H30">
-        <v>7719</v>
+        <v>15405</v>
       </c>
       <c r="I30">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1994,25 +1994,25 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="D31" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
       <c r="F31">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="G31">
-        <v>4560</v>
+        <v>5641</v>
       </c>
       <c r="H31">
-        <v>16618</v>
+        <v>10849</v>
       </c>
       <c r="I31">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -2023,25 +2023,25 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D32" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="E32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="F32">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="G32">
-        <v>4756</v>
+        <v>4124</v>
       </c>
       <c r="H32">
-        <v>11329</v>
+        <v>22993</v>
       </c>
       <c r="I32">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -2052,25 +2052,25 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>98</v>
       </c>
       <c r="G33">
-        <v>5329</v>
+        <v>3898</v>
       </c>
       <c r="H33">
-        <v>11784</v>
+        <v>25423</v>
       </c>
       <c r="I33">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -2081,25 +2081,25 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E34" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="F34">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="G34">
-        <v>4434</v>
+        <v>5249</v>
       </c>
       <c r="H34">
-        <v>9942</v>
+        <v>18660</v>
       </c>
       <c r="I34">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -2110,25 +2110,25 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D35" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E35" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F35">
-        <v>104</v>
+        <v>24</v>
       </c>
       <c r="G35">
-        <v>3600</v>
+        <v>5177</v>
       </c>
       <c r="H35">
-        <v>7164</v>
+        <v>14642</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -2139,25 +2139,25 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D36" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="F36">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G36">
-        <v>3912</v>
+        <v>1000</v>
       </c>
       <c r="H36">
-        <v>8196</v>
+        <v>10588</v>
       </c>
       <c r="I36">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -2168,25 +2168,25 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="F37">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G37">
-        <v>4304</v>
+        <v>4295</v>
       </c>
       <c r="H37">
-        <v>8458</v>
+        <v>14853</v>
       </c>
       <c r="I37">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -2197,25 +2197,25 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D38" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E38" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="F38">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="G38">
-        <v>4988</v>
+        <v>5170</v>
       </c>
       <c r="H38">
-        <v>13255</v>
+        <v>11299</v>
       </c>
       <c r="I38">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -2226,25 +2226,25 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="F39">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="G39">
-        <v>4208</v>
+        <v>4848</v>
       </c>
       <c r="H39">
-        <v>11467</v>
+        <v>15299</v>
       </c>
       <c r="I39">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -2255,25 +2255,25 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="F40">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="G40">
-        <v>4653</v>
+        <v>4304</v>
       </c>
       <c r="H40">
-        <v>8831</v>
+        <v>8458</v>
       </c>
       <c r="I40">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -2284,25 +2284,25 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F41">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="G41">
-        <v>4623</v>
+        <v>5356</v>
       </c>
       <c r="H41">
-        <v>20166</v>
+        <v>15397</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -2313,25 +2313,25 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D42" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="F42">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="G42">
-        <v>5154</v>
+        <v>4532</v>
       </c>
       <c r="H42">
-        <v>7760</v>
+        <v>10663</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -2342,25 +2342,25 @@
         <v>2</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F43">
-        <v>107</v>
+        <v>4</v>
       </c>
       <c r="G43">
-        <v>3348</v>
+        <v>5661</v>
       </c>
       <c r="H43">
-        <v>20535</v>
+        <v>12187</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -2371,25 +2371,25 @@
         <v>3</v>
       </c>
       <c r="C44" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D44" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E44" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F44">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="G44">
-        <v>4422</v>
+        <v>4690</v>
       </c>
       <c r="H44">
-        <v>17146</v>
+        <v>11786</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -2400,25 +2400,25 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="F45">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="G45">
-        <v>4992</v>
+        <v>3687</v>
       </c>
       <c r="H45">
-        <v>8136</v>
+        <v>7345</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -2429,25 +2429,25 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F46">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="G46">
-        <v>5249</v>
+        <v>4324</v>
       </c>
       <c r="H46">
-        <v>18660</v>
+        <v>15512</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2458,25 +2458,25 @@
         <v>6</v>
       </c>
       <c r="C47" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D47" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F47">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="G47">
-        <v>4956</v>
+        <v>4653</v>
       </c>
       <c r="H47">
-        <v>19918</v>
+        <v>8831</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -2487,25 +2487,25 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="F48">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="G48">
-        <v>4322</v>
+        <v>4840</v>
       </c>
       <c r="H48">
-        <v>19137</v>
+        <v>7466</v>
       </c>
       <c r="I48">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -2516,25 +2516,25 @@
         <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="D49" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="F49">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="G49">
-        <v>5177</v>
+        <v>4680</v>
       </c>
       <c r="H49">
-        <v>14642</v>
+        <v>19046</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -2545,25 +2545,25 @@
         <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D50" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="F50">
-        <v>87</v>
+        <v>11</v>
       </c>
       <c r="G50">
-        <v>4216</v>
+        <v>5464</v>
       </c>
       <c r="H50">
-        <v>25943</v>
+        <v>15525</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2574,25 +2574,25 @@
         <v>10</v>
       </c>
       <c r="C51" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D51" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="F51">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G51">
-        <v>1000</v>
+        <v>3600</v>
       </c>
       <c r="H51">
-        <v>10588</v>
+        <v>7164</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2603,25 +2603,25 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E52" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F52">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="G52">
-        <v>3227</v>
+        <v>1000</v>
       </c>
       <c r="H52">
-        <v>27308</v>
+        <v>20876</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2632,25 +2632,25 @@
         <v>12</v>
       </c>
       <c r="C53" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E53" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F53">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="G53">
-        <v>3952</v>
+        <v>5175</v>
       </c>
       <c r="H53">
-        <v>9624</v>
+        <v>10248</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2661,25 +2661,25 @@
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D54" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="F54">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="G54">
-        <v>4733</v>
+        <v>4213</v>
       </c>
       <c r="H54">
-        <v>16365</v>
+        <v>15207</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2690,25 +2690,25 @@
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D55" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E55" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
       <c r="F55">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="G55">
-        <v>4482</v>
+        <v>3227</v>
       </c>
       <c r="H55">
-        <v>22452</v>
+        <v>27308</v>
       </c>
       <c r="I55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2719,25 +2719,25 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D56" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E56" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F56">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="G56">
-        <v>4213</v>
+        <v>5076</v>
       </c>
       <c r="H56">
-        <v>15207</v>
+        <v>18700</v>
       </c>
       <c r="I56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2748,25 +2748,25 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D57" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E57" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="F57">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="G57">
-        <v>4586</v>
+        <v>4066</v>
       </c>
       <c r="H57">
-        <v>20655</v>
+        <v>24809</v>
       </c>
       <c r="I57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2777,25 +2777,25 @@
         <v>17</v>
       </c>
       <c r="C58" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="E58" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="F58">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="G58">
-        <v>4167</v>
+        <v>5531</v>
       </c>
       <c r="H58">
-        <v>11402</v>
+        <v>10810</v>
       </c>
       <c r="I58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2806,25 +2806,25 @@
         <v>18</v>
       </c>
       <c r="C59" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D59" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E59" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F59">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="G59">
-        <v>3664</v>
+        <v>4422</v>
       </c>
       <c r="H59">
-        <v>21437</v>
+        <v>17146</v>
       </c>
       <c r="I59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2835,25 +2835,25 @@
         <v>19</v>
       </c>
       <c r="C60" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D60" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E60" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="F60">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G60">
-        <v>5379</v>
+        <v>4560</v>
       </c>
       <c r="H60">
-        <v>13326</v>
+        <v>16618</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2864,25 +2864,25 @@
         <v>20</v>
       </c>
       <c r="C61" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D61" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="F61">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G61">
-        <v>4738</v>
+        <v>4913</v>
       </c>
       <c r="H61">
-        <v>15056</v>
+        <v>15729</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2893,25 +2893,25 @@
         <v>21</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D62" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F62">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G62">
-        <v>5433</v>
+        <v>4488</v>
       </c>
       <c r="H62">
-        <v>12555</v>
+        <v>23855</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2922,25 +2922,25 @@
         <v>22</v>
       </c>
       <c r="C63" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="D63" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E63" t="s">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="F63">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="G63">
-        <v>3898</v>
+        <v>5020</v>
       </c>
       <c r="H63">
-        <v>25423</v>
+        <v>15991</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2951,25 +2951,25 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D64" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F64">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="G64">
-        <v>4680</v>
+        <v>3980</v>
       </c>
       <c r="H64">
-        <v>19046</v>
+        <v>13880</v>
       </c>
       <c r="I64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2980,25 +2980,25 @@
         <v>24</v>
       </c>
       <c r="C65" t="s">
-        <v>157</v>
+        <v>105</v>
       </c>
       <c r="D65" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="F65">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G65">
-        <v>5325</v>
+        <v>5272</v>
       </c>
       <c r="H65">
-        <v>16491</v>
+        <v>10688</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -3009,25 +3009,25 @@
         <v>25</v>
       </c>
       <c r="C66" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="D66" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="E66" t="s">
-        <v>161</v>
+        <v>87</v>
       </c>
       <c r="F66">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="G66">
-        <v>4905</v>
+        <v>4308</v>
       </c>
       <c r="H66">
-        <v>13483</v>
+        <v>10587</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -3038,25 +3038,25 @@
         <v>26</v>
       </c>
       <c r="C67" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E67" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="F67">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="G67">
-        <v>4538</v>
+        <v>5131</v>
       </c>
       <c r="H67">
-        <v>18766</v>
+        <v>11671</v>
       </c>
       <c r="I67">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -3067,25 +3067,25 @@
         <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F68">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="G68">
-        <v>5175</v>
+        <v>4265</v>
       </c>
       <c r="H68">
-        <v>10248</v>
+        <v>22153</v>
       </c>
       <c r="I68">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -3096,25 +3096,25 @@
         <v>28</v>
       </c>
       <c r="C69" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E69" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="F69">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="G69">
-        <v>5076</v>
+        <v>4295</v>
       </c>
       <c r="H69">
-        <v>18700</v>
+        <v>20182</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -3125,25 +3125,25 @@
         <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="F70">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="G70">
-        <v>4353</v>
+        <v>5196</v>
       </c>
       <c r="H70">
-        <v>19153</v>
+        <v>11718</v>
       </c>
       <c r="I70">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -3154,25 +3154,25 @@
         <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="E71" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="F71">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="G71">
-        <v>4295</v>
+        <v>3348</v>
       </c>
       <c r="H71">
-        <v>14853</v>
+        <v>20535</v>
       </c>
       <c r="I71">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -3183,25 +3183,25 @@
         <v>31</v>
       </c>
       <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72" t="s">
         <v>171</v>
       </c>
-      <c r="D72" t="s">
-        <v>172</v>
-      </c>
       <c r="E72" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="F72">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="G72">
-        <v>5620</v>
+        <v>4736</v>
       </c>
       <c r="H72">
-        <v>13592</v>
+        <v>13474</v>
       </c>
       <c r="I72">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -3212,25 +3212,25 @@
         <v>32</v>
       </c>
       <c r="C73" t="s">
+        <v>172</v>
+      </c>
+      <c r="D73" t="s">
         <v>173</v>
       </c>
-      <c r="D73" t="s">
-        <v>174</v>
-      </c>
       <c r="E73" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="F73">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="G73">
-        <v>4710</v>
+        <v>5319</v>
       </c>
       <c r="H73">
-        <v>14760</v>
+        <v>7403</v>
       </c>
       <c r="I73">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -3241,25 +3241,25 @@
         <v>33</v>
       </c>
       <c r="C74" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" t="s">
         <v>175</v>
       </c>
-      <c r="D74" t="s">
-        <v>176</v>
-      </c>
       <c r="E74" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="G74">
-        <v>5820</v>
+        <v>4992</v>
       </c>
       <c r="H74">
-        <v>12305</v>
+        <v>8136</v>
       </c>
       <c r="I74">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -3270,25 +3270,25 @@
         <v>34</v>
       </c>
       <c r="C75" t="s">
+        <v>176</v>
+      </c>
+      <c r="D75" t="s">
         <v>177</v>
       </c>
-      <c r="D75" t="s">
-        <v>178</v>
-      </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F75">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="G75">
-        <v>4993</v>
+        <v>5673</v>
       </c>
       <c r="H75">
-        <v>16782</v>
+        <v>17348</v>
       </c>
       <c r="I75">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -3299,25 +3299,25 @@
         <v>35</v>
       </c>
       <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76" t="s">
         <v>179</v>
       </c>
-      <c r="D76" t="s">
-        <v>180</v>
-      </c>
       <c r="E76" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F76">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="G76">
-        <v>5531</v>
+        <v>4975</v>
       </c>
       <c r="H76">
-        <v>10810</v>
+        <v>14509</v>
       </c>
       <c r="I76">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -3328,25 +3328,25 @@
         <v>36</v>
       </c>
       <c r="C77" t="s">
+        <v>180</v>
+      </c>
+      <c r="D77" t="s">
         <v>181</v>
       </c>
-      <c r="D77" t="s">
-        <v>182</v>
-      </c>
       <c r="E77" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="F77">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G77">
-        <v>3687</v>
+        <v>3912</v>
       </c>
       <c r="H77">
-        <v>7345</v>
+        <v>8196</v>
       </c>
       <c r="I77">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -3357,25 +3357,25 @@
         <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>183</v>
+        <v>118</v>
       </c>
       <c r="D78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F78">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="G78">
-        <v>4848</v>
+        <v>4756</v>
       </c>
       <c r="H78">
-        <v>15299</v>
+        <v>11329</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -3386,25 +3386,25 @@
         <v>0</v>
       </c>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E79" t="s">
         <v>14</v>
       </c>
       <c r="F79">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="G79">
-        <v>5020</v>
+        <v>4265</v>
       </c>
       <c r="H79">
-        <v>15991</v>
+        <v>8680</v>
       </c>
       <c r="I79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -3415,25 +3415,25 @@
         <v>1</v>
       </c>
       <c r="C80" t="s">
-        <v>12</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s">
         <v>186</v>
       </c>
       <c r="E80" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F80">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G80">
-        <v>5680</v>
+        <v>4733</v>
       </c>
       <c r="H80">
-        <v>15387</v>
+        <v>16365</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -3450,19 +3450,19 @@
         <v>188</v>
       </c>
       <c r="E81" t="s">
-        <v>189</v>
+        <v>76</v>
       </c>
       <c r="F81">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="G81">
-        <v>1654</v>
+        <v>5222</v>
       </c>
       <c r="H81">
-        <v>9342</v>
+        <v>14322</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -3473,25 +3473,25 @@
         <v>3</v>
       </c>
       <c r="C82" t="s">
+        <v>189</v>
+      </c>
+      <c r="D82" t="s">
         <v>190</v>
       </c>
-      <c r="D82" t="s">
-        <v>191</v>
-      </c>
       <c r="E82" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="F82">
-        <v>101</v>
+        <v>73</v>
       </c>
       <c r="G82">
-        <v>3727</v>
+        <v>4434</v>
       </c>
       <c r="H82">
-        <v>22494</v>
+        <v>9942</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -3502,25 +3502,25 @@
         <v>4</v>
       </c>
       <c r="C83" t="s">
+        <v>191</v>
+      </c>
+      <c r="D83" t="s">
         <v>192</v>
       </c>
-      <c r="D83" t="s">
-        <v>193</v>
-      </c>
       <c r="E83" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="F83">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="G83">
-        <v>5077</v>
+        <v>4202</v>
       </c>
       <c r="H83">
-        <v>16342</v>
+        <v>11008</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -3531,25 +3531,25 @@
         <v>5</v>
       </c>
       <c r="C84" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" t="s">
         <v>194</v>
       </c>
-      <c r="D84" t="s">
-        <v>195</v>
-      </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="F84">
-        <v>93</v>
+        <v>7</v>
       </c>
       <c r="G84">
-        <v>4066</v>
+        <v>5544</v>
       </c>
       <c r="H84">
-        <v>24809</v>
+        <v>7562</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3560,25 +3560,25 @@
         <v>6</v>
       </c>
       <c r="C85" t="s">
-        <v>196</v>
+        <v>56</v>
       </c>
       <c r="D85" t="s">
-        <v>197</v>
+        <v>92</v>
       </c>
       <c r="E85" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="F85">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="G85">
-        <v>1000</v>
+        <v>5400</v>
       </c>
       <c r="H85">
-        <v>20876</v>
+        <v>10851</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3589,25 +3589,25 @@
         <v>7</v>
       </c>
       <c r="C86" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D86" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E86" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F86">
-        <v>105</v>
+        <v>32</v>
       </c>
       <c r="G86">
-        <v>3524</v>
+        <v>5077</v>
       </c>
       <c r="H86">
-        <v>13978</v>
+        <v>16342</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3618,25 +3618,25 @@
         <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D87" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E87" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="F87">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G87">
-        <v>4532</v>
+        <v>4540</v>
       </c>
       <c r="H87">
-        <v>10663</v>
+        <v>14406</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3647,25 +3647,25 @@
         <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D88" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E88" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="F88">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="G88">
-        <v>5473</v>
+        <v>4526</v>
       </c>
       <c r="H88">
-        <v>11163</v>
+        <v>23864</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3676,25 +3676,25 @@
         <v>10</v>
       </c>
       <c r="C89" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D89" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E89" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F89">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G89">
-        <v>4736</v>
+        <v>5325</v>
       </c>
       <c r="H89">
-        <v>23033</v>
+        <v>16491</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3705,25 +3705,25 @@
         <v>11</v>
       </c>
       <c r="C90" t="s">
-        <v>85</v>
+        <v>203</v>
       </c>
       <c r="D90" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E90" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="F90">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="G90">
-        <v>4690</v>
+        <v>3780</v>
       </c>
       <c r="H90">
-        <v>11786</v>
+        <v>28066</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3734,25 +3734,25 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D91" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E91" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="F91">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="G91">
-        <v>4030</v>
+        <v>5069</v>
       </c>
       <c r="H91">
-        <v>18286</v>
+        <v>15086</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -3763,25 +3763,25 @@
         <v>13</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D92" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E92" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="F92">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="G92">
-        <v>4233</v>
+        <v>1000</v>
       </c>
       <c r="H92">
-        <v>9068</v>
+        <v>24197</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -3792,25 +3792,25 @@
         <v>14</v>
       </c>
       <c r="C93" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D93" t="s">
-        <v>211</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F93">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="G93">
-        <v>4599</v>
+        <v>4030</v>
       </c>
       <c r="H93">
-        <v>8351</v>
+        <v>18286</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -3821,25 +3821,25 @@
         <v>15</v>
       </c>
       <c r="C94" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D94" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E94" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F94">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="G94">
-        <v>4202</v>
+        <v>4322</v>
       </c>
       <c r="H94">
-        <v>11008</v>
+        <v>19137</v>
       </c>
       <c r="I94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -3850,25 +3850,25 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D95" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E95" t="s">
-        <v>216</v>
+        <v>35</v>
       </c>
       <c r="F95">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="G95">
-        <v>4399</v>
+        <v>4673</v>
       </c>
       <c r="H95">
-        <v>9450</v>
+        <v>8581</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -3879,25 +3879,25 @@
         <v>17</v>
       </c>
       <c r="C96" t="s">
-        <v>155</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="E96" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="F96">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="G96">
-        <v>4308</v>
+        <v>3664</v>
       </c>
       <c r="H96">
-        <v>10587</v>
+        <v>21437</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -3908,25 +3908,25 @@
         <v>18</v>
       </c>
       <c r="C97" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E97" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F97">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="G97">
-        <v>3808</v>
+        <v>4812</v>
       </c>
       <c r="H97">
-        <v>7771</v>
+        <v>10551</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -3937,25 +3937,25 @@
         <v>19</v>
       </c>
       <c r="C98" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D98" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E98" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="F98">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="G98">
-        <v>4265</v>
+        <v>4538</v>
       </c>
       <c r="H98">
-        <v>8680</v>
+        <v>18766</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -3966,25 +3966,25 @@
         <v>20</v>
       </c>
       <c r="C99" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E99" t="s">
-        <v>89</v>
+        <v>35</v>
       </c>
       <c r="F99">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G99">
-        <v>4324</v>
+        <v>4956</v>
       </c>
       <c r="H99">
-        <v>15512</v>
+        <v>19918</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -3995,25 +3995,25 @@
         <v>21</v>
       </c>
       <c r="C100" t="s">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="D100" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E100" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="F100">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="G100">
-        <v>4952</v>
+        <v>4353</v>
       </c>
       <c r="H100">
-        <v>14704</v>
+        <v>10320</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -4024,25 +4024,25 @@
         <v>22</v>
       </c>
       <c r="C101" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D101" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E101" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="F101">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="G101">
-        <v>5196</v>
+        <v>3246</v>
       </c>
       <c r="H101">
-        <v>11718</v>
+        <v>7719</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -4053,25 +4053,25 @@
         <v>23</v>
       </c>
       <c r="C102" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D102" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F102">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G102">
-        <v>4812</v>
+        <v>5154</v>
       </c>
       <c r="H102">
-        <v>18826</v>
+        <v>7760</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -4082,25 +4082,25 @@
         <v>24</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E103" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="F103">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="G103">
-        <v>5149</v>
+        <v>5620</v>
       </c>
       <c r="H103">
-        <v>22688</v>
+        <v>13592</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -4111,25 +4111,25 @@
         <v>25</v>
       </c>
       <c r="C104" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D104" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E104" t="s">
+        <v>46</v>
+      </c>
+      <c r="F104">
         <v>55</v>
       </c>
-      <c r="F104">
-        <v>71</v>
-      </c>
       <c r="G104">
-        <v>4488</v>
+        <v>4710</v>
       </c>
       <c r="H104">
-        <v>23855</v>
+        <v>14760</v>
       </c>
       <c r="I104">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -4140,25 +4140,25 @@
         <v>26</v>
       </c>
       <c r="C105" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D105" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E105" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="F105">
-        <v>48</v>
+        <v>110</v>
       </c>
       <c r="G105">
-        <v>4812</v>
+        <v>1968</v>
       </c>
       <c r="H105">
-        <v>10551</v>
+        <v>25115</v>
       </c>
       <c r="I105">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -4169,25 +4169,25 @@
         <v>27</v>
       </c>
       <c r="C106" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D106" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E106" t="s">
-        <v>23</v>
+        <v>112</v>
       </c>
       <c r="F106">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="G106">
-        <v>4849</v>
+        <v>3808</v>
       </c>
       <c r="H106">
-        <v>8188</v>
+        <v>7771</v>
       </c>
       <c r="I106">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -4198,25 +4198,25 @@
         <v>28</v>
       </c>
       <c r="C107" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D107" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E107" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F107">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="G107">
-        <v>4667</v>
+        <v>5473</v>
       </c>
       <c r="H107">
-        <v>17414</v>
+        <v>16905</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -4227,25 +4227,25 @@
         <v>29</v>
       </c>
       <c r="C108" t="s">
-        <v>56</v>
+        <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>238</v>
       </c>
       <c r="F108">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="G108">
-        <v>5661</v>
+        <v>4905</v>
       </c>
       <c r="H108">
-        <v>12187</v>
+        <v>13483</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -4256,25 +4256,25 @@
         <v>30</v>
       </c>
       <c r="C109" t="s">
-        <v>240</v>
+        <v>88</v>
       </c>
       <c r="D109" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="F109">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>5170</v>
+        <v>5820</v>
       </c>
       <c r="H109">
-        <v>11299</v>
+        <v>12305</v>
       </c>
       <c r="I109">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -4285,25 +4285,25 @@
         <v>31</v>
       </c>
       <c r="C110" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D110" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F110">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="G110">
-        <v>5319</v>
+        <v>4599</v>
       </c>
       <c r="H110">
-        <v>7403</v>
+        <v>8351</v>
       </c>
       <c r="I110">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -4314,25 +4314,25 @@
         <v>32</v>
       </c>
       <c r="C111" t="s">
+        <v>242</v>
+      </c>
+      <c r="D111" t="s">
+        <v>243</v>
+      </c>
+      <c r="E111" t="s">
         <v>244</v>
       </c>
-      <c r="D111" t="s">
-        <v>245</v>
-      </c>
-      <c r="E111" t="s">
-        <v>26</v>
-      </c>
       <c r="F111">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G111">
-        <v>3358</v>
+        <v>4167</v>
       </c>
       <c r="H111">
-        <v>7199</v>
+        <v>11402</v>
       </c>
       <c r="I111">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -4343,25 +4343,25 @@
         <v>33</v>
       </c>
       <c r="C112" t="s">
+        <v>245</v>
+      </c>
+      <c r="D112" t="s">
         <v>246</v>
       </c>
-      <c r="D112" t="s">
-        <v>247</v>
-      </c>
       <c r="E112" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="F112">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="G112">
-        <v>5356</v>
+        <v>5166</v>
       </c>
       <c r="H112">
-        <v>15397</v>
+        <v>13549</v>
       </c>
       <c r="I112">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -4372,25 +4372,25 @@
         <v>34</v>
       </c>
       <c r="C113" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="D113" t="s">
         <v>248</v>
       </c>
       <c r="E113" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="F113">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="G113">
-        <v>4975</v>
+        <v>4738</v>
       </c>
       <c r="H113">
-        <v>15405</v>
+        <v>15056</v>
       </c>
       <c r="I113">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -4407,19 +4407,19 @@
         <v>250</v>
       </c>
       <c r="E114" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="F114">
-        <v>66</v>
+        <v>22</v>
       </c>
       <c r="G114">
-        <v>4540</v>
+        <v>5208</v>
       </c>
       <c r="H114">
-        <v>14406</v>
+        <v>12511</v>
       </c>
       <c r="I114">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -4436,19 +4436,19 @@
         <v>252</v>
       </c>
       <c r="E115" t="s">
-        <v>74</v>
+        <v>23</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>86</v>
       </c>
       <c r="G115">
-        <v>5473</v>
+        <v>4233</v>
       </c>
       <c r="H115">
-        <v>16905</v>
+        <v>9068</v>
       </c>
       <c r="I115">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -4465,19 +4465,19 @@
         <v>254</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F116">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="G116">
-        <v>5222</v>
+        <v>4988</v>
       </c>
       <c r="H116">
-        <v>14322</v>
+        <v>13255</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
